--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حفاضات جود كير مقاس 4 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>جبنة ابو الولد كريمى سبريد شيدر 20 جنيه - 100 جم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>ماكسى كولا - 400 مل</t>
+  </si>
+  <si>
+    <t>سندة أرز رفيع- 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2423</v>
+        <v>8672</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>160.75</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -452,53 +449,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2423</v>
+        <v>11894</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>803.75</v>
+        <v>242.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>12993</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>16.25</v>
-      </c>
-      <c r="E4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>12993</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>325</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ماكسى كولا - 400 مل</t>
-  </si>
-  <si>
-    <t>سندة أرز رفيع- 1 كجم</t>
+    <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
+  </si>
+  <si>
+    <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
+  </si>
+  <si>
+    <t>فرسكا ستكس ويفر ملفوف محشو بكريمه الكاكاو والبندق 3 قطعه</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 700 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +438,121 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8672</v>
+        <v>2225</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>49.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>11894</v>
+        <v>2225</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>594</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>10149</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>242.25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>32.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>12585</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>606</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>12585</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>50.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>12924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>565.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="239">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,700 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>زيت كريستال الممتاز خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>تونة صن شاين مفتتة حار - 185 جم</t>
+  </si>
+  <si>
+    <t>فجيتار كنور عادى - 35 جم</t>
+  </si>
+  <si>
+    <t>ارز حبوبة رفيع - 5 كجم</t>
+  </si>
+  <si>
+    <t>كنور مرقة دجاج 12 مكعب عبوة اقتصادية- 108 جم</t>
+  </si>
+  <si>
+    <t>كنور فيجيتار حار - 35 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>راني عصير خوخ حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+  </si>
+  <si>
+    <t>بيبسى كانز ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>راني عصير فراولة وموز حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز عبوة التوفير مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>صلصة هارفست ظرف - 30 جم</t>
+  </si>
+  <si>
+    <t>تايد مسحوق اوتوماتيك داوني - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس موز - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة جوافة - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير بخيره مانجو - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير بخيره جوافة - 200 مل</t>
+  </si>
+  <si>
+    <t>امريكانا بيفي بلوبيف - 340 جم</t>
+  </si>
+  <si>
+    <t>مشروب كادبوري مشروب كاكاو - 30 جم</t>
+  </si>
+  <si>
+    <t>كنور خلطة بشاميل- 70 جم</t>
+  </si>
+  <si>
+    <t>راني عصير مانجو حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>فانتا برتقال جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>اندومى فراخ اكواب - 60 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى تريتس شيكولاتة - 200 مل</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 545 جم</t>
+  </si>
+  <si>
+    <t>كلوريل كلور - 1050 جم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 5  - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 950 مل</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ 2 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر بالنعناع- 600 جم</t>
+  </si>
+  <si>
+    <t>راني عصير برتقال حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك فانيليا 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك كلاسيك 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>البوادى حلاوة سادة عائلى- 760 جم</t>
+  </si>
+  <si>
+    <t>اولويز ماكسى سميكة فردى ملمس قطنى طويل - 8 فوطة</t>
+  </si>
+  <si>
     <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
   </si>
   <si>
+    <t>لوبيا حبوبة بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>صانسيلك اكياس شامبو للشعر الاسود- 240 كيس 7 مل</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس بالنعناع صغير - 1.5 ج</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس جامبو مقاس 4 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>شاى ليبتون  ناعم 10 عبوة - 100 جم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون أخضر- 2.5 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
+  </si>
+  <si>
+    <t>مارى بسكويت- 15 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت جولى - 10 قطعه</t>
+  </si>
+  <si>
+    <t>بسكاتو بسكويت كريمة شيكولاتة- 60 جرام</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>جبنـة ابو الولد - 8 مثلث</t>
+  </si>
+  <si>
+    <t>فانتا تفاح احمر ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>زينه مناديل جيب كلاسيك الوان - 12 باكت</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ينسون- 20 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات موليفكس جامبو مقاس 2 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو بانتس مقاس 6 - 46 حفاضة</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة وسط - 200 جم</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 6 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر صفيحة - 4.25 كجم</t>
+  </si>
+  <si>
+    <t>هارفست صلصة شرينك ٢ برطمان خصم   15 % --- 320 جم</t>
+  </si>
+  <si>
+    <t>ريد بل ابيض بجوز الهند و التوت - 250 مل</t>
+  </si>
+  <si>
+    <t>تايد أوتوماتيك لافندر - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطه 11 بهار - 6 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس شيدر - 250 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس رومى - 250 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة خواتم - 280 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>كنور مرقة دجاج فورية ظرف 40كيس - 6 جم</t>
+  </si>
+  <si>
+    <t>سائل غسيل اطباق بريل ليمون - 90 جم</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>كلوركس الوان ظرف - 210 جم</t>
+  </si>
+  <si>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة هلالية - 350 جم</t>
+  </si>
+  <si>
+    <t>شاى العروسة -. 40 جم</t>
+  </si>
+  <si>
+    <t>عسل نحل البوادى زهرة البرسيم - 235 جم</t>
+  </si>
+  <si>
+    <t>عسل نحل البوادى زهرة البرسيم - 435 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى حيوية - 110 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى كلاسيك -- 110 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 725 جم</t>
+  </si>
+  <si>
+    <t>العبد فولية بار - 9 جنية</t>
+  </si>
+  <si>
+    <t>العبد سمسمية بار - 9 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>ماكسى برتقال - 400 مل</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>مشروب بودرة كادبورى شوكولاتة ساخنة ٣ فى ١ - 300 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى كلاسيك - 165 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>بلوبيف الذهبية - 340 جم</t>
+  </si>
+  <si>
+    <t>سفن اب 1.47 لتر</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو بار مغطى بالشوكولاتة- 3 جنية</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو بانتس مقاس 5 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>مولبد ماكسى مضغوطة طويل جدا 20 + 4 فوطة ميجا توفير - 24 فوطة</t>
+  </si>
+  <si>
+    <t>مناديل زينة كلاسيك سحب 2 طبقة الوان عرض خاص 3 قطع - 400 منديل</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل اوتوماتيك - 12 كجم</t>
+  </si>
+  <si>
+    <t>شامبو فيانسيه 7*1 بجوز الهند و الارجان - 340 مل</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس مقشور صلصة الطماطم و زيت - 400 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>أولويز ماكسي سميكة دوبل للبشره الحساسه طويل -  + 2 فوطة مجانا 16 فوطة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
+  </si>
+  <si>
     <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
   </si>
   <si>
-    <t>فرسكا ستكس ويفر ملفوف محشو بكريمه الكاكاو والبندق 3 قطعه</t>
+    <t>مسحوق باهى لافندر اوتوماتيك لافندر 4 كم + 500 جم - 4.5 كجم</t>
+  </si>
+  <si>
+    <t>مناديل زينة فاليو مطبخ 5 + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>مربى البوادى تين - 680 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى مشمش - 680 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مقشور بالصلصه خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مقشور بالفلفل الحار خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>15% هارفست فول بزيت الزيتون خصم  - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول دندراوى خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>راني عصير كوكتيل حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>بسكاتو دايجستا ميني لايت - 8 جنية</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 6 - 46 حفاضة</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل الدسم - 1.5 لتر</t>
+  </si>
+  <si>
+    <t>اندومى فراخ بالكارى عرض 44  كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى شعرية مقلية عرض 44  كيس - 80 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
+  </si>
+  <si>
+    <t>راني عصير مشروب  مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 2.4 لتر</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة مثالية - 75 جم</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة نضرة - 75 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح كمثرى - 235 مل</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أخضر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة مثالية - 115 جم</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة نضرة - 115 جم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اصفر- 100 جم</t>
+  </si>
+  <si>
+    <t>XXL مولتو شيكولاته بالبندق  - 10 جنية</t>
+  </si>
+  <si>
+    <t>توينكيز دبل كريم حجم جديد كريمة اكثر- 5 جنية</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة نضرة - 165 جم</t>
+  </si>
+  <si>
+    <t>أد - مى كاتشب سكويز بارد - 245 جم</t>
+  </si>
+  <si>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم الكولا - 250 مل</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم البرتقال - 250 مل</t>
+  </si>
+  <si>
+    <t>قوت سمنة ظرف طعم الزبدة الصفراء - 55 جم</t>
+  </si>
+  <si>
+    <t>سمنة الاصيل اصفر - 750 جم</t>
+  </si>
+  <si>
+    <t>سمنة الاصيل اصفر - 1450 جم</t>
+  </si>
+  <si>
+    <t>تيكا مارشملو كبير- 10 جنية</t>
+  </si>
+  <si>
+    <t>تيكا كونو شيكو - 8 جنية</t>
+  </si>
+  <si>
+    <t>مناديل زينة ميجا باك تريو الوان 3 طبقة - 700 منديل</t>
+  </si>
+  <si>
+    <t>صابون دو (روز) - 120 جم</t>
+  </si>
+  <si>
+    <t>بريكس مزيل بقع - 30 جم</t>
+  </si>
+  <si>
+    <t>برسيل ابيض+جل بلاك هدية -900مل- 2.5 كجم</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم التفاح والشعير 250 مل</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو ستكس شوكولاتة مغطي شوكولاته بيضاءمحشو كاكاو وبندق 2 قطعه</t>
+  </si>
+  <si>
+    <t>كلوريل الوان بقوة الاكسجين احمر - 1 كجم</t>
+  </si>
+  <si>
+    <t>ماكسى برتقال - 1 لتر</t>
+  </si>
+  <si>
+    <t>كلوروكس ابيض باوش - 500 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
   </si>
   <si>
     <t>زيت ثمرات خليط - 700 مل</t>
   </si>
   <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>جبنة ابو الولد كريمى سبريد كلاسيك 20 جنيه - 100 جم</t>
+  </si>
+  <si>
+    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ جوز هند بالشوكلاتة البيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ ﻛﺎﻛﺎﻭ - 5 جنية</t>
+  </si>
+  <si>
+    <t>مولبد حماية ضد البكتريا طويل جدا 12 + 2 فوطة مجانا - 14 فوطة</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا بلس مطبخ 2 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>مناديل بابيا تواليت 3 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>هوهوز كيك الشوكولاتة الملفوف المحشو بكريمة الفانيلا والمغطي بالكاكاو 10 جنية</t>
+  </si>
+  <si>
+    <t>رافلانت بونبون كريز - 20 قطعه</t>
+  </si>
+  <si>
+    <t>رافلانت بونبون لمون نعناع - 20 قطعه</t>
+  </si>
+  <si>
+    <t>رافلانت شكولاته بار بحشو الكراميل والسوداني - 12 قطعه</t>
+  </si>
+  <si>
+    <t>رافلانت شكولاته وايت  - 70 جم</t>
+  </si>
+  <si>
+    <t>رافلانت شكولاته بالبندق - 70 جم</t>
+  </si>
+  <si>
+    <t>رافلانت شكولاته باللبن 70 جم</t>
+  </si>
+  <si>
+    <t>رافلانت شكولاته باللوز - 70 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة مرمرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة خواتم بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة فرن بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>كمارا مصاصة طعم الفواكه محشو لبان - 50 قطعه</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 400 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>ريد بول 12 كانز - 250 مل</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى سادة 15 جنيه - 18.5 جم</t>
+  </si>
+  <si>
+    <t>بريل - 4 كجم</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا بالارجان +10%  خصم  - 125 مل</t>
+  </si>
+  <si>
+    <t>تايد أوتوماتيك داونى  - 9 كجم</t>
+  </si>
+  <si>
+    <t>برسيل جل لافندر - 70 جم</t>
+  </si>
+  <si>
+    <t>برسيل جل بلاك - 70 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا كانز اورجنال 10% زياده - 355 مل</t>
+  </si>
+  <si>
+    <t>اندومي سوبر مى خضار حارجامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>باى لاك معمول ب السمسم محشو ب التمر - 5 جنية</t>
+  </si>
+  <si>
+    <t>باندا مثلثات - 8 قطعه</t>
+  </si>
+  <si>
+    <t>ماندولين ويفر كريمة الكاكاو ب 5ج - 16 جم</t>
+  </si>
+  <si>
+    <t>بونكس اوتوماتيك برائحة الفل - 9 كجم</t>
+  </si>
+  <si>
+    <t>ديفا منظف ايدى الترا فريش - 500 مل</t>
+  </si>
+  <si>
+    <t>أولكر البيلا وفير بكريمه الفانيليا - 5 جنية</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 3 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس ماكسى ضد البكتريا ميجا مقاس 4 - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس كبير جدا ضد البكتريا ميجا مقاس 6 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس  مقاس 6 كبير جدا 46 حفاضة</t>
+  </si>
+  <si>
+    <t>لبان ترايدنت بطيخ حجم اكبر لبان اكتر- 7 قطعه</t>
+  </si>
+  <si>
+    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون نعناع اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>بوريو بسكويت بالكاكاو والفانيليا 8+2 قطع 50 جرام</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>كيك تاوتاو تربو كاكاو بكريمة الفانيليا - 6 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>كيك تاوتاو تربو محشو كريم الفانيليا ومربى الفراولة - 5 جنية</t>
+  </si>
+  <si>
+    <t>شوكولاته تابلت حشو كريمة كاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>كمارا شوكولاته تابلت حشو مربي توت - 10 جنية</t>
+  </si>
+  <si>
+    <t>اندومى فراخ - 5 جنية 56 جم</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار - 5 جنيه - 56 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالشيدر -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنه رومي-عرض الكل كسبان 500 جم</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
+  </si>
+  <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,121 +1119,5799 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2225</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>49.5</v>
+        <v>860</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2225</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>594</v>
+        <v>595.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10149</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>32.25</v>
+        <v>1728</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10149</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>1290</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>12585</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>12585</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>50.5</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>635</v>
+      </c>
+      <c r="E9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>138.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>690</v>
+      </c>
+      <c r="E12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>195</v>
+      </c>
+      <c r="E14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>186.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>187.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>397.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>247</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>322</v>
+      </c>
+      <c r="E20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>330</v>
+      </c>
+      <c r="E21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>332</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>405</v>
+      </c>
+      <c r="E22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>334</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1020</v>
+      </c>
+      <c r="E23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>340</v>
+      </c>
+      <c r="E24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>346</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>346</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>358</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>603</v>
+      </c>
+      <c r="E27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>411</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>272</v>
+      </c>
+      <c r="E28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>416</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>340</v>
+      </c>
+      <c r="E29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>420</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>131.25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>422</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>132.25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>424</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>424</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1416</v>
+      </c>
+      <c r="E33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>432</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>432</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>784</v>
+      </c>
+      <c r="E35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>440</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>148.75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>440</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>892.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>563</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>407.5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>624</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>284</v>
+      </c>
+      <c r="E39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>825</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>332.25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>957</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>272</v>
+      </c>
+      <c r="E41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1053</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>729</v>
+      </c>
+      <c r="D42">
+        <v>249</v>
+      </c>
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1053</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1053</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>996</v>
+      </c>
+      <c r="E44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1053</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>728</v>
+      </c>
+      <c r="D45">
+        <v>498</v>
+      </c>
+      <c r="E45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1277</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>156</v>
+      </c>
+      <c r="E46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1406</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1060.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1406</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>353.5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1523</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>606</v>
+      </c>
+      <c r="E49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1701</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>171.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1728</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>304.25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1814</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>398.25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>2050</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1488</v>
+      </c>
+      <c r="E53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>2050</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>2057</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1482</v>
+      </c>
+      <c r="E55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2057</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>61.75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>116.25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>697.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>22.75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>364</v>
+      </c>
+      <c r="E60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2216</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2216</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>2225</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2225</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>600</v>
+      </c>
+      <c r="E64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2325</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>276.25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2331</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>251</v>
+      </c>
+      <c r="E66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2368</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>83.5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2368</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1670</v>
+      </c>
+      <c r="E68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2419</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>822</v>
+      </c>
+      <c r="E69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2419</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>80</v>
+      </c>
+      <c r="D70">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2422</v>
+      </c>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>775</v>
+      </c>
+      <c r="E71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2422</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>2436</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3012</v>
+      </c>
+      <c r="E73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>2436</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>251</v>
+      </c>
+      <c r="E74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>2492</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>335.5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>2655</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>202</v>
+      </c>
+      <c r="E76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>2805</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77">
+        <v>137</v>
+      </c>
+      <c r="D77">
+        <v>163.75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>2989</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>125.75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>2989</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>503</v>
+      </c>
+      <c r="E79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>2992</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>825</v>
+      </c>
+      <c r="E80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>2992</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>206.25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>3024</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>328.5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>3024</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>109.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>3334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>156.75</v>
+      </c>
+      <c r="E84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>3393</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>202</v>
+      </c>
+      <c r="E85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>3394</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>202</v>
+      </c>
+      <c r="E86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>3495</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>28.75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>3495</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1150</v>
+      </c>
+      <c r="E88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>3671</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>342</v>
+      </c>
+      <c r="E89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>3840</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>167.5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>3896</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91">
+        <v>25</v>
+      </c>
+      <c r="D91">
+        <v>309</v>
+      </c>
+      <c r="E91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>3896</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92">
+        <v>29</v>
+      </c>
+      <c r="D92">
+        <v>927</v>
+      </c>
+      <c r="E92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>3934</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>53.25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>3981</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>3981</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1296</v>
+      </c>
+      <c r="E95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>4030</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96">
+        <v>29</v>
+      </c>
+      <c r="D96">
+        <v>795</v>
+      </c>
+      <c r="E96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>4030</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>265</v>
+      </c>
+      <c r="E97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>4043</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>262</v>
+      </c>
+      <c r="E98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>4043</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99">
+        <v>29</v>
+      </c>
+      <c r="D99">
+        <v>786</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>4224</v>
+      </c>
+      <c r="B100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>7047</v>
+      </c>
+      <c r="E100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>4224</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>587.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>4232</v>
+      </c>
+      <c r="B102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102">
+        <v>29</v>
+      </c>
+      <c r="D102">
+        <v>990</v>
+      </c>
+      <c r="E102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>4232</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103">
+        <v>80</v>
+      </c>
+      <c r="D103">
+        <v>198</v>
+      </c>
+      <c r="E103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>4927</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>386.5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>5080</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>250.5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>5153</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1203.5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>5391</v>
+      </c>
+      <c r="B107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>603</v>
+      </c>
+      <c r="E107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>5452</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>207.5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>5490</v>
+      </c>
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>279</v>
+      </c>
+      <c r="E109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>5585</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>116.5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>5585</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1165</v>
+      </c>
+      <c r="E111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>5729</v>
+      </c>
+      <c r="B112" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>573.5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>5733</v>
+      </c>
+      <c r="B113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>579</v>
+      </c>
+      <c r="E113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>5866</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>135</v>
+      </c>
+      <c r="E114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>5976</v>
+      </c>
+      <c r="B115" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>186</v>
+      </c>
+      <c r="E115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>6098</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>773</v>
+      </c>
+      <c r="E116" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>6098</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117">
+        <v>80</v>
+      </c>
+      <c r="D117">
+        <v>386.5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>6158</v>
+      </c>
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>116</v>
+      </c>
+      <c r="E118" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>6494</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>572.5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>6497</v>
+      </c>
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>831</v>
+      </c>
+      <c r="E120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>6540</v>
+      </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>379.25</v>
+      </c>
+      <c r="E121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>6540</v>
+      </c>
+      <c r="B122" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122">
+        <v>29</v>
+      </c>
+      <c r="D122">
+        <v>758.5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>6575</v>
+      </c>
+      <c r="B123" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>113.5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>6575</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1135</v>
+      </c>
+      <c r="E124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>6805</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>59.75</v>
+      </c>
+      <c r="E125" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>7004</v>
+      </c>
+      <c r="B126" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>376.25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>7005</v>
+      </c>
+      <c r="B127" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>374</v>
+      </c>
+      <c r="E127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>7036</v>
+      </c>
+      <c r="B128" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>230</v>
+      </c>
+      <c r="E128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>7573</v>
+      </c>
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>81</v>
+      </c>
+      <c r="E129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>7705</v>
+      </c>
+      <c r="B130" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>168</v>
+      </c>
+      <c r="E130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>7706</v>
+      </c>
+      <c r="B131" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>165</v>
+      </c>
+      <c r="E131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>7708</v>
+      </c>
+      <c r="B132" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>166.75</v>
+      </c>
+      <c r="E132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>7885</v>
+      </c>
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>217</v>
+      </c>
+      <c r="E133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>7885</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>2604</v>
+      </c>
+      <c r="E134" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>8188</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>40.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>8188</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>972</v>
+      </c>
+      <c r="E136" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>8189</v>
+      </c>
+      <c r="B137" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>76.5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>8189</v>
+      </c>
+      <c r="B138" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>918</v>
+      </c>
+      <c r="E138" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>8284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>735</v>
+      </c>
+      <c r="E139" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>8284</v>
+      </c>
+      <c r="B140" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>61.25</v>
+      </c>
+      <c r="E140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>8285</v>
+      </c>
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>744</v>
+      </c>
+      <c r="E141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>8285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>62</v>
+      </c>
+      <c r="E142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>8356</v>
+      </c>
+      <c r="B143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>320</v>
+      </c>
+      <c r="E143" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>8600</v>
+      </c>
+      <c r="B144" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>200</v>
+      </c>
+      <c r="E144" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>8636</v>
+      </c>
+      <c r="B145" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>83.75</v>
+      </c>
+      <c r="E145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>8636</v>
+      </c>
+      <c r="B146" t="s">
+        <v>105</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>837.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>8637</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>84.25</v>
+      </c>
+      <c r="E147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>8637</v>
+      </c>
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>842.5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>8659</v>
+      </c>
+      <c r="B149" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>239</v>
+      </c>
+      <c r="E149" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>8676</v>
+      </c>
+      <c r="B150" t="s">
+        <v>108</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>105.25</v>
+      </c>
+      <c r="E150" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>8688</v>
+      </c>
+      <c r="B151" t="s">
+        <v>109</v>
+      </c>
+      <c r="C151">
+        <v>14</v>
+      </c>
+      <c r="D151">
+        <v>79.25</v>
+      </c>
+      <c r="E151" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>8688</v>
+      </c>
+      <c r="B152" t="s">
+        <v>109</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1188.75</v>
+      </c>
+      <c r="E152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>8690</v>
+      </c>
+      <c r="B153" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>79.75</v>
+      </c>
+      <c r="E153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>8690</v>
+      </c>
+      <c r="B154" t="s">
+        <v>110</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1914</v>
+      </c>
+      <c r="E154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>8754</v>
+      </c>
+      <c r="B155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1014</v>
+      </c>
+      <c r="E155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>8754</v>
+      </c>
+      <c r="B156" t="s">
+        <v>111</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>84.5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>8915</v>
+      </c>
+      <c r="B157" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>177.5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>8927</v>
+      </c>
+      <c r="B158" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>35.5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>8927</v>
+      </c>
+      <c r="B159" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>852</v>
+      </c>
+      <c r="E159" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>8938</v>
+      </c>
+      <c r="B160" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>190</v>
+      </c>
+      <c r="E160" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>8939</v>
+      </c>
+      <c r="B161" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>168.25</v>
+      </c>
+      <c r="E161" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>9083</v>
+      </c>
+      <c r="B162" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>60.75</v>
+      </c>
+      <c r="E162" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>9083</v>
+      </c>
+      <c r="B163" t="s">
+        <v>116</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>729</v>
+      </c>
+      <c r="E163" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>9085</v>
+      </c>
+      <c r="B164" t="s">
+        <v>117</v>
+      </c>
+      <c r="C164">
+        <v>25</v>
+      </c>
+      <c r="D164">
+        <v>309</v>
+      </c>
+      <c r="E164" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>9085</v>
+      </c>
+      <c r="B165" t="s">
+        <v>117</v>
+      </c>
+      <c r="C165">
+        <v>29</v>
+      </c>
+      <c r="D165">
+        <v>927</v>
+      </c>
+      <c r="E165" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>9088</v>
+      </c>
+      <c r="B166" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166">
+        <v>29</v>
+      </c>
+      <c r="D166">
+        <v>787.5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>9088</v>
+      </c>
+      <c r="B167" t="s">
+        <v>118</v>
+      </c>
+      <c r="C167">
+        <v>25</v>
+      </c>
+      <c r="D167">
+        <v>262.5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>9113</v>
+      </c>
+      <c r="B168" t="s">
+        <v>119</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>792</v>
+      </c>
+      <c r="E168" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>9113</v>
+      </c>
+      <c r="B169" t="s">
+        <v>119</v>
+      </c>
+      <c r="C169">
+        <v>15</v>
+      </c>
+      <c r="D169">
+        <v>198</v>
+      </c>
+      <c r="E169" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>9113</v>
+      </c>
+      <c r="B170" t="s">
+        <v>119</v>
+      </c>
+      <c r="C170">
+        <v>25</v>
+      </c>
+      <c r="D170">
+        <v>66</v>
+      </c>
+      <c r="E170" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>9186</v>
+      </c>
+      <c r="B171" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171">
+        <v>29</v>
+      </c>
+      <c r="D171">
+        <v>339</v>
+      </c>
+      <c r="E171" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>9373</v>
+      </c>
+      <c r="B172" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172">
+        <v>317</v>
+      </c>
+      <c r="E172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>9488</v>
+      </c>
+      <c r="B173" t="s">
+        <v>122</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>266.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>9488</v>
+      </c>
+      <c r="B174" t="s">
+        <v>122</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>533</v>
+      </c>
+      <c r="E174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>9613</v>
+      </c>
+      <c r="B175" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>460</v>
+      </c>
+      <c r="E175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>9768</v>
+      </c>
+      <c r="B176" t="s">
+        <v>124</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176">
+        <v>21</v>
+      </c>
+      <c r="E176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>9768</v>
+      </c>
+      <c r="B177" t="s">
+        <v>124</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>504</v>
+      </c>
+      <c r="E177" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>9784</v>
+      </c>
+      <c r="B178" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>406</v>
+      </c>
+      <c r="E178" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>9785</v>
+      </c>
+      <c r="B179" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>398</v>
+      </c>
+      <c r="E179" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>9840</v>
+      </c>
+      <c r="B180" t="s">
+        <v>127</v>
+      </c>
+      <c r="C180">
+        <v>25</v>
+      </c>
+      <c r="D180">
+        <v>39.25</v>
+      </c>
+      <c r="E180" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>9840</v>
+      </c>
+      <c r="B181" t="s">
+        <v>127</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>628</v>
+      </c>
+      <c r="E181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>9910</v>
+      </c>
+      <c r="B182" t="s">
+        <v>128</v>
+      </c>
+      <c r="C182">
+        <v>29</v>
+      </c>
+      <c r="D182">
+        <v>806.5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>9910</v>
+      </c>
+      <c r="B183" t="s">
+        <v>128</v>
+      </c>
+      <c r="C183">
+        <v>25</v>
+      </c>
+      <c r="D183">
+        <v>403.25</v>
+      </c>
+      <c r="E183" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>10149</v>
+      </c>
+      <c r="B184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1290</v>
+      </c>
+      <c r="E184" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>10149</v>
+      </c>
+      <c r="B185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>32.25</v>
+      </c>
+      <c r="E185" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>10175</v>
+      </c>
+      <c r="B186" t="s">
+        <v>130</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>593</v>
+      </c>
+      <c r="E186" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>10176</v>
+      </c>
+      <c r="B187" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187">
+        <v>29</v>
+      </c>
+      <c r="D187">
+        <v>220</v>
+      </c>
+      <c r="E187" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>10411</v>
+      </c>
+      <c r="B188" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>468</v>
+      </c>
+      <c r="E188" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>10411</v>
+      </c>
+      <c r="B189" t="s">
+        <v>132</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189">
+        <v>39</v>
+      </c>
+      <c r="E189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>10414</v>
+      </c>
+      <c r="B190" t="s">
+        <v>133</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190">
+        <v>41.75</v>
+      </c>
+      <c r="E190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>10414</v>
+      </c>
+      <c r="B191" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>501</v>
+      </c>
+      <c r="E191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>10448</v>
+      </c>
+      <c r="B192" t="s">
+        <v>134</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>210</v>
+      </c>
+      <c r="E192" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>10448</v>
+      </c>
+      <c r="B193" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193">
+        <v>17.5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>10449</v>
+      </c>
+      <c r="B194" t="s">
+        <v>135</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194">
+        <v>17.75</v>
+      </c>
+      <c r="E194" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>10449</v>
+      </c>
+      <c r="B195" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>213</v>
+      </c>
+      <c r="E195" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>10450</v>
+      </c>
+      <c r="B196" t="s">
+        <v>136</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>207</v>
+      </c>
+      <c r="E196" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>10450</v>
+      </c>
+      <c r="B197" t="s">
+        <v>136</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>17.25</v>
+      </c>
+      <c r="E197" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>10452</v>
+      </c>
+      <c r="B198" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>213</v>
+      </c>
+      <c r="E198" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>10452</v>
+      </c>
+      <c r="B199" t="s">
+        <v>137</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199">
+        <v>17.75</v>
+      </c>
+      <c r="E199" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>10507</v>
+      </c>
+      <c r="B200" t="s">
+        <v>138</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>389</v>
+      </c>
+      <c r="E200" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>10588</v>
+      </c>
+      <c r="B201" t="s">
+        <v>139</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>280</v>
+      </c>
+      <c r="E201" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>10588</v>
+      </c>
+      <c r="B202" t="s">
+        <v>139</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>70</v>
+      </c>
+      <c r="E202" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>10721</v>
+      </c>
+      <c r="B203" t="s">
+        <v>140</v>
+      </c>
+      <c r="C203">
+        <v>29</v>
+      </c>
+      <c r="D203">
+        <v>846.75</v>
+      </c>
+      <c r="E203" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>10721</v>
+      </c>
+      <c r="B204" t="s">
+        <v>140</v>
+      </c>
+      <c r="C204">
+        <v>80</v>
+      </c>
+      <c r="D204">
+        <v>282.25</v>
+      </c>
+      <c r="E204" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>10993</v>
+      </c>
+      <c r="B205" t="s">
+        <v>141</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>537</v>
+      </c>
+      <c r="E205" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>11092</v>
+      </c>
+      <c r="B206" t="s">
+        <v>142</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>361.25</v>
+      </c>
+      <c r="E206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>11116</v>
+      </c>
+      <c r="B207" t="s">
+        <v>143</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>364.75</v>
+      </c>
+      <c r="E207" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>11158</v>
+      </c>
+      <c r="B208" t="s">
+        <v>144</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>57.75</v>
+      </c>
+      <c r="E208" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>11180</v>
+      </c>
+      <c r="B209" t="s">
+        <v>145</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>331.25</v>
+      </c>
+      <c r="E209" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>11304</v>
+      </c>
+      <c r="B210" t="s">
+        <v>146</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>318</v>
+      </c>
+      <c r="E210" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>11402</v>
+      </c>
+      <c r="B211" t="s">
+        <v>147</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>670.25</v>
+      </c>
+      <c r="E211" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>11435</v>
+      </c>
+      <c r="B212" t="s">
+        <v>148</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>482</v>
+      </c>
+      <c r="E212" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>11435</v>
+      </c>
+      <c r="B213" t="s">
+        <v>148</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>60.25</v>
+      </c>
+      <c r="E213" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>11450</v>
+      </c>
+      <c r="B214" t="s">
+        <v>149</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>484</v>
+      </c>
+      <c r="E214" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>11450</v>
+      </c>
+      <c r="B215" t="s">
+        <v>149</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>60.5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>11491</v>
+      </c>
+      <c r="B216" t="s">
+        <v>150</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>212</v>
+      </c>
+      <c r="E216" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>11492</v>
+      </c>
+      <c r="B217" t="s">
+        <v>151</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>327.5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>11586</v>
+      </c>
+      <c r="B218" t="s">
+        <v>152</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>79.75</v>
+      </c>
+      <c r="E218" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>11587</v>
+      </c>
+      <c r="B219" t="s">
+        <v>153</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>74</v>
+      </c>
+      <c r="E219" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>11687</v>
+      </c>
+      <c r="B220" t="s">
+        <v>154</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>770</v>
+      </c>
+      <c r="E220" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>11687</v>
+      </c>
+      <c r="B221" t="s">
+        <v>154</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>96.25</v>
+      </c>
+      <c r="E221" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>11689</v>
+      </c>
+      <c r="B222" t="s">
+        <v>155</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>96</v>
+      </c>
+      <c r="E222" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>11689</v>
+      </c>
+      <c r="B223" t="s">
+        <v>155</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>768</v>
+      </c>
+      <c r="E223" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>11766</v>
+      </c>
+      <c r="B224" t="s">
+        <v>156</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>89.25</v>
+      </c>
+      <c r="E224" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>11848</v>
+      </c>
+      <c r="B225" t="s">
+        <v>157</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>199.5</v>
+      </c>
+      <c r="E225" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>11868</v>
+      </c>
+      <c r="B226" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>848</v>
+      </c>
+      <c r="E226" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>11868</v>
+      </c>
+      <c r="B227" t="s">
+        <v>158</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>106</v>
+      </c>
+      <c r="E227" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>11885</v>
+      </c>
+      <c r="B228" t="s">
+        <v>159</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1208</v>
+      </c>
+      <c r="E228" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>11885</v>
+      </c>
+      <c r="B229" t="s">
+        <v>159</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>151</v>
+      </c>
+      <c r="E229" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>11896</v>
+      </c>
+      <c r="B230" t="s">
+        <v>160</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>300.25</v>
+      </c>
+      <c r="E230" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>11960</v>
+      </c>
+      <c r="B231" t="s">
+        <v>161</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>57.5</v>
+      </c>
+      <c r="E231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>11960</v>
+      </c>
+      <c r="B232" t="s">
+        <v>161</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>230</v>
+      </c>
+      <c r="E232" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>12053</v>
+      </c>
+      <c r="B233" t="s">
+        <v>162</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>55.25</v>
+      </c>
+      <c r="E233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>12057</v>
+      </c>
+      <c r="B234" t="s">
+        <v>163</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>53.25</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>12139</v>
+      </c>
+      <c r="B235" t="s">
+        <v>164</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>220</v>
+      </c>
+      <c r="E235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>12146</v>
+      </c>
+      <c r="B236" t="s">
+        <v>165</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>404.75</v>
+      </c>
+      <c r="E236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>12147</v>
+      </c>
+      <c r="B237" t="s">
+        <v>166</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>759</v>
+      </c>
+      <c r="E237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>12239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>167</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>85</v>
+      </c>
+      <c r="E238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>12239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>167</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>340</v>
+      </c>
+      <c r="E239" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>12259</v>
+      </c>
+      <c r="B240" t="s">
+        <v>168</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>61.25</v>
+      </c>
+      <c r="E240" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>12259</v>
+      </c>
+      <c r="B241" t="s">
+        <v>168</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>490</v>
+      </c>
+      <c r="E241" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>12338</v>
+      </c>
+      <c r="B242" t="s">
+        <v>169</v>
+      </c>
+      <c r="C242">
+        <v>29</v>
+      </c>
+      <c r="D242">
+        <v>552</v>
+      </c>
+      <c r="E242" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>12449</v>
+      </c>
+      <c r="B243" t="s">
+        <v>170</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>40.25</v>
+      </c>
+      <c r="E243" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>12449</v>
+      </c>
+      <c r="B244" t="s">
+        <v>170</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>483</v>
+      </c>
+      <c r="E244" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>12503</v>
+      </c>
+      <c r="B245" t="s">
+        <v>171</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>139.5</v>
+      </c>
+      <c r="E245" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>12511</v>
+      </c>
+      <c r="B246" t="s">
+        <v>172</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>628</v>
+      </c>
+      <c r="E246" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>12517</v>
+      </c>
+      <c r="B247" t="s">
+        <v>173</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>53.25</v>
+      </c>
+      <c r="E247" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>12577</v>
+      </c>
+      <c r="B248" t="s">
+        <v>174</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>50.25</v>
+      </c>
+      <c r="E248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>12577</v>
+      </c>
+      <c r="B249" t="s">
+        <v>174</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>603</v>
+      </c>
+      <c r="E249" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>12614</v>
+      </c>
+      <c r="B250" t="s">
+        <v>175</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>310</v>
+      </c>
+      <c r="E250" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>12720</v>
+      </c>
+      <c r="B251" t="s">
+        <v>176</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>103.75</v>
+      </c>
+      <c r="E251" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>12870</v>
+      </c>
+      <c r="B252" t="s">
+        <v>177</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>208.5</v>
+      </c>
+      <c r="E252" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>12923</v>
+      </c>
+      <c r="B253" t="s">
+        <v>178</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>791.25</v>
+      </c>
+      <c r="E253" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
         <v>12924</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>565.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+      <c r="B254" t="s">
+        <v>179</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>577.5</v>
+      </c>
+      <c r="E254" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>12925</v>
+      </c>
+      <c r="B255" t="s">
+        <v>180</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>460</v>
+      </c>
+      <c r="E255" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>12992</v>
+      </c>
+      <c r="B256" t="s">
+        <v>181</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>335</v>
+      </c>
+      <c r="E256" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>12992</v>
+      </c>
+      <c r="B257" t="s">
+        <v>181</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>16.75</v>
+      </c>
+      <c r="E257" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>13033</v>
+      </c>
+      <c r="B258" t="s">
+        <v>182</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>597</v>
+      </c>
+      <c r="E258" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>13033</v>
+      </c>
+      <c r="B259" t="s">
+        <v>182</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>49.75</v>
+      </c>
+      <c r="E259" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>13034</v>
+      </c>
+      <c r="B260" t="s">
+        <v>183</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <v>49.75</v>
+      </c>
+      <c r="E260" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>13034</v>
+      </c>
+      <c r="B261" t="s">
+        <v>183</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>597</v>
+      </c>
+      <c r="E261" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>13244</v>
+      </c>
+      <c r="B262" t="s">
+        <v>184</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>588</v>
+      </c>
+      <c r="E262" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>13244</v>
+      </c>
+      <c r="B263" t="s">
+        <v>184</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>73.5</v>
+      </c>
+      <c r="E263" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>13246</v>
+      </c>
+      <c r="B264" t="s">
+        <v>185</v>
+      </c>
+      <c r="C264">
+        <v>29</v>
+      </c>
+      <c r="D264">
+        <v>198.75</v>
+      </c>
+      <c r="E264" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>13251</v>
+      </c>
+      <c r="B265" t="s">
+        <v>186</v>
+      </c>
+      <c r="C265">
+        <v>29</v>
+      </c>
+      <c r="D265">
+        <v>335.5</v>
+      </c>
+      <c r="E265" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>13293</v>
+      </c>
+      <c r="B266" t="s">
+        <v>187</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+      <c r="D266">
+        <v>101.25</v>
+      </c>
+      <c r="E266" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>13293</v>
+      </c>
+      <c r="B267" t="s">
+        <v>187</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>810</v>
+      </c>
+      <c r="E267" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>13397</v>
+      </c>
+      <c r="B268" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268">
+        <v>107.5</v>
+      </c>
+      <c r="E268" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>13397</v>
+      </c>
+      <c r="B269" t="s">
+        <v>188</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>860</v>
+      </c>
+      <c r="E269" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>13398</v>
+      </c>
+      <c r="B270" t="s">
+        <v>189</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270">
+        <v>108</v>
+      </c>
+      <c r="E270" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>13398</v>
+      </c>
+      <c r="B271" t="s">
+        <v>189</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>864</v>
+      </c>
+      <c r="E271" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>13401</v>
+      </c>
+      <c r="B272" t="s">
+        <v>190</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272">
+        <v>106.5</v>
+      </c>
+      <c r="E272" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>13401</v>
+      </c>
+      <c r="B273" t="s">
+        <v>190</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1278</v>
+      </c>
+      <c r="E273" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>13402</v>
+      </c>
+      <c r="B274" t="s">
+        <v>191</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1646</v>
+      </c>
+      <c r="E274" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>13402</v>
+      </c>
+      <c r="B275" t="s">
+        <v>191</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>205.75</v>
+      </c>
+      <c r="E275" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>13403</v>
+      </c>
+      <c r="B276" t="s">
+        <v>192</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1632</v>
+      </c>
+      <c r="E276" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>13403</v>
+      </c>
+      <c r="B277" t="s">
+        <v>192</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>204</v>
+      </c>
+      <c r="E277" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>13406</v>
+      </c>
+      <c r="B278" t="s">
+        <v>193</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>205.25</v>
+      </c>
+      <c r="E278" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>13406</v>
+      </c>
+      <c r="B279" t="s">
+        <v>193</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1642</v>
+      </c>
+      <c r="E279" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>13407</v>
+      </c>
+      <c r="B280" t="s">
+        <v>194</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>204.25</v>
+      </c>
+      <c r="E280" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>13407</v>
+      </c>
+      <c r="B281" t="s">
+        <v>194</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1634</v>
+      </c>
+      <c r="E281" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>13485</v>
+      </c>
+      <c r="B282" t="s">
+        <v>195</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>234.75</v>
+      </c>
+      <c r="E282" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>13487</v>
+      </c>
+      <c r="B283" t="s">
+        <v>196</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>231.5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>13488</v>
+      </c>
+      <c r="B284" t="s">
+        <v>197</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>237.5</v>
+      </c>
+      <c r="E284" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>13489</v>
+      </c>
+      <c r="B285" t="s">
+        <v>198</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>241.25</v>
+      </c>
+      <c r="E285" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>13491</v>
+      </c>
+      <c r="B286" t="s">
+        <v>199</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>873</v>
+      </c>
+      <c r="E286" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>13491</v>
+      </c>
+      <c r="B287" t="s">
+        <v>199</v>
+      </c>
+      <c r="C287">
+        <v>7</v>
+      </c>
+      <c r="D287">
+        <v>72.75</v>
+      </c>
+      <c r="E287" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>13598</v>
+      </c>
+      <c r="B288" t="s">
+        <v>200</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>90.25</v>
+      </c>
+      <c r="E288" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>13600</v>
+      </c>
+      <c r="B289" t="s">
+        <v>201</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>82.75</v>
+      </c>
+      <c r="E289" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>13608</v>
+      </c>
+      <c r="B290" t="s">
+        <v>202</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>581.25</v>
+      </c>
+      <c r="E290" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>13928</v>
+      </c>
+      <c r="B291" t="s">
+        <v>203</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>1217</v>
+      </c>
+      <c r="E291" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>13928</v>
+      </c>
+      <c r="B292" t="s">
+        <v>203</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>608.5</v>
+      </c>
+      <c r="E292" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>14017</v>
+      </c>
+      <c r="B293" t="s">
+        <v>204</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1635</v>
+      </c>
+      <c r="E293" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>14017</v>
+      </c>
+      <c r="B294" t="s">
+        <v>204</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>136.25</v>
+      </c>
+      <c r="E294" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>19330</v>
+      </c>
+      <c r="B295" t="s">
+        <v>205</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>435.5</v>
+      </c>
+      <c r="E295" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>19352</v>
+      </c>
+      <c r="B296" t="s">
+        <v>206</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>244.5</v>
+      </c>
+      <c r="E296" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>19352</v>
+      </c>
+      <c r="B297" t="s">
+        <v>206</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1956</v>
+      </c>
+      <c r="E297" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>19685</v>
+      </c>
+      <c r="B298" t="s">
+        <v>207</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>841.25</v>
+      </c>
+      <c r="E298" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>19931</v>
+      </c>
+      <c r="B299" t="s">
+        <v>208</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>69.5</v>
+      </c>
+      <c r="E299" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>19932</v>
+      </c>
+      <c r="B300" t="s">
+        <v>209</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>69.75</v>
+      </c>
+      <c r="E300" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>20252</v>
+      </c>
+      <c r="B301" t="s">
+        <v>210</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>320</v>
+      </c>
+      <c r="E301" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>20927</v>
+      </c>
+      <c r="B302" t="s">
+        <v>211</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>372</v>
+      </c>
+      <c r="E302" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>20969</v>
+      </c>
+      <c r="B303" t="s">
+        <v>212</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>600</v>
+      </c>
+      <c r="E303" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>20969</v>
+      </c>
+      <c r="B304" t="s">
+        <v>212</v>
+      </c>
+      <c r="C304">
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <v>50</v>
+      </c>
+      <c r="E304" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>21704</v>
+      </c>
+      <c r="B305" t="s">
+        <v>213</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>693</v>
+      </c>
+      <c r="E305" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>21704</v>
+      </c>
+      <c r="B306" t="s">
+        <v>213</v>
+      </c>
+      <c r="C306">
+        <v>3</v>
+      </c>
+      <c r="D306">
+        <v>19.25</v>
+      </c>
+      <c r="E306" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>22316</v>
+      </c>
+      <c r="B307" t="s">
+        <v>214</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1116</v>
+      </c>
+      <c r="E307" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>22316</v>
+      </c>
+      <c r="B308" t="s">
+        <v>214</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308">
+        <v>93</v>
+      </c>
+      <c r="E308" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>22327</v>
+      </c>
+      <c r="B309" t="s">
+        <v>215</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>717.25</v>
+      </c>
+      <c r="E309" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310">
+        <v>22407</v>
+      </c>
+      <c r="B310" t="s">
+        <v>216</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>403.75</v>
+      </c>
+      <c r="E310" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311">
+        <v>22893</v>
+      </c>
+      <c r="B311" t="s">
+        <v>217</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>591</v>
+      </c>
+      <c r="E311" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312">
+        <v>22893</v>
+      </c>
+      <c r="B312" t="s">
+        <v>217</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+      <c r="D312">
+        <v>49.25</v>
+      </c>
+      <c r="E312" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313">
+        <v>23233</v>
+      </c>
+      <c r="B313" t="s">
+        <v>218</v>
+      </c>
+      <c r="C313">
+        <v>25</v>
+      </c>
+      <c r="D313">
+        <v>310</v>
+      </c>
+      <c r="E313" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314">
+        <v>23233</v>
+      </c>
+      <c r="B314" t="s">
+        <v>218</v>
+      </c>
+      <c r="C314">
+        <v>29</v>
+      </c>
+      <c r="D314">
+        <v>930</v>
+      </c>
+      <c r="E314" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <v>23237</v>
+      </c>
+      <c r="B315" t="s">
+        <v>219</v>
+      </c>
+      <c r="C315">
+        <v>25</v>
+      </c>
+      <c r="D315">
+        <v>407.25</v>
+      </c>
+      <c r="E315" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316">
+        <v>23237</v>
+      </c>
+      <c r="B316" t="s">
+        <v>219</v>
+      </c>
+      <c r="C316">
+        <v>29</v>
+      </c>
+      <c r="D316">
+        <v>814.5</v>
+      </c>
+      <c r="E316" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317">
+        <v>23239</v>
+      </c>
+      <c r="B317" t="s">
+        <v>220</v>
+      </c>
+      <c r="C317">
+        <v>29</v>
+      </c>
+      <c r="D317">
+        <v>775.5</v>
+      </c>
+      <c r="E317" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318">
+        <v>23239</v>
+      </c>
+      <c r="B318" t="s">
+        <v>220</v>
+      </c>
+      <c r="C318">
+        <v>25</v>
+      </c>
+      <c r="D318">
+        <v>387.75</v>
+      </c>
+      <c r="E318" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319">
+        <v>23380</v>
+      </c>
+      <c r="B319" t="s">
+        <v>221</v>
+      </c>
+      <c r="C319">
+        <v>29</v>
+      </c>
+      <c r="D319">
+        <v>953.25</v>
+      </c>
+      <c r="E319" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320">
+        <v>23380</v>
+      </c>
+      <c r="B320" t="s">
+        <v>221</v>
+      </c>
+      <c r="C320">
+        <v>25</v>
+      </c>
+      <c r="D320">
+        <v>317.75</v>
+      </c>
+      <c r="E320" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321">
+        <v>23493</v>
+      </c>
+      <c r="B321" t="s">
+        <v>222</v>
+      </c>
+      <c r="C321">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>134.75</v>
+      </c>
+      <c r="E321" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322">
+        <v>23493</v>
+      </c>
+      <c r="B322" t="s">
+        <v>222</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>2695</v>
+      </c>
+      <c r="E322" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323">
+        <v>23660</v>
+      </c>
+      <c r="B323" t="s">
+        <v>223</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>265.5</v>
+      </c>
+      <c r="E323" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324">
+        <v>23920</v>
+      </c>
+      <c r="B324" t="s">
+        <v>224</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>265.5</v>
+      </c>
+      <c r="E324" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325">
+        <v>24120</v>
+      </c>
+      <c r="B325" t="s">
+        <v>225</v>
+      </c>
+      <c r="C325">
+        <v>3</v>
+      </c>
+      <c r="D325">
+        <v>45.5</v>
+      </c>
+      <c r="E325" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326">
+        <v>24120</v>
+      </c>
+      <c r="B326" t="s">
+        <v>225</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>364</v>
+      </c>
+      <c r="E326" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327">
+        <v>24126</v>
+      </c>
+      <c r="B327" t="s">
+        <v>226</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1152.5</v>
+      </c>
+      <c r="E327" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328">
+        <v>24126</v>
+      </c>
+      <c r="B328" t="s">
+        <v>226</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>115.25</v>
+      </c>
+      <c r="E328" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329">
+        <v>24242</v>
+      </c>
+      <c r="B329" t="s">
+        <v>227</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+      <c r="D329">
+        <v>24.75</v>
+      </c>
+      <c r="E329" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330">
+        <v>24242</v>
+      </c>
+      <c r="B330" t="s">
+        <v>227</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>297</v>
+      </c>
+      <c r="E330" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331">
+        <v>24243</v>
+      </c>
+      <c r="B331" t="s">
+        <v>228</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>297</v>
+      </c>
+      <c r="E331" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332">
+        <v>24243</v>
+      </c>
+      <c r="B332" t="s">
+        <v>228</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>24.75</v>
+      </c>
+      <c r="E332" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333">
+        <v>24247</v>
+      </c>
+      <c r="B333" t="s">
+        <v>229</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>1164</v>
+      </c>
+      <c r="E333" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334">
+        <v>24247</v>
+      </c>
+      <c r="B334" t="s">
+        <v>229</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334">
+        <v>97</v>
+      </c>
+      <c r="E334" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335">
+        <v>24248</v>
+      </c>
+      <c r="B335" t="s">
+        <v>230</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1164</v>
+      </c>
+      <c r="E335" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336">
+        <v>24248</v>
+      </c>
+      <c r="B336" t="s">
+        <v>230</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336">
+        <v>97</v>
+      </c>
+      <c r="E336" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337">
+        <v>24256</v>
+      </c>
+      <c r="B337" t="s">
+        <v>231</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>208.5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338">
+        <v>24257</v>
+      </c>
+      <c r="B338" t="s">
+        <v>232</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>212.75</v>
+      </c>
+      <c r="E338" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339">
+        <v>24723</v>
+      </c>
+      <c r="B339" t="s">
+        <v>233</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>518.75</v>
+      </c>
+      <c r="E339" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340">
+        <v>24724</v>
+      </c>
+      <c r="B340" t="s">
+        <v>234</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>508</v>
+      </c>
+      <c r="E340" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341">
+        <v>24727</v>
+      </c>
+      <c r="B341" t="s">
+        <v>235</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>439</v>
+      </c>
+      <c r="E341" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342">
+        <v>25278</v>
+      </c>
+      <c r="B342" t="s">
+        <v>236</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>104</v>
+      </c>
+      <c r="E342" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير بيتى تفاح - 235 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان - 950 مل</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
-  </si>
-  <si>
-    <t>اندومى فراخ جامبو عرض 44 كيس - 100 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+    <t>شويبس رمان - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير جوافة  - 200 مل</t>
+  </si>
+  <si>
+    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>143</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,41 +453,41 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>191.25</v>
+        <v>209.75</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1523</v>
+        <v>2778</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>620</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3334</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>163.25</v>
+        <v>28.5</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -495,53 +495,87 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>7007</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>383</v>
+        <v>684</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>8356</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>325.25</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>11158</v>
+        <v>3558</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>1368</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11835</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>115.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>13028</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>205</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="242">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,703 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شويبس رمان - 1.75 لتر</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>كل يوم عصير جوافة  - 200 مل</t>
-  </si>
-  <si>
-    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
+    <t>زيت كريستال الممتاز خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض ظرف - 350 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر ظرف - 350 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>دقيق الضحى - 1 كجم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون  ناعم  - 40 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون - 25 فتلة</t>
+  </si>
+  <si>
+    <t>تونة صن شاين مفتتة حار - 185 جم</t>
+  </si>
+  <si>
+    <t>كنور مرقة دجاج 12 مكعب عبوة اقتصادية- 108 جم</t>
+  </si>
+  <si>
+    <t>كنور فيجيتار حار - 35 جم</t>
+  </si>
+  <si>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>راني عصير خوخ حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة فاتح - 100 جم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+  </si>
+  <si>
+    <t>عصير بيتى اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>بيبسى كانز ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>صلصة هارفست ظرف - 30 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>امريكانا بيفي بلوبيف - 340 جم</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>زيت كريستال الممتاز خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>سمنة قوت أصفر طعم الزبدة الصفراء - 1450 جرام</t>
+  </si>
+  <si>
+    <t>زيت الاصيل عباد الشمس - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت الاصيل عباد الشمس - 2.25 لتر</t>
+  </si>
+  <si>
+    <t>حلوانى مربى تين- 700 جم</t>
+  </si>
+  <si>
+    <t>هدية زيت خليط- 0.7 لتر</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1.5 لتر</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة فاتح - 50 جم</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود محوج فاتح - 50 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى خالى الدسم بلاستيك - 1 لتر</t>
+  </si>
+  <si>
+    <t>لبن المراعي شيكولاتة وفر جنية- 200 مل</t>
+  </si>
+  <si>
+    <t>بيبسى مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 545 جم</t>
+  </si>
+  <si>
+    <t>لبان كلورتس نعناع - 1.5 ج</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+  </si>
+  <si>
+    <t>صابون ريفولى - 110 جم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 5  - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس ماكسى جامبو مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 950 مل</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ 2 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس ماكسى مقاس 4 - 80 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر بالنعناع- 600 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك كلاسيك 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>سيجنال مكافح للتسوس مفعول مضاعف- 50 مل</t>
+  </si>
+  <si>
+    <t>صلصة هارفست طماطم صفيح - 800 جم</t>
+  </si>
+  <si>
+    <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
+  </si>
+  <si>
+    <t>كنور خلطة كفتة  عرض خاص- 35 جم</t>
+  </si>
+  <si>
+    <t>لوبيا حبوبة بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>فاصوليا حبوبة بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 2 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا تواليت 2 طبقة 20 رول + 4 رول هدية - 24 رول</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 ريتش - 21 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بندق - 50 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 6 زجاجة - 1.6 لتر</t>
+  </si>
+  <si>
+    <t>مارى بسكويت- 15 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت جولى - 10 قطعه</t>
+  </si>
+  <si>
+    <t>بسكاتو بسكويت كريمة شيكولاتة- 60 جرام</t>
+  </si>
+  <si>
+    <t>هابي فروتس مصاصة 60 قطعة- 2 ج</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>فانتا تفاح احمر ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>سبرايت - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ينسون- 20 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات موليفكس جامبو مقاس 2 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو بانتس مقاس 6 - 46 حفاضة</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 1 كجم</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض صفيحة - 4.25 كجم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر صفيحة - 4.25 كجم</t>
+  </si>
+  <si>
+    <t>ريد بل ابيض بجوز الهند و التوت - 250 مل</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس نعناع - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
+  </si>
+  <si>
+    <t>مولتو ماجنم شوكولاتة بالبندق - 15 جنية</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ارز الضحى - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة الحاوي فرن -0 350 جم</t>
+  </si>
+  <si>
+    <t>كنور خلطة بطاطس - 6 جم</t>
+  </si>
+  <si>
+    <t>جبنة رودس شيدر - 250 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة خواتم - 280 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة مرمرية - 280 جم</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>سردين صن شاين بارد - 125 جم</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>كنور مرقة دجاج فورية ظرف 40كيس - 6 جم</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة فاتح سوفت - 50 جم</t>
+  </si>
+  <si>
+    <t>سائل غسيل اطباق بريل ليمون - 90 جم</t>
+  </si>
+  <si>
+    <t>كلوركس الوان ظرف - 210 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة شعرية - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة مرمرية - 350 جم</t>
+  </si>
+  <si>
+    <t>شاى العروسة -. 40 جم</t>
+  </si>
+  <si>
+    <t>شاى العروسة -..0 100 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بانتس مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>عسل نحل البوادى زهرة البرسيم - 235 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بانتس مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>صابون كامى حيوية - 110 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى كلاسيك -- 110 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بابلى  - 13.5 جم</t>
+  </si>
+  <si>
+    <t>ماكسى كولا - 400 مل</t>
+  </si>
+  <si>
+    <t>ماكسى تفاح - 400 مل</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>برسيل يدوى لافندر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>بلوبيف الذهبية - 340 جم</t>
+  </si>
+  <si>
+    <t>سفن اب 1.47 لتر</t>
+  </si>
+  <si>
+    <t>البوادي حلاوة بار  - 18 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس - 5 لتر</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو بانتس مقاس 5 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر - 2 كجم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1 كجم</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض - 1 كجم</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 1.8 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض - 700 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس زيت و ليمون و كمون - 400 جم</t>
+  </si>
+  <si>
+    <t>كادبوري بسكويت شوكو ديلايت - 25.5 جرام</t>
+  </si>
+  <si>
+    <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
+  </si>
+  <si>
+    <t>مناديل زينة فاليو مطبخ 5 + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>مربى البوادى مشمش - 365 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى مشمش - 680 جم</t>
+  </si>
+  <si>
+    <t>مناديل زينة فاليو تواليت 20 + 4 رول - 24 بكرة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم ميجا مقاس 3 - 80 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم ميجا مقاس 5 - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>بسكاتو دايجستا ميني لايت - 8 جنية</t>
+  </si>
+  <si>
+    <t>هيركود جيل سبوت 25مل + 8 مل ( 32% )  مجانا - 33 مل</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل الدسم - 1.5 لتر</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى لافندر - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل بلاك - 90 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى نسيم الربيع - 36 كيس 50 جم</t>
+  </si>
+  <si>
+    <t>فاين فودز مرقة خضار 8 مكعب عرض (7+1) - 72 جم</t>
+  </si>
+  <si>
+    <t>راني عصير مشروب خوخ - 235 مل</t>
+  </si>
+  <si>
+    <t>راني عصير مشروب فراولة وموز - 235 مل</t>
+  </si>
+  <si>
+    <t>راني عصير مشروب  مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>شامبو كلير حريمى بامبى - 5 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح كمثرى - 235 مل</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أخضر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>شاور جيل سوبر كرنفال رحيق الفواكه - 2 لتر</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة نضرة - 115 جم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اصفر- 100 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر - 330 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير تفاح - 200 مل</t>
+  </si>
+  <si>
+    <t>مولتو ميني ماجنم ميكس شوكولاته وكريمة  - 15 جنية</t>
+  </si>
+  <si>
+    <t>صابون لوكس سحر الاوركيد - 165 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا مطبخ 3 طبقة 5 رول + 1 رول هدية 6 رول</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 6 زجاجة - 1 لتر</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم الشعير و الاناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم التفاح - 250 مل</t>
+  </si>
+  <si>
+    <t>قوت سمنة ظرف طعم الزبدة الصفراء - 55 جم</t>
+  </si>
+  <si>
+    <t>سمنة قوت بطعم الزبدة الصفرا - 650 جم</t>
+  </si>
+  <si>
+    <t>سمنة قوت القلوب ابيض - 650 جم</t>
+  </si>
+  <si>
+    <t>سمنة قوت القلوب ابيض - 1450 جم</t>
+  </si>
+  <si>
+    <t>سمنة الاصيل اصفر - 750 جم</t>
+  </si>
+  <si>
+    <t>سمنة الاصيل اصفر - 1450 جم</t>
+  </si>
+  <si>
+    <t>تيكا شوكوبون هابي شوكو - 30 جرام 10 جنية</t>
+  </si>
+  <si>
+    <t>تيكا لبان تاتو - 1 جنية</t>
+  </si>
+  <si>
+    <t>تيكا مارشملو ميني ازرق - 18 جرام 5 جنية</t>
+  </si>
+  <si>
+    <t>صابون دوش  - 60 جم</t>
+  </si>
+  <si>
+    <t>جل باهى لافندر - 40 جم</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم التفاح والشعير 250 مل</t>
+  </si>
+  <si>
+    <t>-أريال يدوى داونى 1.5 كجم</t>
+  </si>
+  <si>
+    <t>ماكسى برتقال - 1 لتر</t>
+  </si>
+  <si>
+    <t>ماكسى كولا - 1 لتر</t>
+  </si>
+  <si>
+    <t>صابون دوش عرض خاص - 110 جم</t>
+  </si>
+  <si>
+    <t>كلوروكس ابيض باوش - 500 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>ارز ثمرات عريض - 1 كجم</t>
+  </si>
+  <si>
+    <t>ويفر تاوتاو كليك شوكولاتة بيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>مولبد حماية ضد البكتريا طويل 14 + 2  فوطة مجانا - 16 فوطة</t>
+  </si>
+  <si>
+    <t>مناديل بابيا تواليت 3 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>هوهوز كيك الشوكولاتة الملفوف المحشو بكريمة الفانيلا والمغطي بالكاكاو 10 جنية</t>
+  </si>
+  <si>
+    <t>مكرونة خواتم بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 400 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى سادة 15 جنيه - 18.5 جم</t>
+  </si>
+  <si>
+    <t>لبان كلورتس قطعة واحدة بيج بايت نعناع - 100 قطعه</t>
+  </si>
+  <si>
+    <t>تايد أوتوماتيك داونى  - 9 كجم</t>
+  </si>
+  <si>
+    <t>تويتش مشروب شعيرغازي  بطعم الاناناس - 330 مل</t>
+  </si>
+  <si>
+    <t>كوكا كولا كانز اورجنال 10% زياده - 355 مل</t>
+  </si>
+  <si>
+    <t>اندومي سوبر مى خضار حارجامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>اريال اوتوماتيك مسحوق داوني -400 جم مجانا- 2.9 كجم</t>
+  </si>
+  <si>
+    <t>تويتش مشروب شعيرغازي  بطعم الخوخ - 330 مل</t>
+  </si>
+  <si>
+    <t>جبنة باندا بسطرمة - 500 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
+  </si>
+  <si>
+    <t>اريال اوتوماتيك بلمسة الداوني - 4 كجم</t>
+  </si>
+  <si>
+    <t>ديفا منظف ايدى الترا فريش - 500 مل</t>
+  </si>
+  <si>
+    <t>شاي ريد ليبل - 225 جم</t>
+  </si>
+  <si>
+    <t>شاي ريد ليبل - 40 جم</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 3 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس جامبو اقتصادي مقاس 5 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس كبير جدا ضد البكتريا ميجا مقاس 6 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس  مقاس 6 كبير جدا 46 حفاضة</t>
+  </si>
+  <si>
+    <t>راز باوند كيك فانيليا - 12 قطعه</t>
+  </si>
+  <si>
+    <t>راز باوند كيك برتقال - 12 قطعه</t>
+  </si>
+  <si>
+    <t>ﻻﺭﺵ ﻣﻴﻠﺖ مولتن كيك ﻛﺎﻛﺎو  5 +1 - 6 قطعه</t>
+  </si>
+  <si>
+    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون نعناع اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 4 - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>كيك تاوتاو تربو كاكاو بكريمة الفانيليا - 6 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>كيك تاوتاو تربو محشو كريم الفانيليا ومربى الفراولة - 5 جنية</t>
+  </si>
+  <si>
+    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة- 6 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>اريال اوتوماتيك برائحة البخور -- 1 كجم</t>
+  </si>
+  <si>
+    <t>المراعي جبنه رومي-عرض الكل كسبان 500 جم</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,138 +1128,5578 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2328</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>209.75</v>
+        <v>860</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2778</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>205</v>
+        <v>452.5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3558</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>28.5</v>
+        <v>458.5</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3558</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>684</v>
+        <v>582.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3558</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>342</v>
+        <v>285.5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>3558</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1368</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>11835</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>115.25</v>
+        <v>2736</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>13028</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4032</v>
+      </c>
+      <c r="E9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="D11">
+        <v>33.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1608</v>
+      </c>
+      <c r="E12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>140.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D15">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>690</v>
+      </c>
+      <c r="E16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>191</v>
+      </c>
+      <c r="E18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>397.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>6861</v>
+      </c>
+      <c r="E20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>571.75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>247</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>305.25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>307</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>196.25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>326</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>325</v>
+      </c>
+      <c r="E24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>346</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>346</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>415</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>340.75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>417</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>193.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>424</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>424</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1272</v>
+      </c>
+      <c r="E30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>435</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>291</v>
+      </c>
+      <c r="E31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>436</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>289</v>
+      </c>
+      <c r="E32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>625</v>
+      </c>
+      <c r="E33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>468</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>539</v>
+      </c>
+      <c r="E34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>477</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>728</v>
+      </c>
+      <c r="E35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>478</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>731.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>791</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>736.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>924</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>626.25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>950</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>504.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>951</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3372</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>951</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>281</v>
+      </c>
+      <c r="E41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>952</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>337.25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>952</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>4047</v>
+      </c>
+      <c r="E43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>991</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>549</v>
+      </c>
+      <c r="E44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>269.25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1007</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1053</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47">
+        <v>729</v>
+      </c>
+      <c r="D47">
+        <v>240</v>
+      </c>
+      <c r="E47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1053</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>960</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1053</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1053</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <v>728</v>
+      </c>
+      <c r="D50">
+        <v>480</v>
+      </c>
+      <c r="E50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>83.5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1163</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1670</v>
+      </c>
+      <c r="E52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1274</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>374</v>
+      </c>
+      <c r="E53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>1309</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1309</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>540</v>
+      </c>
+      <c r="E55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1406</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1058.25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>1406</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>352.75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>1407</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>930</v>
+      </c>
+      <c r="E58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>1407</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>310</v>
+      </c>
+      <c r="E59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>1432</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>916.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>1432</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>305.5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>1523</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>620</v>
+      </c>
+      <c r="E62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>1701</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>169.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>1706</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>798.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>1706</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>399.25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>1728</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>310</v>
+      </c>
+      <c r="E66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>1886</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2057</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2057</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1488</v>
+      </c>
+      <c r="E69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>282.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2099</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1695</v>
+      </c>
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>744</v>
+      </c>
+      <c r="E72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>2109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>62</v>
+      </c>
+      <c r="E73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>2225</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>588</v>
+      </c>
+      <c r="E74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>2225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>2244</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>203</v>
+      </c>
+      <c r="E76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>2244</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1218</v>
+      </c>
+      <c r="E77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>2325</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>271.5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>2326</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>292.25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>2336</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1188</v>
+      </c>
+      <c r="E80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>2336</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>49.5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>2421</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82">
+        <v>29</v>
+      </c>
+      <c r="D82">
+        <v>673.75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>2421</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83">
+        <v>134.75</v>
+      </c>
+      <c r="E83" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>2539</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <v>29</v>
+      </c>
+      <c r="D84">
+        <v>277.5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>2655</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>202</v>
+      </c>
+      <c r="E85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>2703</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>96.75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>2703</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2322</v>
+      </c>
+      <c r="E87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>2736</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>543.25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>2736</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>6519</v>
+      </c>
+      <c r="E89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>2774</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>171.25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>2916</v>
+      </c>
+      <c r="B91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>934.75</v>
+      </c>
+      <c r="E91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>2934</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1049.75</v>
+      </c>
+      <c r="E92" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>2989</v>
+      </c>
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>503</v>
+      </c>
+      <c r="E93" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>2989</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>125.75</v>
+      </c>
+      <c r="E94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>2992</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>825</v>
+      </c>
+      <c r="E95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>2992</v>
+      </c>
+      <c r="B96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>206.25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>3024</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>109.5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>3024</v>
+      </c>
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>328.5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>3143</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>3143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>582</v>
+      </c>
+      <c r="E100" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>3334</v>
+      </c>
+      <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>158.75</v>
+      </c>
+      <c r="E101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>3387</v>
+      </c>
+      <c r="B102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>210.25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>3393</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>202</v>
+      </c>
+      <c r="E103" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>3394</v>
+      </c>
+      <c r="B104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>202</v>
+      </c>
+      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>3671</v>
+      </c>
+      <c r="B105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>332.75</v>
+      </c>
+      <c r="E105" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>3674</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>126</v>
+      </c>
+      <c r="E106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>3896</v>
+      </c>
+      <c r="B107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107">
+        <v>29</v>
+      </c>
+      <c r="D107">
+        <v>957.75</v>
+      </c>
+      <c r="E107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>3896</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108">
+        <v>25</v>
+      </c>
+      <c r="D108">
+        <v>319.25</v>
+      </c>
+      <c r="E108" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>3981</v>
+      </c>
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1386</v>
+      </c>
+      <c r="E109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>3981</v>
+      </c>
+      <c r="B110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>19.25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>4030</v>
+      </c>
+      <c r="B111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>777.75</v>
+      </c>
+      <c r="E111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>4030</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>259.25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>4043</v>
+      </c>
+      <c r="B113" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113">
+        <v>29</v>
+      </c>
+      <c r="D113">
+        <v>783.75</v>
+      </c>
+      <c r="E113" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>4043</v>
+      </c>
+      <c r="B114" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>261.25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>4253</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>163.75</v>
+      </c>
+      <c r="E115" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>4926</v>
+      </c>
+      <c r="B116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>384.25</v>
+      </c>
+      <c r="E116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>4927</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>383.5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>5153</v>
+      </c>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>1186.25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>5208</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>51.75</v>
+      </c>
+      <c r="E119" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>5208</v>
+      </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1552.5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>5452</v>
+      </c>
+      <c r="B121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>195</v>
+      </c>
+      <c r="E121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>5453</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>289</v>
+      </c>
+      <c r="E122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>5490</v>
+      </c>
+      <c r="B123" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>274</v>
+      </c>
+      <c r="E123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>5513</v>
+      </c>
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>362</v>
+      </c>
+      <c r="E124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>5539</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>172.25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>5584</v>
+      </c>
+      <c r="B126" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1162.5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>5584</v>
+      </c>
+      <c r="B127" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>116.25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>5729</v>
+      </c>
+      <c r="B128" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>570</v>
+      </c>
+      <c r="E128" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>5866</v>
+      </c>
+      <c r="B129" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>135.25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>5871</v>
+      </c>
+      <c r="B130" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>133</v>
+      </c>
+      <c r="E130" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>6098</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131">
+        <v>29</v>
+      </c>
+      <c r="D131">
+        <v>773</v>
+      </c>
+      <c r="E131" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>6098</v>
+      </c>
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132">
+        <v>80</v>
+      </c>
+      <c r="D132">
+        <v>386.5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>6266</v>
+      </c>
+      <c r="B133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>2387.5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>6266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134">
+        <v>23</v>
+      </c>
+      <c r="D134">
+        <v>47.75</v>
+      </c>
+      <c r="E134" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>6497</v>
+      </c>
+      <c r="B135" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>767.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>6540</v>
+      </c>
+      <c r="B136" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136">
+        <v>29</v>
+      </c>
+      <c r="D136">
+        <v>743.5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>6540</v>
+      </c>
+      <c r="B137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137">
+        <v>25</v>
+      </c>
+      <c r="D137">
+        <v>371.75</v>
+      </c>
+      <c r="E137" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>6575</v>
+      </c>
+      <c r="B138" t="s">
+        <v>102</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>113.5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>6575</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1135</v>
+      </c>
+      <c r="E139" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>6630</v>
+      </c>
+      <c r="B140" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>268.5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>6630</v>
+      </c>
+      <c r="B141" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>3222</v>
+      </c>
+      <c r="E141" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>6805</v>
+      </c>
+      <c r="B142" t="s">
+        <v>104</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>59.75</v>
+      </c>
+      <c r="E142" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>7036</v>
+      </c>
+      <c r="B143" t="s">
+        <v>105</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>236.5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>7704</v>
+      </c>
+      <c r="B144" t="s">
+        <v>106</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>168.75</v>
+      </c>
+      <c r="E144" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>7706</v>
+      </c>
+      <c r="B145" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>165</v>
+      </c>
+      <c r="E145" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>7707</v>
+      </c>
+      <c r="B146" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>163</v>
+      </c>
+      <c r="E146" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>7885</v>
+      </c>
+      <c r="B147" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>2520</v>
+      </c>
+      <c r="E147" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>7885</v>
+      </c>
+      <c r="B148" t="s">
+        <v>109</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>210</v>
+      </c>
+      <c r="E148" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>7887</v>
+      </c>
+      <c r="B149" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>2487</v>
+      </c>
+      <c r="E149" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>7887</v>
+      </c>
+      <c r="B150" t="s">
+        <v>110</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>207.25</v>
+      </c>
+      <c r="E150" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>8156</v>
+      </c>
+      <c r="B151" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>981.75</v>
+      </c>
+      <c r="E151" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>8156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152">
+        <v>25</v>
+      </c>
+      <c r="D152">
+        <v>327.25</v>
+      </c>
+      <c r="E152" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>8157</v>
+      </c>
+      <c r="B153" t="s">
+        <v>112</v>
+      </c>
+      <c r="C153">
+        <v>29</v>
+      </c>
+      <c r="D153">
+        <v>912.75</v>
+      </c>
+      <c r="E153" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>8157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154">
+        <v>80</v>
+      </c>
+      <c r="D154">
+        <v>304.25</v>
+      </c>
+      <c r="E154" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>8188</v>
+      </c>
+      <c r="B155" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1014</v>
+      </c>
+      <c r="E155" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>8188</v>
+      </c>
+      <c r="B156" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>42.25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>8254</v>
+      </c>
+      <c r="B157" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
+      </c>
+      <c r="D157">
+        <v>350.75</v>
+      </c>
+      <c r="E157" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>8254</v>
+      </c>
+      <c r="B158" t="s">
+        <v>114</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>1052.25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>8284</v>
+      </c>
+      <c r="B159" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>732</v>
+      </c>
+      <c r="E159" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>8284</v>
+      </c>
+      <c r="B160" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>61</v>
+      </c>
+      <c r="E160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>8285</v>
+      </c>
+      <c r="B161" t="s">
+        <v>116</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>723</v>
+      </c>
+      <c r="E161" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>8285</v>
+      </c>
+      <c r="B162" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>60.25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>8356</v>
+      </c>
+      <c r="B163" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>315</v>
+      </c>
+      <c r="E163" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>8557</v>
+      </c>
+      <c r="B164" t="s">
+        <v>118</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>140.75</v>
+      </c>
+      <c r="E164" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>8557</v>
+      </c>
+      <c r="B165" t="s">
+        <v>118</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>3378</v>
+      </c>
+      <c r="E165" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>8672</v>
+      </c>
+      <c r="B166" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>103.5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>8673</v>
+      </c>
+      <c r="B167" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>103.5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>8688</v>
+      </c>
+      <c r="B168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1203.75</v>
+      </c>
+      <c r="E168" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>8688</v>
+      </c>
+      <c r="B169" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169">
+        <v>14</v>
+      </c>
+      <c r="D169">
+        <v>80.25</v>
+      </c>
+      <c r="E169" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>8872</v>
+      </c>
+      <c r="B170" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>307.5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>8915</v>
+      </c>
+      <c r="B171" t="s">
+        <v>123</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>174.25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>8926</v>
+      </c>
+      <c r="B172" t="s">
+        <v>124</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>461</v>
+      </c>
+      <c r="E172" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>8927</v>
+      </c>
+      <c r="B173" t="s">
+        <v>125</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>882</v>
+      </c>
+      <c r="E173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>8927</v>
+      </c>
+      <c r="B174" t="s">
+        <v>125</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>36.75</v>
+      </c>
+      <c r="E174" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>8938</v>
+      </c>
+      <c r="B175" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>177.5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>8945</v>
+      </c>
+      <c r="B176" t="s">
+        <v>127</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>49.5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>8945</v>
+      </c>
+      <c r="B177" t="s">
+        <v>127</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>297</v>
+      </c>
+      <c r="E177" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>9070</v>
+      </c>
+      <c r="B178" t="s">
+        <v>128</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>856.25</v>
+      </c>
+      <c r="E178" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>9081</v>
+      </c>
+      <c r="B179" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>61.25</v>
+      </c>
+      <c r="E179" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>9081</v>
+      </c>
+      <c r="B180" t="s">
+        <v>129</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1470</v>
+      </c>
+      <c r="E180" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>9085</v>
+      </c>
+      <c r="B181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C181">
+        <v>29</v>
+      </c>
+      <c r="D181">
+        <v>923.25</v>
+      </c>
+      <c r="E181" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>9085</v>
+      </c>
+      <c r="B182" t="s">
+        <v>130</v>
+      </c>
+      <c r="C182">
+        <v>25</v>
+      </c>
+      <c r="D182">
+        <v>307.75</v>
+      </c>
+      <c r="E182" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>9087</v>
+      </c>
+      <c r="B183" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183">
+        <v>29</v>
+      </c>
+      <c r="D183">
+        <v>788.25</v>
+      </c>
+      <c r="E183" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>9087</v>
+      </c>
+      <c r="B184" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184">
+        <v>25</v>
+      </c>
+      <c r="D184">
+        <v>262.75</v>
+      </c>
+      <c r="E184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>9088</v>
+      </c>
+      <c r="B185" t="s">
+        <v>132</v>
+      </c>
+      <c r="C185">
+        <v>29</v>
+      </c>
+      <c r="D185">
+        <v>785.25</v>
+      </c>
+      <c r="E185" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>9088</v>
+      </c>
+      <c r="B186" t="s">
+        <v>132</v>
+      </c>
+      <c r="C186">
+        <v>25</v>
+      </c>
+      <c r="D186">
+        <v>261.75</v>
+      </c>
+      <c r="E186" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>9124</v>
+      </c>
+      <c r="B187" t="s">
+        <v>133</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>421.5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>9356</v>
+      </c>
+      <c r="B188" t="s">
+        <v>134</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>629.75</v>
+      </c>
+      <c r="E188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>9357</v>
+      </c>
+      <c r="B189" t="s">
+        <v>135</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>635.25</v>
+      </c>
+      <c r="E189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>9358</v>
+      </c>
+      <c r="B190" t="s">
+        <v>136</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>497.75</v>
+      </c>
+      <c r="E190" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>9608</v>
+      </c>
+      <c r="B191" t="s">
+        <v>137</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>454.5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>9613</v>
+      </c>
+      <c r="B192" t="s">
+        <v>138</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>459</v>
+      </c>
+      <c r="E192" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>9784</v>
+      </c>
+      <c r="B193" t="s">
+        <v>139</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>404</v>
+      </c>
+      <c r="E193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>9796</v>
+      </c>
+      <c r="B194" t="s">
+        <v>140</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>28.5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>9796</v>
+      </c>
+      <c r="B195" t="s">
+        <v>140</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1368</v>
+      </c>
+      <c r="E195" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>9797</v>
+      </c>
+      <c r="B196" t="s">
+        <v>141</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>29</v>
+      </c>
+      <c r="E196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>9797</v>
+      </c>
+      <c r="B197" t="s">
+        <v>141</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1392</v>
+      </c>
+      <c r="E197" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>9910</v>
+      </c>
+      <c r="B198" t="s">
+        <v>142</v>
+      </c>
+      <c r="C198">
+        <v>29</v>
+      </c>
+      <c r="D198">
+        <v>792</v>
+      </c>
+      <c r="E198" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>9910</v>
+      </c>
+      <c r="B199" t="s">
+        <v>142</v>
+      </c>
+      <c r="C199">
+        <v>25</v>
+      </c>
+      <c r="D199">
+        <v>396</v>
+      </c>
+      <c r="E199" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>9920</v>
+      </c>
+      <c r="B200" t="s">
+        <v>143</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>492</v>
+      </c>
+      <c r="E200" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>9920</v>
+      </c>
+      <c r="B201" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201">
+        <v>11</v>
+      </c>
+      <c r="D201">
+        <v>20.5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>9945</v>
+      </c>
+      <c r="B202" t="s">
+        <v>144</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1065</v>
+      </c>
+      <c r="E202" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>9945</v>
+      </c>
+      <c r="B203" t="s">
+        <v>144</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>88.75</v>
+      </c>
+      <c r="E203" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>10149</v>
+      </c>
+      <c r="B204" t="s">
+        <v>145</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>30.75</v>
+      </c>
+      <c r="E204" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>10149</v>
+      </c>
+      <c r="B205" t="s">
+        <v>145</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1230</v>
+      </c>
+      <c r="E205" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>10176</v>
+      </c>
+      <c r="B206" t="s">
+        <v>146</v>
+      </c>
+      <c r="C206">
+        <v>29</v>
+      </c>
+      <c r="D206">
+        <v>213.5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>10413</v>
+      </c>
+      <c r="B207" t="s">
+        <v>147</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+      <c r="D207">
+        <v>28.25</v>
+      </c>
+      <c r="E207" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>10413</v>
+      </c>
+      <c r="B208" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>339</v>
+      </c>
+      <c r="E208" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>10414</v>
+      </c>
+      <c r="B209" t="s">
+        <v>148</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+      <c r="D209">
+        <v>41.5</v>
+      </c>
+      <c r="E209" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>10414</v>
+      </c>
+      <c r="B210" t="s">
+        <v>148</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>498</v>
+      </c>
+      <c r="E210" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>10467</v>
+      </c>
+      <c r="B211" t="s">
+        <v>149</v>
+      </c>
+      <c r="C211">
+        <v>29</v>
+      </c>
+      <c r="D211">
+        <v>264.75</v>
+      </c>
+      <c r="E211" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>10524</v>
+      </c>
+      <c r="B212" t="s">
+        <v>150</v>
+      </c>
+      <c r="C212">
+        <v>80</v>
+      </c>
+      <c r="D212">
+        <v>338</v>
+      </c>
+      <c r="E212" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>10524</v>
+      </c>
+      <c r="B213" t="s">
+        <v>150</v>
+      </c>
+      <c r="C213">
+        <v>29</v>
+      </c>
+      <c r="D213">
+        <v>676</v>
+      </c>
+      <c r="E213" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>10530</v>
+      </c>
+      <c r="B214" t="s">
+        <v>151</v>
+      </c>
+      <c r="C214">
+        <v>29</v>
+      </c>
+      <c r="D214">
+        <v>757</v>
+      </c>
+      <c r="E214" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>10530</v>
+      </c>
+      <c r="B215" t="s">
+        <v>151</v>
+      </c>
+      <c r="C215">
+        <v>80</v>
+      </c>
+      <c r="D215">
+        <v>378.5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>10588</v>
+      </c>
+      <c r="B216" t="s">
+        <v>152</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>280</v>
+      </c>
+      <c r="E216" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>10588</v>
+      </c>
+      <c r="B217" t="s">
+        <v>152</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217">
+        <v>70</v>
+      </c>
+      <c r="E217" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>10825</v>
+      </c>
+      <c r="B218" t="s">
+        <v>153</v>
+      </c>
+      <c r="C218">
+        <v>21</v>
+      </c>
+      <c r="D218">
+        <v>43.25</v>
+      </c>
+      <c r="E218" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>10825</v>
+      </c>
+      <c r="B219" t="s">
+        <v>153</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1557</v>
+      </c>
+      <c r="E219" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>10993</v>
+      </c>
+      <c r="B220" t="s">
+        <v>154</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>538</v>
+      </c>
+      <c r="E220" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>11159</v>
+      </c>
+      <c r="B221" t="s">
+        <v>155</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>58.25</v>
+      </c>
+      <c r="E221" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>11164</v>
+      </c>
+      <c r="B222" t="s">
+        <v>156</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>72.25</v>
+      </c>
+      <c r="E222" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>11180</v>
+      </c>
+      <c r="B223" t="s">
+        <v>157</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>332.75</v>
+      </c>
+      <c r="E223" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>11181</v>
+      </c>
+      <c r="B224" t="s">
+        <v>158</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>90</v>
+      </c>
+      <c r="E224" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>11212</v>
+      </c>
+      <c r="B225" t="s">
+        <v>159</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1404</v>
+      </c>
+      <c r="E225" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>11212</v>
+      </c>
+      <c r="B226" t="s">
+        <v>159</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>117</v>
+      </c>
+      <c r="E226" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>11288</v>
+      </c>
+      <c r="B227" t="s">
+        <v>160</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>317.25</v>
+      </c>
+      <c r="E227" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>11290</v>
+      </c>
+      <c r="B228" t="s">
+        <v>161</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>315</v>
+      </c>
+      <c r="E228" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>11304</v>
+      </c>
+      <c r="B229" t="s">
+        <v>162</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>314.25</v>
+      </c>
+      <c r="E229" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>11467</v>
+      </c>
+      <c r="B230" t="s">
+        <v>163</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>294.5</v>
+      </c>
+      <c r="E230" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>11491</v>
+      </c>
+      <c r="B231" t="s">
+        <v>164</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>211.75</v>
+      </c>
+      <c r="E231" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>11586</v>
+      </c>
+      <c r="B232" t="s">
+        <v>165</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>75.5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>11587</v>
+      </c>
+      <c r="B233" t="s">
+        <v>166</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>79</v>
+      </c>
+      <c r="E233" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>11635</v>
+      </c>
+      <c r="B234" t="s">
+        <v>167</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>307.5</v>
+      </c>
+      <c r="E234" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>11689</v>
+      </c>
+      <c r="B235" t="s">
+        <v>168</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>95.5</v>
+      </c>
+      <c r="E235" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>11689</v>
+      </c>
+      <c r="B236" t="s">
+        <v>168</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>764</v>
+      </c>
+      <c r="E236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>11766</v>
+      </c>
+      <c r="B237" t="s">
+        <v>169</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>90.75</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>11769</v>
+      </c>
+      <c r="B238" t="s">
+        <v>170</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>177.5</v>
+      </c>
+      <c r="E238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>11837</v>
+      </c>
+      <c r="B239" t="s">
+        <v>171</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>121</v>
+      </c>
+      <c r="E239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>11858</v>
+      </c>
+      <c r="B240" t="s">
+        <v>172</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>291</v>
+      </c>
+      <c r="E240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>11886</v>
+      </c>
+      <c r="B241" t="s">
+        <v>173</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>149.75</v>
+      </c>
+      <c r="E241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>11886</v>
+      </c>
+      <c r="B242" t="s">
+        <v>173</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1198</v>
+      </c>
+      <c r="E242" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>11942</v>
+      </c>
+      <c r="B243" t="s">
+        <v>174</v>
+      </c>
+      <c r="C243">
+        <v>29</v>
+      </c>
+      <c r="D243">
+        <v>289.75</v>
+      </c>
+      <c r="E243" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>11962</v>
+      </c>
+      <c r="B244" t="s">
+        <v>175</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>665</v>
+      </c>
+      <c r="E244" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>12054</v>
+      </c>
+      <c r="B245" t="s">
+        <v>176</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>52.5</v>
+      </c>
+      <c r="E245" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>12055</v>
+      </c>
+      <c r="B246" t="s">
+        <v>177</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>52.5</v>
+      </c>
+      <c r="E246" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>12139</v>
+      </c>
+      <c r="B247" t="s">
+        <v>178</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>220</v>
+      </c>
+      <c r="E247" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>12141</v>
+      </c>
+      <c r="B248" t="s">
+        <v>179</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>382.25</v>
+      </c>
+      <c r="E248" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>12142</v>
+      </c>
+      <c r="B249" t="s">
+        <v>180</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>385</v>
+      </c>
+      <c r="E249" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>12145</v>
+      </c>
+      <c r="B250" t="s">
+        <v>181</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>535.75</v>
+      </c>
+      <c r="E250" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>12146</v>
+      </c>
+      <c r="B251" t="s">
+        <v>182</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>400.75</v>
+      </c>
+      <c r="E251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>12147</v>
+      </c>
+      <c r="B252" t="s">
+        <v>183</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>751.75</v>
+      </c>
+      <c r="E252" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>12236</v>
+      </c>
+      <c r="B253" t="s">
+        <v>184</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>574</v>
+      </c>
+      <c r="E253" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>12236</v>
+      </c>
+      <c r="B254" t="s">
+        <v>184</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>71.75</v>
+      </c>
+      <c r="E254" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>12240</v>
+      </c>
+      <c r="B255" t="s">
+        <v>185</v>
+      </c>
+      <c r="C255">
+        <v>14</v>
+      </c>
+      <c r="D255">
+        <v>110.5</v>
+      </c>
+      <c r="E255" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>12240</v>
+      </c>
+      <c r="B256" t="s">
+        <v>185</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1326</v>
+      </c>
+      <c r="E256" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>12241</v>
+      </c>
+      <c r="B257" t="s">
+        <v>186</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>86.25</v>
+      </c>
+      <c r="E257" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>12241</v>
+      </c>
+      <c r="B258" t="s">
+        <v>186</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>345</v>
+      </c>
+      <c r="E258" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>12304</v>
+      </c>
+      <c r="B259" t="s">
+        <v>187</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>262.75</v>
+      </c>
+      <c r="E259" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>12373</v>
+      </c>
+      <c r="B260" t="s">
+        <v>188</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>52.25</v>
+      </c>
+      <c r="E260" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>12517</v>
+      </c>
+      <c r="B261" t="s">
+        <v>189</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>54</v>
+      </c>
+      <c r="E261" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>12658</v>
+      </c>
+      <c r="B262" t="s">
+        <v>190</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>333.25</v>
+      </c>
+      <c r="E262" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>12720</v>
+      </c>
+      <c r="B263" t="s">
+        <v>191</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>102.75</v>
+      </c>
+      <c r="E263" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>12721</v>
+      </c>
+      <c r="B264" t="s">
+        <v>192</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>105</v>
+      </c>
+      <c r="E264" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>12764</v>
+      </c>
+      <c r="B265" t="s">
+        <v>193</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>465</v>
+      </c>
+      <c r="E265" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>12764</v>
+      </c>
+      <c r="B266" t="s">
+        <v>193</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>38.75</v>
+      </c>
+      <c r="E266" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>12870</v>
+      </c>
+      <c r="B267" t="s">
+        <v>194</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>205.25</v>
+      </c>
+      <c r="E267" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>12923</v>
+      </c>
+      <c r="B268" t="s">
+        <v>195</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>774.5</v>
+      </c>
+      <c r="E268" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>12924</v>
+      </c>
+      <c r="B269" t="s">
+        <v>196</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>565.5</v>
+      </c>
+      <c r="E269" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>12925</v>
+      </c>
+      <c r="B270" t="s">
+        <v>197</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>451.75</v>
+      </c>
+      <c r="E270" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>12930</v>
+      </c>
+      <c r="B271" t="s">
+        <v>198</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>276.5</v>
+      </c>
+      <c r="E271" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>13037</v>
+      </c>
+      <c r="B272" t="s">
+        <v>199</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272">
+        <v>49.5</v>
+      </c>
+      <c r="E272" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>13037</v>
+      </c>
+      <c r="B273" t="s">
+        <v>199</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>594</v>
+      </c>
+      <c r="E273" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>13243</v>
+      </c>
+      <c r="B274" t="s">
+        <v>200</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>584</v>
+      </c>
+      <c r="E274" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>13243</v>
+      </c>
+      <c r="B275" t="s">
+        <v>200</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>73</v>
+      </c>
+      <c r="E275" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>13251</v>
+      </c>
+      <c r="B276" t="s">
+        <v>201</v>
+      </c>
+      <c r="C276">
+        <v>29</v>
+      </c>
+      <c r="D276">
+        <v>334.25</v>
+      </c>
+      <c r="E276" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>13293</v>
+      </c>
+      <c r="B277" t="s">
+        <v>202</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>820</v>
+      </c>
+      <c r="E277" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>13293</v>
+      </c>
+      <c r="B278" t="s">
+        <v>202</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>102.5</v>
+      </c>
+      <c r="E278" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>13487</v>
+      </c>
+      <c r="B279" t="s">
+        <v>203</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>231.25</v>
+      </c>
+      <c r="E279" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>13488</v>
+      </c>
+      <c r="B280" t="s">
+        <v>204</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>234</v>
+      </c>
+      <c r="E280" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>13598</v>
+      </c>
+      <c r="B281" t="s">
         <v>205</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>90.25</v>
+      </c>
+      <c r="E281" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>13600</v>
+      </c>
+      <c r="B282" t="s">
+        <v>206</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>82.75</v>
+      </c>
+      <c r="E282" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>13608</v>
+      </c>
+      <c r="B283" t="s">
+        <v>207</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>581.25</v>
+      </c>
+      <c r="E283" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>14017</v>
+      </c>
+      <c r="B284" t="s">
+        <v>208</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1656</v>
+      </c>
+      <c r="E284" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>14017</v>
+      </c>
+      <c r="B285" t="s">
+        <v>208</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285">
+        <v>138</v>
+      </c>
+      <c r="E285" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>14037</v>
+      </c>
+      <c r="B286" t="s">
+        <v>209</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>2040</v>
+      </c>
+      <c r="E286" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>14037</v>
+      </c>
+      <c r="B287" t="s">
+        <v>209</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>85</v>
+      </c>
+      <c r="E287" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>19685</v>
+      </c>
+      <c r="B288" t="s">
+        <v>210</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>848</v>
+      </c>
+      <c r="E288" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>20196</v>
+      </c>
+      <c r="B289" t="s">
+        <v>211</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>103</v>
+      </c>
+      <c r="E289" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>20252</v>
+      </c>
+      <c r="B290" t="s">
+        <v>212</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>335</v>
+      </c>
+      <c r="E290" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>20927</v>
+      </c>
+      <c r="B291" t="s">
+        <v>213</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>377.5</v>
+      </c>
+      <c r="E291" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>20978</v>
+      </c>
+      <c r="B292" t="s">
+        <v>214</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>739.25</v>
+      </c>
+      <c r="E292" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>21010</v>
+      </c>
+      <c r="B293" t="s">
+        <v>215</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>99</v>
+      </c>
+      <c r="E293" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>21779</v>
+      </c>
+      <c r="B294" t="s">
+        <v>216</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>414.5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>21798</v>
+      </c>
+      <c r="B295" t="s">
+        <v>217</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>200</v>
+      </c>
+      <c r="E295" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>22326</v>
+      </c>
+      <c r="B296" t="s">
+        <v>218</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>696.75</v>
+      </c>
+      <c r="E296" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>22407</v>
+      </c>
+      <c r="B297" t="s">
+        <v>219</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>400.25</v>
+      </c>
+      <c r="E297" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>22631</v>
+      </c>
+      <c r="B298" t="s">
+        <v>220</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1944</v>
+      </c>
+      <c r="E298" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>22631</v>
+      </c>
+      <c r="B299" t="s">
+        <v>220</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>40.5</v>
+      </c>
+      <c r="E299" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>22634</v>
+      </c>
+      <c r="B300" t="s">
+        <v>221</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>186.75</v>
+      </c>
+      <c r="E300" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>22634</v>
+      </c>
+      <c r="B301" t="s">
+        <v>221</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>2241</v>
+      </c>
+      <c r="E301" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>23233</v>
+      </c>
+      <c r="B302" t="s">
+        <v>222</v>
+      </c>
+      <c r="C302">
+        <v>29</v>
+      </c>
+      <c r="D302">
+        <v>933.75</v>
+      </c>
+      <c r="E302" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>23233</v>
+      </c>
+      <c r="B303" t="s">
+        <v>222</v>
+      </c>
+      <c r="C303">
+        <v>25</v>
+      </c>
+      <c r="D303">
+        <v>311.25</v>
+      </c>
+      <c r="E303" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>23234</v>
+      </c>
+      <c r="B304" t="s">
+        <v>223</v>
+      </c>
+      <c r="C304">
+        <v>25</v>
+      </c>
+      <c r="D304">
+        <v>305.75</v>
+      </c>
+      <c r="E304" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>23234</v>
+      </c>
+      <c r="B305" t="s">
+        <v>223</v>
+      </c>
+      <c r="C305">
+        <v>29</v>
+      </c>
+      <c r="D305">
+        <v>917.25</v>
+      </c>
+      <c r="E305" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>23235</v>
+      </c>
+      <c r="B306" t="s">
+        <v>224</v>
+      </c>
+      <c r="C306">
+        <v>29</v>
+      </c>
+      <c r="D306">
+        <v>1048.5</v>
+      </c>
+      <c r="E306" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>23235</v>
+      </c>
+      <c r="B307" t="s">
+        <v>224</v>
+      </c>
+      <c r="C307">
+        <v>25</v>
+      </c>
+      <c r="D307">
+        <v>349.5</v>
+      </c>
+      <c r="E307" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>23239</v>
+      </c>
+      <c r="B308" t="s">
+        <v>225</v>
+      </c>
+      <c r="C308">
+        <v>29</v>
+      </c>
+      <c r="D308">
+        <v>769.5</v>
+      </c>
+      <c r="E308" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>23239</v>
+      </c>
+      <c r="B309" t="s">
+        <v>225</v>
+      </c>
+      <c r="C309">
+        <v>25</v>
+      </c>
+      <c r="D309">
+        <v>384.75</v>
+      </c>
+      <c r="E309" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310">
+        <v>23380</v>
+      </c>
+      <c r="B310" t="s">
+        <v>226</v>
+      </c>
+      <c r="C310">
+        <v>25</v>
+      </c>
+      <c r="D310">
+        <v>303</v>
+      </c>
+      <c r="E310" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311">
+        <v>23380</v>
+      </c>
+      <c r="B311" t="s">
+        <v>226</v>
+      </c>
+      <c r="C311">
+        <v>29</v>
+      </c>
+      <c r="D311">
+        <v>909</v>
+      </c>
+      <c r="E311" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312">
+        <v>23527</v>
+      </c>
+      <c r="B312" t="s">
+        <v>227</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>425.75</v>
+      </c>
+      <c r="E312" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313">
+        <v>23528</v>
+      </c>
+      <c r="B313" t="s">
+        <v>228</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>425.75</v>
+      </c>
+      <c r="E313" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314">
+        <v>23611</v>
+      </c>
+      <c r="B314" t="s">
+        <v>229</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>993</v>
+      </c>
+      <c r="E314" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <v>23611</v>
+      </c>
+      <c r="B315" t="s">
+        <v>229</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>82.75</v>
+      </c>
+      <c r="E315" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316">
+        <v>23660</v>
+      </c>
+      <c r="B316" t="s">
+        <v>230</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>266</v>
+      </c>
+      <c r="E316" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317">
+        <v>23920</v>
+      </c>
+      <c r="B317" t="s">
+        <v>231</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>261</v>
+      </c>
+      <c r="E317" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318">
+        <v>23992</v>
+      </c>
+      <c r="B318" t="s">
+        <v>232</v>
+      </c>
+      <c r="C318">
+        <v>29</v>
+      </c>
+      <c r="D318">
+        <v>690</v>
+      </c>
+      <c r="E318" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319">
+        <v>23992</v>
+      </c>
+      <c r="B319" t="s">
+        <v>232</v>
+      </c>
+      <c r="C319">
+        <v>25</v>
+      </c>
+      <c r="D319">
+        <v>345</v>
+      </c>
+      <c r="E319" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320">
+        <v>24242</v>
+      </c>
+      <c r="B320" t="s">
+        <v>233</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>279</v>
+      </c>
+      <c r="E320" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321">
+        <v>24242</v>
+      </c>
+      <c r="B321" t="s">
+        <v>233</v>
+      </c>
+      <c r="C321">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>23.25</v>
+      </c>
+      <c r="E321" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322">
+        <v>24243</v>
+      </c>
+      <c r="B322" t="s">
+        <v>234</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>276</v>
+      </c>
+      <c r="E322" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323">
+        <v>24243</v>
+      </c>
+      <c r="B323" t="s">
+        <v>234</v>
+      </c>
+      <c r="C323">
+        <v>3</v>
+      </c>
+      <c r="D323">
+        <v>23</v>
+      </c>
+      <c r="E323" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324">
+        <v>24244</v>
+      </c>
+      <c r="B324" t="s">
+        <v>235</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>282</v>
+      </c>
+      <c r="E324" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325">
+        <v>24244</v>
+      </c>
+      <c r="B325" t="s">
+        <v>235</v>
+      </c>
+      <c r="C325">
+        <v>3</v>
+      </c>
+      <c r="D325">
+        <v>23.5</v>
+      </c>
+      <c r="E325" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326">
+        <v>24566</v>
+      </c>
+      <c r="B326" t="s">
+        <v>236</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>97</v>
+      </c>
+      <c r="E326" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327">
+        <v>24669</v>
+      </c>
+      <c r="B327" t="s">
+        <v>237</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>960.25</v>
+      </c>
+      <c r="E327" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328">
+        <v>24727</v>
+      </c>
+      <c r="B328" t="s">
+        <v>238</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>450</v>
+      </c>
+      <c r="E328" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329">
+        <v>25278</v>
+      </c>
+      <c r="B329" t="s">
+        <v>239</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329">
+        <v>104</v>
+      </c>
+      <c r="E329" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="200">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,70 +37,58 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>زيت كريستال الممتاز خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>سمن كريستال ابيض ظرف - 350 جم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر ظرف - 350 جم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>دقيق الضحى - 1 كجم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون  ناعم  - 40 جم</t>
-  </si>
-  <si>
     <t>شاى ليبتون - 25 فتلة</t>
   </si>
   <si>
-    <t>تونة صن شاين مفتتة حار - 185 جم</t>
-  </si>
-  <si>
-    <t>كنور مرقة دجاج 12 مكعب عبوة اقتصادية- 108 جم</t>
-  </si>
-  <si>
-    <t>كنور فيجيتار حار - 35 جم</t>
+    <t>فجيتار كنور عادى - 35 جم</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>سفن اب ستار كانز - 320 مل</t>
   </si>
   <si>
     <t>عصير بيتى تفاح - 235 مل</t>
   </si>
   <si>
-    <t>عصير بيتى جوافة - 235 مل</t>
+    <t>عصير بيتى برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>لبن نيدو اساسى ازرق ظرف - 25 جم</t>
+  </si>
+  <si>
+    <t>مرقة ماجى دجاج شريط - 8 جم</t>
   </si>
   <si>
     <t>راني عصير خوخ حبيبات- 235 مل</t>
   </si>
   <si>
-    <t>بن عبد المعبود سادة فاتح - 100 جم</t>
-  </si>
-  <si>
-    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
-  </si>
-  <si>
-    <t>عصير بيتى اناناس - 235 مل</t>
+    <t>لبن جهينة مكس شوكولاتة - 200 مل</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
   </si>
   <si>
     <t>بيبسى كانز ستار - 320 مل</t>
   </si>
   <si>
-    <t>صلصة هارفست ظرف - 30 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة كوكتيل - 1 لتر</t>
+    <t>البوادي حلاوة- 130 جم</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع - 950 مل</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس موز - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة جوافة - 1 لتر</t>
   </si>
   <si>
     <t>عصير جهينة برتقال - 235 مل</t>
   </si>
   <si>
-    <t>امريكانا بيفي بلوبيف - 340 جم</t>
-  </si>
-  <si>
-    <t>سفن اب كانز جيب - 240 مل</t>
+    <t>بيبسى كانز جيب - 240 مل</t>
   </si>
   <si>
     <t>ميرندا برتقال كانز جيب - 240 مل</t>
@@ -112,43 +100,37 @@
     <t>سمنة قوت أصفر طعم الزبدة الصفراء - 1450 جرام</t>
   </si>
   <si>
-    <t>زيت الاصيل عباد الشمس - 700 مل</t>
-  </si>
-  <si>
-    <t>زيت الاصيل عباد الشمس - 2.25 لتر</t>
-  </si>
-  <si>
-    <t>حلوانى مربى تين- 700 جم</t>
-  </si>
-  <si>
-    <t>هدية زيت خليط- 0.7 لتر</t>
+    <t>عصير جهينة عنب احمر - 235 مل</t>
+  </si>
+  <si>
+    <t>سفن اب الهضبة - 300 مل</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 900 مل</t>
   </si>
   <si>
     <t>لبن جهينة كامل الدسم - 1.5 لتر</t>
   </si>
   <si>
-    <t>بن عبد المعبود سادة فاتح - 50 جم</t>
-  </si>
-  <si>
-    <t>بن عبد المعبود محوج فاتح - 50 جم</t>
-  </si>
-  <si>
-    <t>لبن المراعى خالى الدسم بلاستيك - 1 لتر</t>
-  </si>
-  <si>
-    <t>لبن المراعي شيكولاتة وفر جنية- 200 مل</t>
-  </si>
-  <si>
     <t>بيبسى مينى تربو - 250 مل</t>
   </si>
   <si>
-    <t>حلاوة الرشيدى الميزان - 545 جم</t>
+    <t>مربى الرشيدى الميزان تين - 340 جم</t>
+  </si>
+  <si>
+    <t>سلايت زيت عباد الشمس- 2.1 لتر</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطة بشاميل عرض خاص - 70 جم</t>
   </si>
   <si>
     <t>لبان كلورتس نعناع - 1.5 ج</t>
   </si>
   <si>
-    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
   </si>
   <si>
     <t>صابون ريفولى - 110 جم</t>
@@ -157,67 +139,82 @@
     <t>حفاضات مولفيكس جامبو مقاس 5  - 58 حفاضة</t>
   </si>
   <si>
-    <t>حفاضات مولفيكس ماكسى جامبو مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
     <t>حفاضات مولفيكس جامبو مقاس 3 - 58 حفاضة</t>
   </si>
   <si>
-    <t>كلوركس الوان - 950 مل</t>
+    <t>سفن اب - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 بندق 24 ظرف - 18 جم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اصفر - 600 جم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اخضر - 4 كجم</t>
   </si>
   <si>
     <t>مناديل فاميليا مطبخ 2 طبقة - 2 رول</t>
   </si>
   <si>
-    <t>حفاضات مولفيكس ماكسى مقاس 4 - 80 حفاضة</t>
-  </si>
-  <si>
-    <t>اوكسي سائل أطباق ليمون اخضر بالنعناع- 600 جم</t>
-  </si>
-  <si>
     <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
   </si>
   <si>
-    <t>كابتشينو كوفى بريك كلاسيك 8 ظرف - 18.5 جم</t>
-  </si>
-  <si>
-    <t>سيجنال مكافح للتسوس مفعول مضاعف- 50 مل</t>
-  </si>
-  <si>
-    <t>صلصة هارفست طماطم صفيح - 800 جم</t>
-  </si>
-  <si>
-    <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
-  </si>
-  <si>
-    <t>كنور خلطة كفتة  عرض خاص- 35 جم</t>
-  </si>
-  <si>
-    <t>لوبيا حبوبة بيضاء - 500 جم</t>
-  </si>
-  <si>
-    <t>فاصوليا حبوبة بيضاء - 500 جم</t>
-  </si>
-  <si>
-    <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 2 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا تواليت 2 طبقة 20 رول + 4 رول هدية - 24 رول</t>
+    <t>بسكويت اوريو اوريجينال فانيليا  5 قطع حجم جديد - 43.75 جم</t>
+  </si>
+  <si>
+    <t>كوفى بريك 2*1 - 11 جم</t>
+  </si>
+  <si>
+    <t>البوادى حلاوة سادة- 550 جم</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 480 جم</t>
+  </si>
+  <si>
+    <t>صابون جوى عرض خاص  - 165 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز عبوة التوفير مقاس 2 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>عدس حبوبة اصفر - 500 جم</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>شويبس رمان - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>صانسيلك اكياس شامبو للشعر الاسود- 240 كيس 7 مل</t>
+  </si>
+  <si>
+    <t>صابون جوى عرض خاص - 110 جم</t>
   </si>
   <si>
     <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
   </si>
   <si>
-    <t>نسكافيه 3*1 ريتش - 21 جم</t>
-  </si>
-  <si>
-    <t>شوكولاتة كادبورى بندق - 50 جم</t>
-  </si>
-  <si>
-    <t>فانتا برتقال - 1.45 لتر</t>
+    <t>سبرايت - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 130 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 6 زجاجة - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 4 زجاجة - 2.2 لتر</t>
   </si>
   <si>
     <t>زيت كريستال ذرة 4 زجاجة - 2.2 لتر</t>
@@ -238,34 +235,25 @@
     <t>هابي فروتس مصاصة 60 قطعة- 2 ج</t>
   </si>
   <si>
-    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
-  </si>
-  <si>
     <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
   </si>
   <si>
     <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
   </si>
   <si>
+    <t>نسكافيه 2*1 بدون سكر 24 ظرف - 10 جم</t>
+  </si>
+  <si>
+    <t>جبنـة ابو الولد - 8 مثلث</t>
+  </si>
+  <si>
     <t>فانتا تفاح احمر ستار - 320 مل</t>
   </si>
   <si>
     <t>سبرايت - 0.95 لتر</t>
   </si>
   <si>
-    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
-  </si>
-  <si>
-    <t>رويال أعشاب ينسون- 20 فتلة</t>
-  </si>
-  <si>
-    <t>حفاضات موليفكس جامبو مقاس 2 - 60 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم جامبو بانتس مقاس 6 - 46 حفاضة</t>
+    <t>بن عبد المعبود سادة وسط - 100 جم</t>
   </si>
   <si>
     <t>مسحوق باهى يدوى لافندر - 1 كجم</t>
@@ -274,67 +262,73 @@
     <t>سمن كريستال ابيض صفيحة - 4.25 كجم</t>
   </si>
   <si>
-    <t>سمن كريستال اصفر صفيحة - 4.25 كجم</t>
-  </si>
-  <si>
-    <t>ريد بل ابيض بجوز الهند و التوت - 250 مل</t>
+    <t>مناديل فاميليا مطبخ كلاسيك 6 رول + 2 رول هدية - 8 رول</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى سميكة طويل جدا بالمسك عرض خاص - 14 فوطة</t>
   </si>
   <si>
     <t>لبان تشكلتس نعناع - 0.5 جنية</t>
   </si>
   <si>
-    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
-  </si>
-  <si>
-    <t>مولتو ماجنم شوكولاتة بالبندق - 15 جنية</t>
+    <t>جبنة ابو الولد - 40 مثلث</t>
   </si>
   <si>
     <t>شويبس ليمون نعناع جيب - 240 مل</t>
   </si>
   <si>
-    <t>ارز الضحى - 1 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة الحاوي فرن -0 350 جم</t>
-  </si>
-  <si>
-    <t>كنور خلطة بطاطس - 6 جم</t>
+    <t>شويبس رمان جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس جيب - 240 مل</t>
   </si>
   <si>
     <t>جبنة رودس شيدر - 250 جم</t>
   </si>
   <si>
+    <t>مكرونة كايرو خواتم 400 جم</t>
+  </si>
+  <si>
     <t>مكرونة خطيرة خواتم - 280 جم</t>
   </si>
   <si>
-    <t>مكرونة خطيرة مرمرية - 280 جم</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 4 - 100 حفاضة</t>
-  </si>
-  <si>
-    <t>سردين صن شاين بارد - 125 جم</t>
-  </si>
-  <si>
-    <t>سندة زيت خليط - 1 لتر</t>
+    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 900 مل</t>
   </si>
   <si>
     <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
   </si>
   <si>
-    <t>كنور مرقة دجاج فورية ظرف 40كيس - 6 جم</t>
-  </si>
-  <si>
-    <t>بن عبد المعبود سادة فاتح سوفت - 50 جم</t>
-  </si>
-  <si>
-    <t>سائل غسيل اطباق بريل ليمون - 90 جم</t>
+    <t>حفاضات مولفيكس حديث الولادة مقاس 1 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>جودكير مناديل جيب - 10 باكت</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
   </si>
   <si>
     <t>كلوركس الوان ظرف - 210 جم</t>
   </si>
   <si>
-    <t>مكرونة بساطة شعرية - 350 جم</t>
+    <t>زيت كريستال ذرة 6 زجاجة - 700 مل</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة خواتم - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
   </si>
   <si>
     <t>مكرونة بساطة لسان عصفور - 350 جم</t>
@@ -343,64 +337,40 @@
     <t>مكرونة بساطة مرمرية - 350 جم</t>
   </si>
   <si>
+    <t>مكرونة بساطة هلالية - 350 جم</t>
+  </si>
+  <si>
     <t>شاى العروسة -. 40 جم</t>
   </si>
   <si>
     <t>شاى العروسة -..0 100 جم</t>
   </si>
   <si>
-    <t>حفاضات بامبرز بانتس مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم جامبو مقاس 5 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>عسل نحل البوادى زهرة البرسيم - 235 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بامبرز بانتس مقاس 3 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>صابون كامى حيوية - 110 جم</t>
-  </si>
-  <si>
-    <t>صابون كامى كلاسيك -- 110 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>شوكولاتة كادبورى بابلى  - 13.5 جم</t>
-  </si>
-  <si>
-    <t>ماكسى كولا - 400 مل</t>
-  </si>
-  <si>
-    <t>ماكسى تفاح - 400 مل</t>
-  </si>
-  <si>
-    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
-  </si>
-  <si>
-    <t>برسيل يدوى لافندر - 1.5 كجم</t>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 725 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت ماندولين بالشوكولاتة و الكراميل- 34 جم</t>
+  </si>
+  <si>
+    <t>مشروب بودرة كادبورى شوكولاتة ساخنة ٣ فى ١ - 300 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال اكشن - 300 مل</t>
   </si>
   <si>
     <t>بيبسى - 1.47 لتر</t>
   </si>
   <si>
-    <t>زيت حبوبة خليط - 540 مل</t>
-  </si>
-  <si>
-    <t>بلوبيف الذهبية - 340 جم</t>
-  </si>
-  <si>
     <t>سفن اب 1.47 لتر</t>
   </si>
   <si>
-    <t>البوادي حلاوة بار  - 18 جم</t>
-  </si>
-  <si>
-    <t>زيت كريستال عباد الشمس - 5 لتر</t>
+    <t>طحينة البوادى ظرف - 22 جرام</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر ظرف - 55 جم</t>
   </si>
   <si>
     <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
@@ -409,37 +379,22 @@
     <t>حفاضات بى بم جامبو بانتس مقاس 5 - 56 حفاضة</t>
   </si>
   <si>
-    <t>حفاضات بى بم جامبو مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم جامبو مقاس 6 - 48 حفاضة</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى لافندر - 2 كجم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر - 1 كجم</t>
-  </si>
-  <si>
-    <t>سمن كريستال ابيض - 1 كجم</t>
+    <t>مولبد ماكسى مضغوطة طويل جدا 20 + 4 فوطة ميجا توفير - 24 فوطة</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر -+ 2 كجم</t>
   </si>
   <si>
     <t>زيت حبوبة خليط - 1.8 لتر</t>
   </si>
   <si>
-    <t>سمن كريستال ابيض - 700 جم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر 6 عبوة - 700 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة بيور تفاح - 235 مل</t>
+    <t>عصير جهينة بيور برتقال - 235 مل</t>
   </si>
   <si>
     <t>شاى ليبتون اخضر - 25 فتلة</t>
   </si>
   <si>
-    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
+    <t>تونة دولفين جولد فصوص حار - 170 جم</t>
   </si>
   <si>
     <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
@@ -448,40 +403,16 @@
     <t>امريكانا فول مدمس زيت و ليمون و كمون - 400 جم</t>
   </si>
   <si>
-    <t>كادبوري بسكويت شوكو ديلايت - 25.5 جرام</t>
-  </si>
-  <si>
-    <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
-  </si>
-  <si>
-    <t>مناديل زينة فاليو مطبخ 5 + 1 رول هدية - 6 رول</t>
-  </si>
-  <si>
-    <t>مربى البوادى مشمش - 365 جم</t>
-  </si>
-  <si>
-    <t>مربى البوادى مشمش - 680 جم</t>
-  </si>
-  <si>
-    <t>مناديل زينة فاليو تواليت 20 + 4 رول - 24 بكرة</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم ميجا مقاس 3 - 80 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم ميجا مقاس 5 - 76 حفاضة</t>
+    <t>مسحوق باهى لافندر اوتوماتيك 8 ك + 1 ك - 9 كجم</t>
   </si>
   <si>
     <t>بسكاتو دايجستا ميني لايت - 8 جنية</t>
   </si>
   <si>
-    <t>هيركود جيل سبوت 25مل + 8 مل ( 32% )  مجانا - 33 مل</t>
-  </si>
-  <si>
-    <t>لبن المراعى كامل الدسم - 1.5 لتر</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى لافندر - 30 جم</t>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل بلاك - 30 جم</t>
   </si>
   <si>
     <t>اوكسى جل بلاك - 90 جم</t>
@@ -493,103 +424,73 @@
     <t>اوكسى جل يدوى نسيم الربيع - 36 كيس 50 جم</t>
   </si>
   <si>
-    <t>فاين فودز مرقة خضار 8 مكعب عرض (7+1) - 72 جم</t>
-  </si>
-  <si>
-    <t>راني عصير مشروب خوخ - 235 مل</t>
-  </si>
-  <si>
-    <t>راني عصير مشروب فراولة وموز - 235 مل</t>
-  </si>
-  <si>
-    <t>راني عصير مشروب  مانجو - 235 مل</t>
-  </si>
-  <si>
-    <t>شامبو كلير حريمى بامبى - 5 مل</t>
-  </si>
-  <si>
     <t>عصير جهينة تفاح كمثرى - 235 مل</t>
   </si>
   <si>
-    <t>اوكسى سائل اطباق ليمون أخضر ظرف 35 جرام</t>
-  </si>
-  <si>
-    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
-  </si>
-  <si>
-    <t>شاور جيل سوبر كرنفال رحيق الفواكه - 2 لتر</t>
-  </si>
-  <si>
-    <t>صابون لوكس بشرة نضرة - 115 جم</t>
-  </si>
-  <si>
-    <t>اوكسي سائل أطباق ليمون اصفر- 100 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى لافندر - 330 جم</t>
+    <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اخضر - 40 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
   </si>
   <si>
     <t>كل يوم عصير تفاح - 200 مل</t>
   </si>
   <si>
-    <t>مولتو ميني ماجنم ميكس شوكولاته وكريمة  - 15 جنية</t>
-  </si>
-  <si>
-    <t>صابون لوكس سحر الاوركيد - 165 جم</t>
-  </si>
-  <si>
-    <t>مناديل بابيا مطبخ 3 طبقة 5 رول + 1 رول هدية 6 رول</t>
+    <t>كل يوم عصير مانجو - 200 مل</t>
+  </si>
+  <si>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
   </si>
   <si>
     <t>زيت كريستال ذرة 6 زجاجة - 1 لتر</t>
   </si>
   <si>
-    <t>فرست وان بطعم الشعير و الاناناس - 250 مل</t>
-  </si>
-  <si>
-    <t>فرست وان بطعم التفاح - 250 مل</t>
-  </si>
-  <si>
-    <t>قوت سمنة ظرف طعم الزبدة الصفراء - 55 جم</t>
-  </si>
-  <si>
-    <t>سمنة قوت بطعم الزبدة الصفرا - 650 جم</t>
-  </si>
-  <si>
-    <t>سمنة قوت القلوب ابيض - 650 جم</t>
-  </si>
-  <si>
-    <t>سمنة قوت القلوب ابيض - 1450 جم</t>
-  </si>
-  <si>
-    <t>سمنة الاصيل اصفر - 750 جم</t>
+    <t>زيت كريستال الممتاز خليط - 2.5 لتر</t>
+  </si>
+  <si>
+    <t>كنور خلطة المفروم عرض 50 % كمية اكثر  - 70 جم</t>
   </si>
   <si>
     <t>سمنة الاصيل اصفر - 1450 جم</t>
   </si>
   <si>
-    <t>تيكا شوكوبون هابي شوكو - 30 جرام 10 جنية</t>
-  </si>
-  <si>
     <t>تيكا لبان تاتو - 1 جنية</t>
   </si>
   <si>
-    <t>تيكا مارشملو ميني ازرق - 18 جرام 5 جنية</t>
-  </si>
-  <si>
     <t>صابون دوش  - 60 جم</t>
   </si>
   <si>
+    <t>زيووو إكسترا كرانشى طماطم - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو كرانشى الجبنة - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرلي خضروات - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى طماطم وريحان - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو اراميش بافس جبنة - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو اراميش بافس سجق - 5 جنية</t>
+  </si>
+  <si>
     <t>جل باهى لافندر - 40 جم</t>
   </si>
   <si>
-    <t>فرست وان بطعم التفاح والشعير 250 مل</t>
-  </si>
-  <si>
-    <t>-أريال يدوى داونى 1.5 كجم</t>
-  </si>
-  <si>
-    <t>ماكسى برتقال - 1 لتر</t>
+    <t>بريكس مزيل بقع - 30 جم</t>
+  </si>
+  <si>
+    <t>بيك رولز ميكس جبن -حجم سوبر 10 جنية</t>
+  </si>
+  <si>
+    <t>كلوريل الوان بقوة الاكسجين احمر - 1 كجم</t>
   </si>
   <si>
     <t>ماكسى كولا - 1 لتر</t>
@@ -598,37 +499,28 @@
     <t>صابون دوش عرض خاص - 110 جم</t>
   </si>
   <si>
-    <t>كلوروكس ابيض باوش - 500 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 1 لتر</t>
-  </si>
-  <si>
     <t>زيت ثمرات خليط - 700 مل</t>
   </si>
   <si>
     <t>زيت ثمرات خليط - 550 مل</t>
   </si>
   <si>
-    <t>ارز ثمرات عريض - 1 كجم</t>
-  </si>
-  <si>
-    <t>ويفر تاوتاو كليك شوكولاتة بيضاء - 5 جنية</t>
-  </si>
-  <si>
-    <t>مولبد حماية ضد البكتريا طويل 14 + 2  فوطة مجانا - 16 فوطة</t>
-  </si>
-  <si>
-    <t>مناديل بابيا تواليت 3 طبقة - 2 رول</t>
+    <t>نسكافيه 3*1 شوت - 9 جم</t>
   </si>
   <si>
     <t>هوهوز كيك الشوكولاتة الملفوف المحشو بكريمة الفانيلا والمغطي بالكاكاو 10 جنية</t>
   </si>
   <si>
+    <t>مكرونة مرمرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية بساطة - 1 كجم</t>
+  </si>
+  <si>
     <t>مكرونة خواتم بساطة - 1 كجم</t>
   </si>
   <si>
-    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+    <t>مكرونة فرن بساطة - 1 كجم</t>
   </si>
   <si>
     <t>ليندو برو برائحه اللافندر - 130 جرام</t>
@@ -640,22 +532,31 @@
     <t>ليندو برو برائحه اللافندر - 2.5 كجم</t>
   </si>
   <si>
-    <t>شوكولاتة كادبورى سادة 15 جنيه - 18.5 جم</t>
-  </si>
-  <si>
-    <t>لبان كلورتس قطعة واحدة بيج بايت نعناع - 100 قطعه</t>
-  </si>
-  <si>
-    <t>تايد أوتوماتيك داونى  - 9 كجم</t>
-  </si>
-  <si>
-    <t>تويتش مشروب شعيرغازي  بطعم الاناناس - 330 مل</t>
+    <t>يامى نودلز طعم الخضروات - 55 جرام</t>
+  </si>
+  <si>
+    <t>يامى نودلز طعم الدجاج - 55 جم</t>
+  </si>
+  <si>
+    <t>يامى نودلز طعم كارى الدجاج - 55 جم</t>
+  </si>
+  <si>
+    <t>مولفكس بريميوم جامبو اقتصادي مقاس 2 ميني- 58 حفاضة</t>
+  </si>
+  <si>
+    <t>دومتي جبنة فيتا بلس بسطرمة - 500 جم</t>
+  </si>
+  <si>
+    <t>دومتي جبنة فيتا بلس شيدر - 250 جم</t>
   </si>
   <si>
     <t>كوكا كولا كانز اورجنال 10% زياده - 355 مل</t>
   </si>
   <si>
-    <t>اندومي سوبر مى خضار حارجامبو عرض 44 كيس - 100 جم</t>
+    <t>زيووو شرائح بالت ليمون حلو - 65 جم</t>
+  </si>
+  <si>
+    <t>زيووو شرائح بالت خضروات - 65 جم</t>
   </si>
   <si>
     <t>اريال اوتوماتيك مسحوق داوني -400 جم مجانا- 2.9 كجم</t>
@@ -664,25 +565,22 @@
     <t>تويتش مشروب شعيرغازي  بطعم الخوخ - 330 مل</t>
   </si>
   <si>
-    <t>جبنة باندا بسطرمة - 500 جم</t>
+    <t>سولا باراديس طوفي - 28 قطعه</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي 32 كيس - 50 جم</t>
   </si>
   <si>
     <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
   </si>
   <si>
-    <t>اريال اوتوماتيك بلمسة الداوني - 4 كجم</t>
-  </si>
-  <si>
-    <t>ديفا منظف ايدى الترا فريش - 500 مل</t>
-  </si>
-  <si>
-    <t>شاي ريد ليبل - 225 جم</t>
-  </si>
-  <si>
-    <t>شاي ريد ليبل - 40 جم</t>
-  </si>
-  <si>
-    <t>مولفيكس بانتس مقاس 3 - 56 حفاضة</t>
+    <t>مكرونة شعرية كايرو - 1 كجم</t>
+  </si>
+  <si>
+    <t>ماندولين ويفر كريمة الكاكاو ب 5ج - 16 جم</t>
+  </si>
+  <si>
+    <t>بونكس اوتوماتيك برائحة الفل - 9 كجم</t>
   </si>
   <si>
     <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
@@ -691,46 +589,22 @@
     <t>مولفيكس بانتس جامبو اقتصادي مقاس 5 - 56 حفاضة</t>
   </si>
   <si>
-    <t>مولفيكس بانتس كبير جدا ضد البكتريا ميجا مقاس 6 - 60 حفاضة</t>
-  </si>
-  <si>
     <t>مولفيكس بانتس  مقاس 6 كبير جدا 46 حفاضة</t>
   </si>
   <si>
-    <t>راز باوند كيك فانيليا - 12 قطعه</t>
-  </si>
-  <si>
-    <t>راز باوند كيك برتقال - 12 قطعه</t>
-  </si>
-  <si>
-    <t>ﻻﺭﺵ ﻣﻴﻠﺖ مولتن كيك ﻛﺎﻛﺎو  5 +1 - 6 قطعه</t>
-  </si>
-  <si>
-    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
-  </si>
-  <si>
-    <t>ماكسى كانز ليمون نعناع اورجينال - 300 مل</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم بانتس مقاس 4 - 76 حفاضة</t>
-  </si>
-  <si>
-    <t>كيك تاوتاو تربو كاكاو بكريمة الفانيليا - 6 قطعة - 5 جنية</t>
+    <t>ماكسى كانز برتقال اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون اورجينال - 300 مل</t>
   </si>
   <si>
     <t>كيك تاوتاو تربو محشو كريم الفانيليا ومربى الفراولة - 5 جنية</t>
   </si>
   <si>
-    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة- 6 قطعة - 5 جنية</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
-  </si>
-  <si>
-    <t>اريال اوتوماتيك برائحة البخور -- 1 كجم</t>
-  </si>
-  <si>
-    <t>المراعي جبنه رومي-عرض الكل كسبان 500 جم</t>
+    <t>المراعي جبنة فيتا -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالشيدر -عرض الكل كسبان 250 جم</t>
   </si>
   <si>
     <t>ماكسى ليمون نعناع - 1 لتر</t>
@@ -1097,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G329"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1128,7 +1002,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1137,168 +1011,168 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>860</v>
+        <v>3708</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>452.5</v>
+        <v>25.75</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>458.5</v>
+        <v>690</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>582.5</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>285.5</v>
+        <v>490</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2736</v>
+        <v>186.5</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4032</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>237.75</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>33.5</v>
+        <v>951</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1307,576 +1181,576 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1608</v>
+        <v>711</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>1126</v>
+        <v>39.5</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>140.75</v>
+        <v>397.25</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>115</v>
+        <v>281.75</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>690</v>
+        <v>540</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>195</v>
+        <v>319.75</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>191</v>
+        <v>22.5</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>397.25</v>
+        <v>1080</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>6861</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>571.75</v>
+        <v>273.5</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>247</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>305.25</v>
+        <v>345</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>307</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>196.25</v>
+        <v>189.5</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>346</v>
+        <v>436</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>597.75</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>340.75</v>
+        <v>534.25</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>193.5</v>
+        <v>189.5</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>424</v>
+        <v>566</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>197.5</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>424</v>
+        <v>823</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1272</v>
+        <v>739.5</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>435</v>
+        <v>950</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>291</v>
+        <v>504.25</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>436</v>
+        <v>1007</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>448</v>
+        <v>1050</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>625</v>
+        <v>262.75</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>468</v>
+        <v>1084</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>539</v>
+        <v>688.75</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>477</v>
+        <v>1124</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>728</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>478</v>
+        <v>1139</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>731.5</v>
+        <v>134.5</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>791</v>
+        <v>1139</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>736.5</v>
+        <v>807</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>924</v>
+        <v>1163</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>626.25</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>950</v>
+        <v>1163</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>504.5</v>
+        <v>1700</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>951</v>
+        <v>1243</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>3372</v>
+        <v>299.25</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>951</v>
+        <v>1309</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>281</v>
+        <v>531</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>952</v>
+        <v>1309</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>337.25</v>
+        <v>44.25</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>952</v>
+        <v>1406</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>4047</v>
+        <v>355</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>991</v>
+        <v>1406</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>549</v>
+        <v>1065</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1000</v>
+        <v>1432</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>269.25</v>
+        <v>307.75</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1007</v>
+        <v>1432</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
@@ -1885,4821 +1759,3512 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>108</v>
+        <v>923.25</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1053</v>
+        <v>1446</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
       <c r="C47">
-        <v>729</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1053</v>
+        <v>1490</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>960</v>
+        <v>579</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1053</v>
+        <v>1504</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1053</v>
+        <v>1667</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>728</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>480</v>
+        <v>1620</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1163</v>
+        <v>1667</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>83.5</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1163</v>
+        <v>1668</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1670</v>
+        <v>303.5</v>
       </c>
       <c r="E52" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1274</v>
+        <v>1691</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="E53" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1309</v>
+        <v>1701</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1309</v>
+        <v>1886</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>540</v>
+        <v>194.25</v>
       </c>
       <c r="E55" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1406</v>
+        <v>1895</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>1058.25</v>
+        <v>93.25</v>
       </c>
       <c r="E56" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1406</v>
+        <v>1895</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>352.75</v>
+        <v>746</v>
       </c>
       <c r="E57" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1407</v>
+        <v>2049</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>930</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1407</v>
+        <v>2049</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>310</v>
+        <v>1272</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1432</v>
+        <v>2104</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>916.5</v>
+        <v>1020</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1432</v>
+        <v>2104</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>305.5</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1523</v>
+        <v>2105</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>620</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1701</v>
+        <v>2105</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>169.5</v>
+        <v>1188</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1706</v>
+        <v>2188</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>798.5</v>
+        <v>36.25</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1706</v>
+        <v>2188</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>399.25</v>
+        <v>435</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1728</v>
+        <v>2287</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>310</v>
+        <v>286.5</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>1886</v>
+        <v>2287</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>199</v>
+        <v>859.5</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>2057</v>
+        <v>2322</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>2057</v>
+        <v>2327</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1488</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2099</v>
+        <v>2328</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>282.5</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>2099</v>
+        <v>2331</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1695</v>
+        <v>251</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>2109</v>
+        <v>2438</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>744</v>
+        <v>44.25</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>2109</v>
+        <v>2438</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>62</v>
+        <v>531</v>
       </c>
       <c r="E73" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>2225</v>
+        <v>2655</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>588</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>2225</v>
+        <v>2775</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>49</v>
+        <v>195.75</v>
       </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>2244</v>
+        <v>2778</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2244</v>
+        <v>2821</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1218</v>
+        <v>534</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>2325</v>
+        <v>2821</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>271.5</v>
+        <v>22.25</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2326</v>
+        <v>2878</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>292.25</v>
+        <v>370</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2336</v>
+        <v>2879</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>1188</v>
+        <v>777</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>49.5</v>
+        <v>938.5</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2421</v>
+        <v>2934</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C82">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>673.75</v>
+        <v>1008.25</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2421</v>
+        <v>2989</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>134.75</v>
+        <v>503</v>
       </c>
       <c r="E83" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2539</v>
+        <v>2989</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C84">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>277.5</v>
+        <v>125.75</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2655</v>
+        <v>2992</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>202</v>
+        <v>825</v>
       </c>
       <c r="E85" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2703</v>
+        <v>2992</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86">
-        <v>96.75</v>
+        <v>206.25</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>2703</v>
+        <v>3024</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>2322</v>
+        <v>109.5</v>
       </c>
       <c r="E87" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2736</v>
+        <v>3024</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>543.25</v>
+        <v>328.5</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2736</v>
+        <v>3143</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>6519</v>
+        <v>589.5</v>
       </c>
       <c r="E89" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2774</v>
+        <v>3143</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>171.25</v>
+        <v>98.25</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2916</v>
+        <v>3393</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>934.75</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2934</v>
+        <v>3394</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1049.75</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2989</v>
+        <v>3456</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>503</v>
+        <v>130.25</v>
       </c>
       <c r="E93" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>2989</v>
+        <v>3456</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>125.75</v>
+        <v>1563</v>
       </c>
       <c r="E94" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>2992</v>
+        <v>3495</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>825</v>
+        <v>1110</v>
       </c>
       <c r="E95" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>2992</v>
+        <v>3495</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>206.25</v>
+        <v>27.75</v>
       </c>
       <c r="E96" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>3024</v>
+        <v>3671</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>109.5</v>
+        <v>345</v>
       </c>
       <c r="E97" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>3024</v>
+        <v>3674</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>328.5</v>
+        <v>124.25</v>
       </c>
       <c r="E98" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>3143</v>
+        <v>4222</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>97</v>
+        <v>549.75</v>
       </c>
       <c r="E99" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>3143</v>
+        <v>4222</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>582</v>
+        <v>6597</v>
       </c>
       <c r="E100" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>3334</v>
+        <v>4253</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>158.75</v>
+        <v>169</v>
       </c>
       <c r="E101" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>3387</v>
+        <v>4926</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>210.25</v>
+        <v>385</v>
       </c>
       <c r="E102" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>3393</v>
+        <v>4940</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>202</v>
+        <v>242.5</v>
       </c>
       <c r="E103" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>3394</v>
+        <v>5165</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>202</v>
+        <v>74.5</v>
       </c>
       <c r="E104" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>3671</v>
+        <v>5165</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>332.75</v>
+        <v>596</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>3674</v>
+        <v>5208</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>126</v>
+        <v>1552.5</v>
       </c>
       <c r="E106" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>3896</v>
+        <v>5208</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C107">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>957.75</v>
+        <v>51.75</v>
       </c>
       <c r="E107" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>3896</v>
+        <v>5243</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C108">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>319.25</v>
+        <v>968</v>
       </c>
       <c r="E108" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>3981</v>
+        <v>5243</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>1386</v>
+        <v>121</v>
       </c>
       <c r="E109" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>3981</v>
+        <v>5490</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>19.25</v>
+        <v>284.25</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>4030</v>
+        <v>5491</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C111">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>777.75</v>
+        <v>289</v>
       </c>
       <c r="E111" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>4030</v>
+        <v>5493</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C112">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>259.25</v>
+        <v>285.75</v>
       </c>
       <c r="E112" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>4043</v>
+        <v>5729</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C113">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>783.75</v>
+        <v>570</v>
       </c>
       <c r="E113" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>4043</v>
+        <v>5854</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C114">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>261.25</v>
+        <v>179.75</v>
       </c>
       <c r="E114" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>4253</v>
+        <v>5866</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>163.75</v>
+        <v>132.25</v>
       </c>
       <c r="E115" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>4926</v>
+        <v>5976</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C116">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>384.25</v>
+        <v>181</v>
       </c>
       <c r="E116" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>4927</v>
+        <v>6494</v>
       </c>
       <c r="B117" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>383.5</v>
+        <v>577.5</v>
       </c>
       <c r="E117" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>5153</v>
+        <v>6496</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>1186.25</v>
+        <v>729.75</v>
       </c>
       <c r="E118" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>5208</v>
+        <v>6540</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D119">
-        <v>51.75</v>
+        <v>755</v>
       </c>
       <c r="E119" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>5208</v>
+        <v>6540</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D120">
-        <v>1552.5</v>
+        <v>377.5</v>
       </c>
       <c r="E120" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>5452</v>
+        <v>6872</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D121">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="E121" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>5453</v>
+        <v>6872</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D122">
-        <v>289</v>
+        <v>780</v>
       </c>
       <c r="E122" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>5490</v>
+        <v>6935</v>
       </c>
       <c r="B123" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="E123" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>5513</v>
+        <v>6936</v>
       </c>
       <c r="B124" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>362</v>
+        <v>105.75</v>
       </c>
       <c r="E124" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>5539</v>
+        <v>6952</v>
       </c>
       <c r="B125" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>172.25</v>
+        <v>155</v>
       </c>
       <c r="E125" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>5584</v>
+        <v>7004</v>
       </c>
       <c r="B126" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1162.5</v>
+        <v>375</v>
       </c>
       <c r="E126" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>5584</v>
+        <v>7036</v>
       </c>
       <c r="B127" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>116.25</v>
+        <v>222.25</v>
       </c>
       <c r="E127" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>5729</v>
+        <v>7324</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>570</v>
+        <v>466</v>
       </c>
       <c r="E128" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>5866</v>
+        <v>7703</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>135.25</v>
+        <v>163</v>
       </c>
       <c r="E129" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>5871</v>
+        <v>7705</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>133</v>
+        <v>165.25</v>
       </c>
       <c r="E130" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>6098</v>
+        <v>7706</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C131">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>773</v>
+        <v>163.25</v>
       </c>
       <c r="E131" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>6098</v>
+        <v>7707</v>
       </c>
       <c r="B132" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C132">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>386.5</v>
+        <v>163</v>
       </c>
       <c r="E132" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>6266</v>
+        <v>7708</v>
       </c>
       <c r="B133" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>2387.5</v>
+        <v>163.5</v>
       </c>
       <c r="E133" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>6266</v>
+        <v>7885</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C134">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>47.75</v>
+        <v>205.75</v>
       </c>
       <c r="E134" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>6497</v>
+        <v>7885</v>
       </c>
       <c r="B135" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>767.5</v>
+        <v>2469</v>
       </c>
       <c r="E135" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>6540</v>
+        <v>7887</v>
       </c>
       <c r="B136" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C136">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D136">
-        <v>743.5</v>
+        <v>207.75</v>
       </c>
       <c r="E136" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>6540</v>
+        <v>7887</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C137">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>371.75</v>
+        <v>2493</v>
       </c>
       <c r="E137" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>6575</v>
+        <v>8600</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>113.5</v>
+        <v>185.75</v>
       </c>
       <c r="E138" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>6575</v>
+        <v>8659</v>
       </c>
       <c r="B139" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1135</v>
+        <v>237.25</v>
       </c>
       <c r="E139" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>6630</v>
+        <v>8677</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C140">
         <v>3</v>
       </c>
       <c r="D140">
-        <v>268.5</v>
+        <v>94.75</v>
       </c>
       <c r="E140" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>6630</v>
+        <v>8677</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>3222</v>
+        <v>1137</v>
       </c>
       <c r="E141" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>6805</v>
+        <v>8690</v>
       </c>
       <c r="B142" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D142">
-        <v>59.75</v>
+        <v>84.75</v>
       </c>
       <c r="E142" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>7036</v>
+        <v>8690</v>
       </c>
       <c r="B143" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>236.5</v>
+        <v>2034</v>
       </c>
       <c r="E143" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>7704</v>
+        <v>8853</v>
       </c>
       <c r="B144" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>168.75</v>
+        <v>102.5</v>
       </c>
       <c r="E144" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>7706</v>
+        <v>8915</v>
       </c>
       <c r="B145" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145">
-        <v>165</v>
+        <v>180.5</v>
       </c>
       <c r="E145" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>7707</v>
+        <v>8938</v>
       </c>
       <c r="B146" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>163</v>
+        <v>181.75</v>
       </c>
       <c r="E146" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>7885</v>
+        <v>8943</v>
       </c>
       <c r="B147" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2520</v>
+        <v>294</v>
       </c>
       <c r="E147" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>7885</v>
+        <v>8943</v>
       </c>
       <c r="B148" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>210</v>
+        <v>73.5</v>
       </c>
       <c r="E148" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>7887</v>
+        <v>9069</v>
       </c>
       <c r="B149" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>2487</v>
+        <v>227.75</v>
       </c>
       <c r="E149" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>7887</v>
+        <v>9081</v>
       </c>
       <c r="B150" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>207.25</v>
+        <v>60.75</v>
       </c>
       <c r="E150" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>8156</v>
+        <v>9081</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>981.75</v>
+        <v>1458</v>
       </c>
       <c r="E151" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>8156</v>
+        <v>9085</v>
       </c>
       <c r="B152" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C152">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D152">
-        <v>327.25</v>
+        <v>930.75</v>
       </c>
       <c r="E152" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>8157</v>
+        <v>9085</v>
       </c>
       <c r="B153" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C153">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D153">
-        <v>912.75</v>
+        <v>310.25</v>
       </c>
       <c r="E153" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>8157</v>
+        <v>9113</v>
       </c>
       <c r="B154" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C154">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D154">
-        <v>304.25</v>
+        <v>198</v>
       </c>
       <c r="E154" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>8188</v>
+        <v>9113</v>
       </c>
       <c r="B155" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1014</v>
+        <v>792</v>
       </c>
       <c r="E155" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>8188</v>
+        <v>9113</v>
       </c>
       <c r="B156" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C156">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D156">
-        <v>42.25</v>
+        <v>66</v>
       </c>
       <c r="E156" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>8254</v>
+        <v>9124</v>
       </c>
       <c r="B157" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C157">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>350.75</v>
+        <v>412.5</v>
       </c>
       <c r="E157" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>8254</v>
+        <v>9358</v>
       </c>
       <c r="B158" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>1052.25</v>
+        <v>489.5</v>
       </c>
       <c r="E158" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>8284</v>
+        <v>9785</v>
       </c>
       <c r="B159" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>732</v>
+        <v>372.5</v>
       </c>
       <c r="E159" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>8284</v>
+        <v>9796</v>
       </c>
       <c r="B160" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>61</v>
+        <v>1428</v>
       </c>
       <c r="E160" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>8285</v>
+        <v>9796</v>
       </c>
       <c r="B161" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>723</v>
+        <v>29.75</v>
       </c>
       <c r="E161" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>8285</v>
+        <v>9877</v>
       </c>
       <c r="B162" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D162">
-        <v>60.25</v>
+        <v>738</v>
       </c>
       <c r="E162" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>8356</v>
+        <v>9877</v>
       </c>
       <c r="B163" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D163">
-        <v>315</v>
+        <v>1476</v>
       </c>
       <c r="E163" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>8557</v>
+        <v>9877</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>140.75</v>
+        <v>61.5</v>
       </c>
       <c r="E164" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>8557</v>
+        <v>9877</v>
       </c>
       <c r="B165" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>3378</v>
+        <v>2952</v>
       </c>
       <c r="E165" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>8672</v>
+        <v>9910</v>
       </c>
       <c r="B166" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D166">
-        <v>103.5</v>
+        <v>807</v>
       </c>
       <c r="E166" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>8673</v>
+        <v>9910</v>
       </c>
       <c r="B167" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D167">
-        <v>103.5</v>
+        <v>403.5</v>
       </c>
       <c r="E167" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>8688</v>
+        <v>9920</v>
       </c>
       <c r="B168" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>1203.75</v>
+        <v>516</v>
       </c>
       <c r="E168" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>8688</v>
+        <v>9920</v>
       </c>
       <c r="B169" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C169">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D169">
-        <v>80.25</v>
+        <v>21.5</v>
       </c>
       <c r="E169" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>8872</v>
+        <v>10174</v>
       </c>
       <c r="B170" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>307.5</v>
+        <v>725.75</v>
       </c>
       <c r="E170" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>8915</v>
+        <v>10588</v>
       </c>
       <c r="B171" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>174.25</v>
+        <v>280</v>
       </c>
       <c r="E171" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>8926</v>
+        <v>10588</v>
       </c>
       <c r="B172" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="E172" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>8927</v>
+        <v>11158</v>
       </c>
       <c r="B173" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>882</v>
+        <v>59</v>
       </c>
       <c r="E173" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>8927</v>
+        <v>11160</v>
       </c>
       <c r="B174" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C174">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>36.75</v>
+        <v>55</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>8938</v>
+        <v>11164</v>
       </c>
       <c r="B175" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>177.5</v>
+        <v>70</v>
       </c>
       <c r="E175" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>8945</v>
+        <v>11180</v>
       </c>
       <c r="B176" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>49.5</v>
+        <v>326</v>
       </c>
       <c r="E176" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>8945</v>
+        <v>11181</v>
       </c>
       <c r="B177" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>297</v>
+        <v>83.75</v>
       </c>
       <c r="E177" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>9070</v>
+        <v>11491</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>856.25</v>
+        <v>209.25</v>
       </c>
       <c r="E178" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>9081</v>
+        <v>11492</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>61.25</v>
+        <v>312.25</v>
       </c>
       <c r="E179" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>9081</v>
+        <v>11678</v>
       </c>
       <c r="B180" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1470</v>
+        <v>65</v>
       </c>
       <c r="E180" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>9085</v>
+        <v>11813</v>
       </c>
       <c r="B181" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C181">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>923.25</v>
+        <v>90</v>
       </c>
       <c r="E181" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>9085</v>
+        <v>11837</v>
       </c>
       <c r="B182" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C182">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>307.75</v>
+        <v>122</v>
       </c>
       <c r="E182" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>9087</v>
+        <v>11838</v>
       </c>
       <c r="B183" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C183">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>788.25</v>
+        <v>116.75</v>
       </c>
       <c r="E183" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>9087</v>
+        <v>11960</v>
       </c>
       <c r="B184" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C184">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D184">
-        <v>262.75</v>
+        <v>56</v>
       </c>
       <c r="E184" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>9088</v>
+        <v>11960</v>
       </c>
       <c r="B185" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C185">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>785.25</v>
+        <v>224</v>
       </c>
       <c r="E185" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>9088</v>
+        <v>11962</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C186">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>261.75</v>
+        <v>659</v>
       </c>
       <c r="E186" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>9124</v>
+        <v>11965</v>
       </c>
       <c r="B187" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>421.5</v>
+        <v>665.5</v>
       </c>
       <c r="E187" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>9356</v>
+        <v>12010</v>
       </c>
       <c r="B188" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>629.75</v>
+        <v>192.75</v>
       </c>
       <c r="E188" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>9357</v>
+        <v>12010</v>
       </c>
       <c r="B189" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>635.25</v>
+        <v>1156.5</v>
       </c>
       <c r="E189" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>9358</v>
+        <v>12147</v>
       </c>
       <c r="B190" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>497.75</v>
+        <v>744.5</v>
       </c>
       <c r="E190" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>9608</v>
+        <v>12240</v>
       </c>
       <c r="B191" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D191">
-        <v>454.5</v>
+        <v>109.5</v>
       </c>
       <c r="E191" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>9613</v>
+        <v>12240</v>
       </c>
       <c r="B192" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>459</v>
+        <v>1314</v>
       </c>
       <c r="E192" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>9784</v>
+        <v>12304</v>
       </c>
       <c r="B193" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>404</v>
+        <v>260.5</v>
       </c>
       <c r="E193" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>9796</v>
+        <v>12343</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>28.5</v>
+        <v>48.75</v>
       </c>
       <c r="E194" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>9796</v>
+        <v>12345</v>
       </c>
       <c r="B195" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1368</v>
+        <v>50.25</v>
       </c>
       <c r="E195" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>9797</v>
+        <v>12346</v>
       </c>
       <c r="B196" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>29</v>
+        <v>45.25</v>
       </c>
       <c r="E196" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>9797</v>
+        <v>12347</v>
       </c>
       <c r="B197" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1392</v>
+        <v>48.75</v>
       </c>
       <c r="E197" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>9910</v>
+        <v>12350</v>
       </c>
       <c r="B198" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C198">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>792</v>
+        <v>48.75</v>
       </c>
       <c r="E198" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>9910</v>
+        <v>12353</v>
       </c>
       <c r="B199" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C199">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>396</v>
+        <v>49.75</v>
       </c>
       <c r="E199" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>9920</v>
+        <v>12373</v>
       </c>
       <c r="B200" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>492</v>
+        <v>54.25</v>
       </c>
       <c r="E200" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>9920</v>
+        <v>12503</v>
       </c>
       <c r="B201" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C201">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>20.5</v>
+        <v>141</v>
       </c>
       <c r="E201" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>9945</v>
+        <v>12563</v>
       </c>
       <c r="B202" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1065</v>
+        <v>202</v>
       </c>
       <c r="E202" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>9945</v>
+        <v>12614</v>
       </c>
       <c r="B203" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>88.75</v>
+        <v>311</v>
       </c>
       <c r="E203" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>10149</v>
+        <v>12721</v>
       </c>
       <c r="B204" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>30.75</v>
+        <v>104</v>
       </c>
       <c r="E204" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>10149</v>
+        <v>12764</v>
       </c>
       <c r="B205" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1230</v>
+        <v>456</v>
       </c>
       <c r="E205" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>10176</v>
+        <v>12764</v>
       </c>
       <c r="B206" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C206">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>213.5</v>
+        <v>38</v>
       </c>
       <c r="E206" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>10413</v>
+        <v>12924</v>
       </c>
       <c r="B207" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C207">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>28.25</v>
+        <v>532.75</v>
       </c>
       <c r="E207" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>10413</v>
+        <v>12925</v>
       </c>
       <c r="B208" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>339</v>
+        <v>456</v>
       </c>
       <c r="E208" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>10414</v>
+        <v>12964</v>
       </c>
       <c r="B209" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>41.5</v>
+        <v>948</v>
       </c>
       <c r="E209" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>10414</v>
+        <v>12964</v>
       </c>
       <c r="B210" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="E210" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>10467</v>
+        <v>13293</v>
       </c>
       <c r="B211" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C211">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>264.75</v>
+        <v>794</v>
       </c>
       <c r="E211" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>10524</v>
+        <v>13293</v>
       </c>
       <c r="B212" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C212">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D212">
-        <v>338</v>
+        <v>99.25</v>
       </c>
       <c r="E212" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>10524</v>
+        <v>13485</v>
       </c>
       <c r="B213" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C213">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>676</v>
+        <v>233.75</v>
       </c>
       <c r="E213" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>10530</v>
+        <v>13486</v>
       </c>
       <c r="B214" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C214">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>757</v>
+        <v>233.25</v>
       </c>
       <c r="E214" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>10530</v>
+        <v>13487</v>
       </c>
       <c r="B215" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C215">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>378.5</v>
+        <v>229.5</v>
       </c>
       <c r="E215" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>10588</v>
+        <v>13489</v>
       </c>
       <c r="B216" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="E216" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>10588</v>
+        <v>13598</v>
       </c>
       <c r="B217" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>70</v>
+        <v>90.25</v>
       </c>
       <c r="E217" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>10825</v>
+        <v>13600</v>
       </c>
       <c r="B218" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C218">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>43.25</v>
+        <v>82.75</v>
       </c>
       <c r="E218" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>10825</v>
+        <v>13608</v>
       </c>
       <c r="B219" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1557</v>
+        <v>581.25</v>
       </c>
       <c r="E219" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>10993</v>
+        <v>19878</v>
       </c>
       <c r="B220" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>538</v>
+        <v>145.25</v>
       </c>
       <c r="E220" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>11159</v>
+        <v>19879</v>
       </c>
       <c r="B221" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>58.25</v>
+        <v>144.5</v>
       </c>
       <c r="E221" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>11164</v>
+        <v>19883</v>
       </c>
       <c r="B222" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>72.25</v>
+        <v>147</v>
       </c>
       <c r="E222" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>11180</v>
+        <v>19965</v>
       </c>
       <c r="B223" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D223">
-        <v>332.75</v>
+        <v>253.25</v>
       </c>
       <c r="E223" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>11181</v>
+        <v>19965</v>
       </c>
       <c r="B224" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D224">
-        <v>90</v>
+        <v>759.75</v>
       </c>
       <c r="E224" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>11212</v>
+        <v>19989</v>
       </c>
       <c r="B225" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>1404</v>
+        <v>435.75</v>
       </c>
       <c r="E225" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>11212</v>
+        <v>19992</v>
       </c>
       <c r="B226" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>117</v>
+        <v>520.5</v>
       </c>
       <c r="E226" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>11288</v>
+        <v>20252</v>
       </c>
       <c r="B227" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>317.25</v>
+        <v>320</v>
       </c>
       <c r="E227" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>11290</v>
+        <v>20680</v>
       </c>
       <c r="B228" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>315</v>
+        <v>47.75</v>
       </c>
       <c r="E228" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>11304</v>
+        <v>20682</v>
       </c>
       <c r="B229" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>314.25</v>
+        <v>48.75</v>
       </c>
       <c r="E229" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>11467</v>
+        <v>20978</v>
       </c>
       <c r="B230" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>294.5</v>
+        <v>734.75</v>
       </c>
       <c r="E230" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>11491</v>
+        <v>21010</v>
       </c>
       <c r="B231" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C231">
         <v>2</v>
       </c>
       <c r="D231">
-        <v>211.75</v>
+        <v>97</v>
       </c>
       <c r="E231" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>11586</v>
+        <v>21320</v>
       </c>
       <c r="B232" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>75.5</v>
+        <v>352.5</v>
       </c>
       <c r="E232" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>11587</v>
+        <v>21320</v>
       </c>
       <c r="B233" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D233">
-        <v>79</v>
+        <v>11.75</v>
       </c>
       <c r="E233" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>11635</v>
+        <v>21793</v>
       </c>
       <c r="B234" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>307.5</v>
+        <v>114.75</v>
       </c>
       <c r="E234" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>11689</v>
+        <v>21798</v>
       </c>
       <c r="B235" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>95.5</v>
+        <v>201.5</v>
       </c>
       <c r="E235" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>11689</v>
+        <v>22278</v>
       </c>
       <c r="B236" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>764</v>
+        <v>236.75</v>
       </c>
       <c r="E236" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>11766</v>
+        <v>22316</v>
       </c>
       <c r="B237" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D237">
-        <v>90.75</v>
+        <v>93</v>
       </c>
       <c r="E237" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>11769</v>
+        <v>22316</v>
       </c>
       <c r="B238" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>177.5</v>
+        <v>1116</v>
       </c>
       <c r="E238" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>11837</v>
+        <v>22327</v>
       </c>
       <c r="B239" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>121</v>
+        <v>685.25</v>
       </c>
       <c r="E239" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>11858</v>
+        <v>23234</v>
       </c>
       <c r="B240" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D240">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E240" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>11886</v>
+        <v>23234</v>
       </c>
       <c r="B241" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D241">
-        <v>149.75</v>
+        <v>924</v>
       </c>
       <c r="E241" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>11886</v>
+        <v>23235</v>
       </c>
       <c r="B242" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D242">
-        <v>1198</v>
+        <v>1054.5</v>
       </c>
       <c r="E242" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>11942</v>
+        <v>23235</v>
       </c>
       <c r="B243" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C243">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D243">
-        <v>289.75</v>
+        <v>351.5</v>
       </c>
       <c r="E243" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>11962</v>
+        <v>23380</v>
       </c>
       <c r="B244" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D244">
-        <v>665</v>
+        <v>940.5</v>
       </c>
       <c r="E244" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>12054</v>
+        <v>23380</v>
       </c>
       <c r="B245" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D245">
-        <v>52.5</v>
+        <v>313.5</v>
       </c>
       <c r="E245" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>12055</v>
+        <v>23661</v>
       </c>
       <c r="B246" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246">
-        <v>52.5</v>
+        <v>253</v>
       </c>
       <c r="E246" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>12139</v>
+        <v>23662</v>
       </c>
       <c r="B247" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="E247" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>12141</v>
+        <v>24243</v>
       </c>
       <c r="B248" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>382.25</v>
+        <v>300</v>
       </c>
       <c r="E248" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>12142</v>
+        <v>24243</v>
       </c>
       <c r="B249" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D249">
-        <v>385</v>
+        <v>25</v>
       </c>
       <c r="E249" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>12145</v>
+        <v>24722</v>
       </c>
       <c r="B250" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>535.75</v>
+        <v>509.25</v>
       </c>
       <c r="E250" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>12146</v>
+        <v>24723</v>
       </c>
       <c r="B251" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>400.75</v>
+        <v>505</v>
       </c>
       <c r="E251" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>12147</v>
+        <v>25278</v>
       </c>
       <c r="B252" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>751.75</v>
+        <v>104.5</v>
       </c>
       <c r="E252" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253">
-        <v>12236</v>
-      </c>
-      <c r="B253" t="s">
-        <v>184</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>574</v>
-      </c>
-      <c r="E253" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254">
-        <v>12236</v>
-      </c>
-      <c r="B254" t="s">
-        <v>184</v>
-      </c>
-      <c r="C254">
-        <v>3</v>
-      </c>
-      <c r="D254">
-        <v>71.75</v>
-      </c>
-      <c r="E254" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255">
-        <v>12240</v>
-      </c>
-      <c r="B255" t="s">
-        <v>185</v>
-      </c>
-      <c r="C255">
-        <v>14</v>
-      </c>
-      <c r="D255">
-        <v>110.5</v>
-      </c>
-      <c r="E255" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256">
-        <v>12240</v>
-      </c>
-      <c r="B256" t="s">
-        <v>185</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>1326</v>
-      </c>
-      <c r="E256" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257">
-        <v>12241</v>
-      </c>
-      <c r="B257" t="s">
-        <v>186</v>
-      </c>
-      <c r="C257">
-        <v>3</v>
-      </c>
-      <c r="D257">
-        <v>86.25</v>
-      </c>
-      <c r="E257" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258">
-        <v>12241</v>
-      </c>
-      <c r="B258" t="s">
-        <v>186</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>345</v>
-      </c>
-      <c r="E258" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259">
-        <v>12304</v>
-      </c>
-      <c r="B259" t="s">
-        <v>187</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>262.75</v>
-      </c>
-      <c r="E259" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260">
-        <v>12373</v>
-      </c>
-      <c r="B260" t="s">
-        <v>188</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260">
-        <v>52.25</v>
-      </c>
-      <c r="E260" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261">
-        <v>12517</v>
-      </c>
-      <c r="B261" t="s">
-        <v>189</v>
-      </c>
-      <c r="C261">
-        <v>2</v>
-      </c>
-      <c r="D261">
-        <v>54</v>
-      </c>
-      <c r="E261" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262">
-        <v>12658</v>
-      </c>
-      <c r="B262" t="s">
-        <v>190</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262">
-        <v>333.25</v>
-      </c>
-      <c r="E262" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263">
-        <v>12720</v>
-      </c>
-      <c r="B263" t="s">
-        <v>191</v>
-      </c>
-      <c r="C263">
-        <v>2</v>
-      </c>
-      <c r="D263">
-        <v>102.75</v>
-      </c>
-      <c r="E263" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264">
-        <v>12721</v>
-      </c>
-      <c r="B264" t="s">
-        <v>192</v>
-      </c>
-      <c r="C264">
-        <v>2</v>
-      </c>
-      <c r="D264">
-        <v>105</v>
-      </c>
-      <c r="E264" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265">
-        <v>12764</v>
-      </c>
-      <c r="B265" t="s">
-        <v>193</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>465</v>
-      </c>
-      <c r="E265" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266">
-        <v>12764</v>
-      </c>
-      <c r="B266" t="s">
-        <v>193</v>
-      </c>
-      <c r="C266">
-        <v>2</v>
-      </c>
-      <c r="D266">
-        <v>38.75</v>
-      </c>
-      <c r="E266" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267">
-        <v>12870</v>
-      </c>
-      <c r="B267" t="s">
-        <v>194</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267">
-        <v>205.25</v>
-      </c>
-      <c r="E267" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268">
-        <v>12923</v>
-      </c>
-      <c r="B268" t="s">
-        <v>195</v>
-      </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-      <c r="D268">
-        <v>774.5</v>
-      </c>
-      <c r="E268" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269">
-        <v>12924</v>
-      </c>
-      <c r="B269" t="s">
-        <v>196</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269">
-        <v>565.5</v>
-      </c>
-      <c r="E269" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270">
-        <v>12925</v>
-      </c>
-      <c r="B270" t="s">
-        <v>197</v>
-      </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-      <c r="D270">
-        <v>451.75</v>
-      </c>
-      <c r="E270" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271">
-        <v>12930</v>
-      </c>
-      <c r="B271" t="s">
-        <v>198</v>
-      </c>
-      <c r="C271">
-        <v>2</v>
-      </c>
-      <c r="D271">
-        <v>276.5</v>
-      </c>
-      <c r="E271" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272">
-        <v>13037</v>
-      </c>
-      <c r="B272" t="s">
-        <v>199</v>
-      </c>
-      <c r="C272">
-        <v>3</v>
-      </c>
-      <c r="D272">
-        <v>49.5</v>
-      </c>
-      <c r="E272" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273">
-        <v>13037</v>
-      </c>
-      <c r="B273" t="s">
-        <v>199</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>594</v>
-      </c>
-      <c r="E273" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274">
-        <v>13243</v>
-      </c>
-      <c r="B274" t="s">
-        <v>200</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>584</v>
-      </c>
-      <c r="E274" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275">
-        <v>13243</v>
-      </c>
-      <c r="B275" t="s">
-        <v>200</v>
-      </c>
-      <c r="C275">
-        <v>2</v>
-      </c>
-      <c r="D275">
-        <v>73</v>
-      </c>
-      <c r="E275" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276">
-        <v>13251</v>
-      </c>
-      <c r="B276" t="s">
-        <v>201</v>
-      </c>
-      <c r="C276">
-        <v>29</v>
-      </c>
-      <c r="D276">
-        <v>334.25</v>
-      </c>
-      <c r="E276" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277">
-        <v>13293</v>
-      </c>
-      <c r="B277" t="s">
-        <v>202</v>
-      </c>
-      <c r="C277">
-        <v>1</v>
-      </c>
-      <c r="D277">
-        <v>820</v>
-      </c>
-      <c r="E277" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278">
-        <v>13293</v>
-      </c>
-      <c r="B278" t="s">
-        <v>202</v>
-      </c>
-      <c r="C278">
-        <v>3</v>
-      </c>
-      <c r="D278">
-        <v>102.5</v>
-      </c>
-      <c r="E278" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279">
-        <v>13487</v>
-      </c>
-      <c r="B279" t="s">
-        <v>203</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-      <c r="D279">
-        <v>231.25</v>
-      </c>
-      <c r="E279" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280">
-        <v>13488</v>
-      </c>
-      <c r="B280" t="s">
-        <v>204</v>
-      </c>
-      <c r="C280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <v>234</v>
-      </c>
-      <c r="E280" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281">
-        <v>13598</v>
-      </c>
-      <c r="B281" t="s">
-        <v>205</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
-      </c>
-      <c r="D281">
-        <v>90.25</v>
-      </c>
-      <c r="E281" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282">
-        <v>13600</v>
-      </c>
-      <c r="B282" t="s">
-        <v>206</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>82.75</v>
-      </c>
-      <c r="E282" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283">
-        <v>13608</v>
-      </c>
-      <c r="B283" t="s">
-        <v>207</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>581.25</v>
-      </c>
-      <c r="E283" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284">
-        <v>14017</v>
-      </c>
-      <c r="B284" t="s">
-        <v>208</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284">
-        <v>1656</v>
-      </c>
-      <c r="E284" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285">
-        <v>14017</v>
-      </c>
-      <c r="B285" t="s">
-        <v>208</v>
-      </c>
-      <c r="C285">
-        <v>3</v>
-      </c>
-      <c r="D285">
-        <v>138</v>
-      </c>
-      <c r="E285" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286">
-        <v>14037</v>
-      </c>
-      <c r="B286" t="s">
-        <v>209</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <v>2040</v>
-      </c>
-      <c r="E286" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287">
-        <v>14037</v>
-      </c>
-      <c r="B287" t="s">
-        <v>209</v>
-      </c>
-      <c r="C287">
-        <v>3</v>
-      </c>
-      <c r="D287">
-        <v>85</v>
-      </c>
-      <c r="E287" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288">
-        <v>19685</v>
-      </c>
-      <c r="B288" t="s">
-        <v>210</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>848</v>
-      </c>
-      <c r="E288" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289">
-        <v>20196</v>
-      </c>
-      <c r="B289" t="s">
-        <v>211</v>
-      </c>
-      <c r="C289">
-        <v>2</v>
-      </c>
-      <c r="D289">
-        <v>103</v>
-      </c>
-      <c r="E289" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290">
-        <v>20252</v>
-      </c>
-      <c r="B290" t="s">
-        <v>212</v>
-      </c>
-      <c r="C290">
-        <v>2</v>
-      </c>
-      <c r="D290">
-        <v>335</v>
-      </c>
-      <c r="E290" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291">
-        <v>20927</v>
-      </c>
-      <c r="B291" t="s">
-        <v>213</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-      <c r="D291">
-        <v>377.5</v>
-      </c>
-      <c r="E291" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292">
-        <v>20978</v>
-      </c>
-      <c r="B292" t="s">
-        <v>214</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-      <c r="D292">
-        <v>739.25</v>
-      </c>
-      <c r="E292" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293">
-        <v>21010</v>
-      </c>
-      <c r="B293" t="s">
-        <v>215</v>
-      </c>
-      <c r="C293">
-        <v>2</v>
-      </c>
-      <c r="D293">
-        <v>99</v>
-      </c>
-      <c r="E293" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294">
-        <v>21779</v>
-      </c>
-      <c r="B294" t="s">
-        <v>216</v>
-      </c>
-      <c r="C294">
-        <v>2</v>
-      </c>
-      <c r="D294">
-        <v>414.5</v>
-      </c>
-      <c r="E294" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295">
-        <v>21798</v>
-      </c>
-      <c r="B295" t="s">
-        <v>217</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295">
-        <v>200</v>
-      </c>
-      <c r="E295" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296">
-        <v>22326</v>
-      </c>
-      <c r="B296" t="s">
-        <v>218</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-      <c r="D296">
-        <v>696.75</v>
-      </c>
-      <c r="E296" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297">
-        <v>22407</v>
-      </c>
-      <c r="B297" t="s">
-        <v>219</v>
-      </c>
-      <c r="C297">
-        <v>1</v>
-      </c>
-      <c r="D297">
-        <v>400.25</v>
-      </c>
-      <c r="E297" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298">
-        <v>22631</v>
-      </c>
-      <c r="B298" t="s">
-        <v>220</v>
-      </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-      <c r="D298">
-        <v>1944</v>
-      </c>
-      <c r="E298" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299">
-        <v>22631</v>
-      </c>
-      <c r="B299" t="s">
-        <v>220</v>
-      </c>
-      <c r="C299">
-        <v>3</v>
-      </c>
-      <c r="D299">
-        <v>40.5</v>
-      </c>
-      <c r="E299" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300">
-        <v>22634</v>
-      </c>
-      <c r="B300" t="s">
-        <v>221</v>
-      </c>
-      <c r="C300">
-        <v>2</v>
-      </c>
-      <c r="D300">
-        <v>186.75</v>
-      </c>
-      <c r="E300" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301">
-        <v>22634</v>
-      </c>
-      <c r="B301" t="s">
-        <v>221</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>2241</v>
-      </c>
-      <c r="E301" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302">
-        <v>23233</v>
-      </c>
-      <c r="B302" t="s">
-        <v>222</v>
-      </c>
-      <c r="C302">
-        <v>29</v>
-      </c>
-      <c r="D302">
-        <v>933.75</v>
-      </c>
-      <c r="E302" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303">
-        <v>23233</v>
-      </c>
-      <c r="B303" t="s">
-        <v>222</v>
-      </c>
-      <c r="C303">
-        <v>25</v>
-      </c>
-      <c r="D303">
-        <v>311.25</v>
-      </c>
-      <c r="E303" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304">
-        <v>23234</v>
-      </c>
-      <c r="B304" t="s">
-        <v>223</v>
-      </c>
-      <c r="C304">
-        <v>25</v>
-      </c>
-      <c r="D304">
-        <v>305.75</v>
-      </c>
-      <c r="E304" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305">
-        <v>23234</v>
-      </c>
-      <c r="B305" t="s">
-        <v>223</v>
-      </c>
-      <c r="C305">
-        <v>29</v>
-      </c>
-      <c r="D305">
-        <v>917.25</v>
-      </c>
-      <c r="E305" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306">
-        <v>23235</v>
-      </c>
-      <c r="B306" t="s">
-        <v>224</v>
-      </c>
-      <c r="C306">
-        <v>29</v>
-      </c>
-      <c r="D306">
-        <v>1048.5</v>
-      </c>
-      <c r="E306" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307">
-        <v>23235</v>
-      </c>
-      <c r="B307" t="s">
-        <v>224</v>
-      </c>
-      <c r="C307">
-        <v>25</v>
-      </c>
-      <c r="D307">
-        <v>349.5</v>
-      </c>
-      <c r="E307" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308">
-        <v>23239</v>
-      </c>
-      <c r="B308" t="s">
-        <v>225</v>
-      </c>
-      <c r="C308">
-        <v>29</v>
-      </c>
-      <c r="D308">
-        <v>769.5</v>
-      </c>
-      <c r="E308" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309">
-        <v>23239</v>
-      </c>
-      <c r="B309" t="s">
-        <v>225</v>
-      </c>
-      <c r="C309">
-        <v>25</v>
-      </c>
-      <c r="D309">
-        <v>384.75</v>
-      </c>
-      <c r="E309" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310">
-        <v>23380</v>
-      </c>
-      <c r="B310" t="s">
-        <v>226</v>
-      </c>
-      <c r="C310">
-        <v>25</v>
-      </c>
-      <c r="D310">
-        <v>303</v>
-      </c>
-      <c r="E310" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311">
-        <v>23380</v>
-      </c>
-      <c r="B311" t="s">
-        <v>226</v>
-      </c>
-      <c r="C311">
-        <v>29</v>
-      </c>
-      <c r="D311">
-        <v>909</v>
-      </c>
-      <c r="E311" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312">
-        <v>23527</v>
-      </c>
-      <c r="B312" t="s">
-        <v>227</v>
-      </c>
-      <c r="C312">
-        <v>1</v>
-      </c>
-      <c r="D312">
-        <v>425.75</v>
-      </c>
-      <c r="E312" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313">
-        <v>23528</v>
-      </c>
-      <c r="B313" t="s">
-        <v>228</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313">
-        <v>425.75</v>
-      </c>
-      <c r="E313" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314">
-        <v>23611</v>
-      </c>
-      <c r="B314" t="s">
-        <v>229</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>993</v>
-      </c>
-      <c r="E314" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315">
-        <v>23611</v>
-      </c>
-      <c r="B315" t="s">
-        <v>229</v>
-      </c>
-      <c r="C315">
-        <v>3</v>
-      </c>
-      <c r="D315">
-        <v>82.75</v>
-      </c>
-      <c r="E315" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316">
-        <v>23660</v>
-      </c>
-      <c r="B316" t="s">
-        <v>230</v>
-      </c>
-      <c r="C316">
-        <v>2</v>
-      </c>
-      <c r="D316">
-        <v>266</v>
-      </c>
-      <c r="E316" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317">
-        <v>23920</v>
-      </c>
-      <c r="B317" t="s">
-        <v>231</v>
-      </c>
-      <c r="C317">
-        <v>2</v>
-      </c>
-      <c r="D317">
-        <v>261</v>
-      </c>
-      <c r="E317" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318">
-        <v>23992</v>
-      </c>
-      <c r="B318" t="s">
-        <v>232</v>
-      </c>
-      <c r="C318">
-        <v>29</v>
-      </c>
-      <c r="D318">
-        <v>690</v>
-      </c>
-      <c r="E318" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319">
-        <v>23992</v>
-      </c>
-      <c r="B319" t="s">
-        <v>232</v>
-      </c>
-      <c r="C319">
-        <v>25</v>
-      </c>
-      <c r="D319">
-        <v>345</v>
-      </c>
-      <c r="E319" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320">
-        <v>24242</v>
-      </c>
-      <c r="B320" t="s">
-        <v>233</v>
-      </c>
-      <c r="C320">
-        <v>1</v>
-      </c>
-      <c r="D320">
-        <v>279</v>
-      </c>
-      <c r="E320" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321">
-        <v>24242</v>
-      </c>
-      <c r="B321" t="s">
-        <v>233</v>
-      </c>
-      <c r="C321">
-        <v>3</v>
-      </c>
-      <c r="D321">
-        <v>23.25</v>
-      </c>
-      <c r="E321" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322">
-        <v>24243</v>
-      </c>
-      <c r="B322" t="s">
-        <v>234</v>
-      </c>
-      <c r="C322">
-        <v>1</v>
-      </c>
-      <c r="D322">
-        <v>276</v>
-      </c>
-      <c r="E322" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323">
-        <v>24243</v>
-      </c>
-      <c r="B323" t="s">
-        <v>234</v>
-      </c>
-      <c r="C323">
-        <v>3</v>
-      </c>
-      <c r="D323">
-        <v>23</v>
-      </c>
-      <c r="E323" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324">
-        <v>24244</v>
-      </c>
-      <c r="B324" t="s">
-        <v>235</v>
-      </c>
-      <c r="C324">
-        <v>1</v>
-      </c>
-      <c r="D324">
-        <v>282</v>
-      </c>
-      <c r="E324" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325">
-        <v>24244</v>
-      </c>
-      <c r="B325" t="s">
-        <v>235</v>
-      </c>
-      <c r="C325">
-        <v>3</v>
-      </c>
-      <c r="D325">
-        <v>23.5</v>
-      </c>
-      <c r="E325" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326">
-        <v>24566</v>
-      </c>
-      <c r="B326" t="s">
-        <v>236</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326">
-        <v>97</v>
-      </c>
-      <c r="E326" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327">
-        <v>24669</v>
-      </c>
-      <c r="B327" t="s">
-        <v>237</v>
-      </c>
-      <c r="C327">
-        <v>1</v>
-      </c>
-      <c r="D327">
-        <v>960.25</v>
-      </c>
-      <c r="E327" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328">
-        <v>24727</v>
-      </c>
-      <c r="B328" t="s">
-        <v>238</v>
-      </c>
-      <c r="C328">
-        <v>2</v>
-      </c>
-      <c r="D328">
-        <v>450</v>
-      </c>
-      <c r="E328" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329">
-        <v>25278</v>
-      </c>
-      <c r="B329" t="s">
-        <v>239</v>
-      </c>
-      <c r="C329">
-        <v>2</v>
-      </c>
-      <c r="D329">
-        <v>104</v>
-      </c>
-      <c r="E329" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="160">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,76 +37,49 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون - 25 فتلة</t>
-  </si>
-  <si>
-    <t>فجيتار كنور عادى - 35 جم</t>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>تونة صن شاين مفتتة حار - 185 جم</t>
   </si>
   <si>
     <t>لبن بخيره - 500 مل</t>
   </si>
   <si>
-    <t>سفن اب ستار كانز - 320 مل</t>
-  </si>
-  <si>
     <t>عصير بيتى تفاح - 235 مل</t>
   </si>
   <si>
-    <t>عصير بيتى برتقال - 235 مل</t>
-  </si>
-  <si>
     <t>لبن نيدو اساسى ازرق ظرف - 25 جم</t>
   </si>
   <si>
-    <t>مرقة ماجى دجاج شريط - 8 جم</t>
-  </si>
-  <si>
-    <t>راني عصير خوخ حبيبات- 235 مل</t>
-  </si>
-  <si>
     <t>لبن جهينة مكس شوكولاتة - 200 مل</t>
   </si>
   <si>
-    <t>لبن جهينة كامل الدسم - 1 لتر</t>
-  </si>
-  <si>
-    <t>بيبسى كانز ستار - 320 مل</t>
-  </si>
-  <si>
-    <t>البوادي حلاوة- 130 جم</t>
-  </si>
-  <si>
-    <t>شويبس ليمون نعناع - 950 مل</t>
-  </si>
-  <si>
-    <t>لبن جهينة مكس موز - 200 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة جوافة - 1 لتر</t>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة برتقال - 1 لتر</t>
   </si>
   <si>
     <t>عصير جهينة برتقال - 235 مل</t>
   </si>
   <si>
+    <t>امريكانا بيفي بلوبيف - 340 جم</t>
+  </si>
+  <si>
     <t>بيبسى كانز جيب - 240 مل</t>
   </si>
   <si>
-    <t>ميرندا برتقال كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>زيت كريستال الممتاز خليط - 700 مل</t>
-  </si>
-  <si>
-    <t>سمنة قوت أصفر طعم الزبدة الصفراء - 1450 جرام</t>
-  </si>
-  <si>
-    <t>عصير جهينة عنب احمر - 235 مل</t>
-  </si>
-  <si>
-    <t>سفن اب الهضبة - 300 مل</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 900 مل</t>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>راني عصير مانجو حبيبات- 235 مل</t>
   </si>
   <si>
     <t>لبن جهينة كامل الدسم - 1.5 لتر</t>
@@ -115,136 +88,73 @@
     <t>بيبسى مينى تربو - 250 مل</t>
   </si>
   <si>
-    <t>مربى الرشيدى الميزان تين - 340 جم</t>
-  </si>
-  <si>
-    <t>سلايت زيت عباد الشمس- 2.1 لتر</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
-  </si>
-  <si>
-    <t>كنور خلطة بشاميل عرض خاص - 70 جم</t>
+    <t>طحينة الرشيدى الميزان - 500 جم</t>
+  </si>
+  <si>
+    <t>فول تدميس الضحى - 500 جم</t>
   </si>
   <si>
     <t>لبان كلورتس نعناع - 1.5 ج</t>
   </si>
   <si>
-    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
-  </si>
-  <si>
-    <t>صابون ريفولى - 110 جم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس جامبو مقاس 5  - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس جامبو مقاس 3 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>سفن اب - 2.43 لتر</t>
-  </si>
-  <si>
     <t>زيت حبوبة خليط - 700 مل</t>
   </si>
   <si>
-    <t>كوكا كولا - 1.45 لتر</t>
-  </si>
-  <si>
-    <t>نسكافيه 3*1 بندق 24 ظرف - 18 جم</t>
-  </si>
-  <si>
-    <t>اوكسي سائل أطباق ليمون اصفر - 600 جم</t>
-  </si>
-  <si>
-    <t>سائل اطباق وفير بلس ليمون اخضر - 4 كجم</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا مطبخ 2 طبقة - 2 رول</t>
+    <t>برسيل باور جل - 1 كجم</t>
   </si>
   <si>
     <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
   </si>
   <si>
-    <t>بسكويت اوريو اوريجينال فانيليا  5 قطع حجم جديد - 43.75 جم</t>
-  </si>
-  <si>
-    <t>كوفى بريك 2*1 - 11 جم</t>
-  </si>
-  <si>
-    <t>البوادى حلاوة سادة- 550 جم</t>
-  </si>
-  <si>
-    <t>طحينة البوادى - 480 جم</t>
-  </si>
-  <si>
     <t>صابون جوى عرض خاص  - 165 جم</t>
   </si>
   <si>
-    <t>حفاضات بامبرز عبوة التوفير مقاس 2 - 60 حفاضة</t>
-  </si>
-  <si>
-    <t>عدس حبوبة اصفر - 500 جم</t>
+    <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
+  </si>
+  <si>
+    <t>ريحانة قمح مبشور- 500 جم</t>
+  </si>
+  <si>
+    <t>ريحانة فريك- 500 جم</t>
   </si>
   <si>
     <t>شويبس جولد اناناس - 1.75 لتر</t>
   </si>
   <si>
-    <t>شويبس رمان - 1.75 لتر</t>
-  </si>
-  <si>
     <t>صانسيلك اكياس شامبو للشعر الاسود- 240 كيس 7 مل</t>
   </si>
   <si>
-    <t>صابون جوى عرض خاص - 110 جم</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>سبرايت - 2.45 لتر</t>
+    <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>شاى ليبتون  ناعم 10 عبوة - 100 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى اوريو - 35 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بندق - 50 جم</t>
   </si>
   <si>
     <t>كوكا كولا - 2.45 لتر</t>
   </si>
   <si>
-    <t>حلاوة الرشيدى الميزان - 130 جم</t>
-  </si>
-  <si>
-    <t>زيت كريستال عباد الشمس 6 زجاجة - 700 مل</t>
-  </si>
-  <si>
     <t>زيت كريستال عباد الشمس 4 زجاجة - 2.2 لتر</t>
   </si>
   <si>
-    <t>زيت كريستال ذرة 4 زجاجة - 2.2 لتر</t>
-  </si>
-  <si>
-    <t>زيت كريستال ذرة 6 زجاجة - 1.6 لتر</t>
-  </si>
-  <si>
-    <t>مارى بسكويت- 15 جنية</t>
-  </si>
-  <si>
-    <t>بسكويت جولى - 10 قطعه</t>
-  </si>
-  <si>
-    <t>بسكاتو بسكويت كريمة شيكولاتة- 60 جرام</t>
-  </si>
-  <si>
-    <t>هابي فروتس مصاصة 60 قطعة- 2 ج</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
+    <t>شوكولاتة جلاكسى سادة  - 30 جم</t>
+  </si>
+  <si>
+    <t>جبنة لا فاش كيرى اورجينال - 8 مثلث</t>
   </si>
   <si>
     <t>نسكافيه 2*1 بدون سكر 24 ظرف - 10 جم</t>
   </si>
   <si>
-    <t>جبنـة ابو الولد - 8 مثلث</t>
+    <t>حفاضات بى بم مقاس 3 - 32 حفاضة</t>
   </si>
   <si>
     <t>فانتا تفاح احمر ستار - 320 مل</t>
@@ -253,58 +163,43 @@
     <t>سبرايت - 0.95 لتر</t>
   </si>
   <si>
-    <t>بن عبد المعبود سادة وسط - 100 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 1 كجم</t>
+    <t>زينه مناديل جيب كلاسيك الوان - 12 باكت</t>
+  </si>
+  <si>
+    <t>رويال أعشاب نعناع - 20 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 6 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>كمفورت اكياس ازرق ندي الربيع عبوه التوفير 4*1- 400 مل</t>
   </si>
   <si>
     <t>سمن كريستال ابيض صفيحة - 4.25 كجم</t>
   </si>
   <si>
-    <t>مناديل فاميليا مطبخ كلاسيك 6 رول + 2 رول هدية - 8 رول</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى سميكة طويل جدا بالمسك عرض خاص - 14 فوطة</t>
-  </si>
-  <si>
-    <t>لبان تشكلتس نعناع - 0.5 جنية</t>
-  </si>
-  <si>
-    <t>جبنة ابو الولد - 40 مثلث</t>
-  </si>
-  <si>
-    <t>شويبس ليمون نعناع جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>شويبس رمان جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>شويبس جولد اناناس جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>جبنة رودس شيدر - 250 جم</t>
+    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>البوادي حلاوه سبريد ساده - 160 جم</t>
+  </si>
+  <si>
+    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية كايرو - 400 جم</t>
+  </si>
+  <si>
+    <t>مكرونة كايرو اسباجتى - 400 جم</t>
   </si>
   <si>
     <t>مكرونة كايرو خواتم 400 جم</t>
   </si>
   <si>
-    <t>مكرونة خطيرة خواتم - 280 جم</t>
-  </si>
-  <si>
-    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
-  </si>
-  <si>
-    <t>سندة زيت خليط - 700 مل</t>
-  </si>
-  <si>
-    <t>سندة زيت خليط - 900 مل</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس حديث الولادة مقاس 1 - 60 حفاضة</t>
+    <t>حفاضات جود كير مقاس 4 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
   </si>
   <si>
     <t>كوكاكولا اكشن - 300 مل</t>
@@ -313,25 +208,7 @@
     <t>سبرايت اكشن - 300 مل</t>
   </si>
   <si>
-    <t>جودكير مناديل جيب - 10 باكت</t>
-  </si>
-  <si>
-    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
-  </si>
-  <si>
-    <t>كلوركس الوان ظرف - 210 جم</t>
-  </si>
-  <si>
-    <t>زيت كريستال ذرة 6 زجاجة - 700 مل</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة خواتم - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة فرن - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة لسان عصفور - 350 جم</t>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
   </si>
   <si>
     <t>مكرونة بساطة مرمرية - 350 جم</t>
@@ -340,58 +217,52 @@
     <t>مكرونة بساطة هلالية - 350 جم</t>
   </si>
   <si>
-    <t>شاى العروسة -. 40 جم</t>
-  </si>
-  <si>
-    <t>شاى العروسة -..0 100 جم</t>
-  </si>
-  <si>
-    <t>سائل اطباق وفير بلس ليمون اصفر - 725 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>بسكويت ماندولين بالشوكولاتة و الكراميل- 34 جم</t>
-  </si>
-  <si>
-    <t>مشروب بودرة كادبورى شوكولاتة ساخنة ٣ فى ١ - 300 جم</t>
-  </si>
-  <si>
-    <t>فانتا برتقال اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>سفن اب 1.47 لتر</t>
-  </si>
-  <si>
-    <t>طحينة البوادى ظرف - 22 جرام</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر ظرف - 55 جم</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم جامبو بانتس مقاس 5 - 56 حفاضة</t>
-  </si>
-  <si>
-    <t>مولبد ماكسى مضغوطة طويل جدا 20 + 4 فوطة ميجا توفير - 24 فوطة</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى لافندر -+ 2 كجم</t>
+    <t>لبان ترايدنت بطيخ - 1.5 جنية</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق تفاح- 2 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل اطباق ليمون اخضر- 2 كجم</t>
+  </si>
+  <si>
+    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
+  </si>
+  <si>
+    <t>ماكسى كولا - 400 مل</t>
+  </si>
+  <si>
+    <t>ماكسى شعير اناناس - 400 مل</t>
+  </si>
+  <si>
+    <t>البوادي حلاوة بار  - 18 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض ظرف - 55 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم - 30 جم</t>
+  </si>
+  <si>
+    <t>كريم فيانسيه مغذى للشعر صبار و عسل 33% مجانا - 240 مل</t>
   </si>
   <si>
     <t>زيت حبوبة خليط - 1.8 لتر</t>
   </si>
   <si>
-    <t>عصير جهينة بيور برتقال - 235 مل</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
+    <t>كلوركس الوان باوش 5 جنيه - 100 جم</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل اوتوماتيك - 12 كجم</t>
+  </si>
+  <si>
+    <t>هيركود جيل سبوت  - 10 مل</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس مقشور صلصة الطماطم و زيت - 400 جم</t>
+  </si>
+  <si>
+    <t>كنور خلطه البرجر - 30 جم</t>
   </si>
   <si>
     <t>تونة دولفين جولد فصوص حار - 170 جم</t>
@@ -400,40 +271,49 @@
     <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
   </si>
   <si>
-    <t>امريكانا فول مدمس زيت و ليمون و كمون - 400 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى لافندر اوتوماتيك 8 ك + 1 ك - 9 كجم</t>
-  </si>
-  <si>
-    <t>بسكاتو دايجستا ميني لايت - 8 جنية</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
-  </si>
-  <si>
-    <t>اوكسى جل بلاك - 30 جم</t>
-  </si>
-  <si>
-    <t>اوكسى جل بلاك - 90 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى نسيم الربيع - 36 كيس 50 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة تفاح كمثرى - 235 مل</t>
-  </si>
-  <si>
-    <t>سمنة حبوبة نباتى صفراء برطمان - 600 جم</t>
-  </si>
-  <si>
-    <t>سائل اطباق وفير بلس ليمون اخضر - 40 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
+    <t>شاى الكبوس - 100 جرام</t>
+  </si>
+  <si>
+    <t>15% هارفست فول بزيت الزيتون خصم  - 400 جم</t>
+  </si>
+  <si>
+    <t>العبد كوكيز فانيليا بقطع الشكولاتة - 29 جنية</t>
+  </si>
+  <si>
+    <t>العبد كوكيز شكولاتة بقطع الشكولاتة - 29 جنية</t>
+  </si>
+  <si>
+    <t>العبد معمول محشو بالعجوة و القرفة - 9 جنية</t>
+  </si>
+  <si>
+    <t>فاين فودز مرقة دجاج 8 مكعب عرض (7+1) - 72 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة تربو بلاستيك - 400 مل</t>
+  </si>
+  <si>
+    <t>صابون لوكس سحر الاوركيد - 75 جم</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس فانيليا - 200 مل</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>مورو ماكس نوجا كراميل مغطي شكولاته- 50 جم</t>
+  </si>
+  <si>
+    <t>شويبس اناناس بلاستيك - 250 مل</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر - 250 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى بلاك 290 جم</t>
+  </si>
+  <si>
+    <t>باهي مسحوق يدوي بالافندر - 410 جم</t>
   </si>
   <si>
     <t>كل يوم عصير تفاح - 200 مل</t>
@@ -442,172 +322,172 @@
     <t>كل يوم عصير مانجو - 200 مل</t>
   </si>
   <si>
-    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
-  </si>
-  <si>
-    <t>زيت كريستال ذرة 6 زجاجة - 1 لتر</t>
+    <t>XXL مولتو شيكولاته بالبندق  - 10 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 6 قطع - 7 جنية</t>
   </si>
   <si>
     <t>زيت كريستال الممتاز خليط - 2.5 لتر</t>
   </si>
   <si>
-    <t>كنور خلطة المفروم عرض 50 % كمية اكثر  - 70 جم</t>
-  </si>
-  <si>
-    <t>سمنة الاصيل اصفر - 1450 جم</t>
-  </si>
-  <si>
-    <t>تيكا لبان تاتو - 1 جنية</t>
+    <t>شنايدر مشروب شعير تفاح - 385 مل</t>
+  </si>
+  <si>
+    <t>شنايدر مشروب شعير عنب - 385 مل</t>
+  </si>
+  <si>
+    <t>شنايدر مشروب شعير جوزهند - 385 مل</t>
+  </si>
+  <si>
+    <t>بسكويت كادبوري  شوكو ديلايت - 34 جم</t>
   </si>
   <si>
     <t>صابون دوش  - 60 جم</t>
   </si>
   <si>
-    <t>زيووو إكسترا كرانشى طماطم - 5 جنية</t>
+    <t>زيووو كرانشى الشطة الحار - 5 جنية</t>
   </si>
   <si>
     <t>زيووو كرانشى الجبنة - 5 جنية</t>
   </si>
   <si>
-    <t>زيووو شرائح كيرلي خضروات - 5 جنية</t>
-  </si>
-  <si>
     <t>زيووو شرائح كيرليى طماطم وريحان - 5 جنية</t>
   </si>
   <si>
-    <t>زيووو اراميش بافس جبنة - 5 جنية</t>
+    <t>زيووو شرائح كيرليى بيتزا - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى ليمون حلو - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو اراميش بافس فلفل حلو - 5 جنية</t>
   </si>
   <si>
     <t>زيووو اراميش بافس سجق - 5 جنية</t>
   </si>
   <si>
-    <t>جل باهى لافندر - 40 جم</t>
-  </si>
-  <si>
-    <t>بريكس مزيل بقع - 30 جم</t>
+    <t>بريكس متعدد الاغراض ليمون - 1 لتر</t>
   </si>
   <si>
     <t>بيك رولز ميكس جبن -حجم سوبر 10 جنية</t>
   </si>
   <si>
-    <t>كلوريل الوان بقوة الاكسجين احمر - 1 كجم</t>
-  </si>
-  <si>
-    <t>ماكسى كولا - 1 لتر</t>
-  </si>
-  <si>
-    <t>صابون دوش عرض خاص - 110 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 700 مل</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 550 مل</t>
-  </si>
-  <si>
-    <t>نسكافيه 3*1 شوت - 9 جم</t>
-  </si>
-  <si>
-    <t>هوهوز كيك الشوكولاتة الملفوف المحشو بكريمة الفانيلا والمغطي بالكاكاو 10 جنية</t>
-  </si>
-  <si>
-    <t>مكرونة مرمرية بساطة - 1 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة شعرية بساطة - 1 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة خواتم بساطة - 1 كجم</t>
+    <t>أد - مى باربيكيو 430 جم</t>
+  </si>
+  <si>
+    <t>جبنة ابو الولد كريمى سبريد كلاسيك 20 جنيه - 100 جم</t>
+  </si>
+  <si>
+    <t>تشو تشو أرنب أنرجي - 30 جم</t>
+  </si>
+  <si>
+    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>مولبد حماية ضد البكتريا طويل جدا 12 + 2 فوطة مجانا - 14 فوطة</t>
   </si>
   <si>
     <t>مكرونة فرن بساطة - 1 كجم</t>
   </si>
   <si>
-    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر - 400 جرام</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر - 2.5 كجم</t>
-  </si>
-  <si>
-    <t>يامى نودلز طعم الخضروات - 55 جرام</t>
-  </si>
-  <si>
-    <t>يامى نودلز طعم الدجاج - 55 جم</t>
-  </si>
-  <si>
-    <t>يامى نودلز طعم كارى الدجاج - 55 جم</t>
-  </si>
-  <si>
-    <t>مولفكس بريميوم جامبو اقتصادي مقاس 2 ميني- 58 حفاضة</t>
+    <t>بسكويت برتقال  250جرام - 18 قطعه</t>
+  </si>
+  <si>
+    <t>لبان كلورتس قطعة واحدة بيج بايت نعناع - 100 قطعه</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو كريمة بالشوكولاتة 8 قطع - 70 جم</t>
+  </si>
+  <si>
+    <t>بسكويت توك بالجبنة عرض 2+6 - 32 جرام</t>
   </si>
   <si>
     <t>دومتي جبنة فيتا بلس بسطرمة - 500 جم</t>
   </si>
   <si>
-    <t>دومتي جبنة فيتا بلس شيدر - 250 جم</t>
-  </si>
-  <si>
-    <t>كوكا كولا كانز اورجنال 10% زياده - 355 مل</t>
-  </si>
-  <si>
-    <t>زيووو شرائح بالت ليمون حلو - 65 جم</t>
-  </si>
-  <si>
-    <t>زيووو شرائح بالت خضروات - 65 جم</t>
-  </si>
-  <si>
-    <t>اريال اوتوماتيك مسحوق داوني -400 جم مجانا- 2.9 كجم</t>
-  </si>
-  <si>
-    <t>تويتش مشروب شعيرغازي  بطعم الخوخ - 330 مل</t>
-  </si>
-  <si>
-    <t>سولا باراديس طوفي - 28 قطعه</t>
-  </si>
-  <si>
-    <t>اوكسي يدوي 32 كيس - 50 جم</t>
-  </si>
-  <si>
-    <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
+    <t>برسيل جل بلاك - 40 جم</t>
+  </si>
+  <si>
+    <t>سولا زبدة - 120 قطعه</t>
+  </si>
+  <si>
+    <t>جبنة ديرى فيتا  - 250 جم</t>
+  </si>
+  <si>
+    <t>سولا زبدة - 15 قطعه</t>
+  </si>
+  <si>
+    <t>سولا قهوة شوت- 15 قطعه</t>
+  </si>
+  <si>
+    <t>جليد مالتي سبراي سحر الشرق - 460 مل</t>
+  </si>
+  <si>
+    <t>جليد مالتي سبراي توت - 460 مل</t>
+  </si>
+  <si>
+    <t>جبنة باندا فيتا 250 جرام</t>
   </si>
   <si>
     <t>مكرونة شعرية كايرو - 1 كجم</t>
   </si>
   <si>
-    <t>ماندولين ويفر كريمة الكاكاو ب 5ج - 16 جم</t>
-  </si>
-  <si>
-    <t>بونكس اوتوماتيك برائحة الفل - 9 كجم</t>
-  </si>
-  <si>
-    <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
-  </si>
-  <si>
-    <t>مولفيكس بانتس جامبو اقتصادي مقاس 5 - 56 حفاضة</t>
-  </si>
-  <si>
-    <t>مولفيكس بانتس  مقاس 6 كبير جدا 46 حفاضة</t>
-  </si>
-  <si>
-    <t>ماكسى كانز برتقال اورجينال - 300 مل</t>
-  </si>
-  <si>
-    <t>ماكسى كانز ليمون اورجينال - 300 مل</t>
+    <t>مكرونة كايرو مرمرية - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة كايرو خواتم - 1 كجم</t>
+  </si>
+  <si>
+    <t>بسكريم كوفى تايم بطعم الكراميل  - 10 جنية</t>
+  </si>
+  <si>
+    <t>كوكيز العبد فانيليا - 18 قطعه</t>
+  </si>
+  <si>
+    <t>علبة كوكيز ميكس - 18 قطعه</t>
+  </si>
+  <si>
+    <t>البوادي مربى كريمي تين - 365 جرام</t>
+  </si>
+  <si>
+    <t>مكفيتيز ﭼوى بطعم طوفى كراميل 6 قطعه</t>
+  </si>
+  <si>
+    <t>الشمعدان ميني تيبو بسكويت محشو بكريمة اللبن  - 6 قطعه</t>
+  </si>
+  <si>
+    <t>الرشيدي الميزان حلاوة سبريد - 150 جم</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>كيك تاوتاو تربو كاكاو بكريمة الفانيليا - 6 قطعة - 5 جنية</t>
   </si>
   <si>
     <t>كيك تاوتاو تربو محشو كريم الفانيليا ومربى الفراولة - 5 جنية</t>
   </si>
   <si>
+    <t>اندومى سوبر مى خضار - 5 جنيه - 56 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
+  </si>
+  <si>
     <t>المراعي جبنة فيتا -عرض الكل كسبان 250 جم</t>
   </si>
   <si>
-    <t>المراعي جبنة فيتا بالشيدر -عرض الكل كسبان 250 جم</t>
+    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
   </si>
   <si>
     <t>ماكسى ليمون نعناع - 1 لتر</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبوري ديرى ميلك بستاشيو - 35 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -971,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,7 +882,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1011,66 +891,66 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3708</v>
+        <v>582.5</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>25.75</v>
+        <v>2496</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>690</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1079,27 +959,27 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>490</v>
+        <v>1632</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>329</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1113,27 +993,27 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>186.5</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1141,38 +1021,38 @@
         <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>237.75</v>
+        <v>960</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>951</v>
+        <v>273.25</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1181,202 +1061,202 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>711</v>
+        <v>335</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>39.5</v>
+        <v>344.25</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>202</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>397.25</v>
+        <v>341.5</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>205</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>281.75</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>248</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>540</v>
+        <v>1254</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>319.75</v>
+        <v>52.25</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>22.5</v>
+        <v>298.5</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1080</v>
+        <v>298</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>378</v>
+        <v>563</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>134</v>
+        <v>413.75</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>411</v>
+        <v>950</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>273.5</v>
+        <v>498.75</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>416</v>
+        <v>1007</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>345</v>
+        <v>107.25</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>417</v>
+        <v>1054</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>189.5</v>
+        <v>91.75</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>434</v>
+        <v>1054</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1385,15 +1265,15 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>296</v>
+        <v>1101</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>436</v>
+        <v>1069</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1402,3265 +1282,3265 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>298</v>
+        <v>1015</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>448</v>
+        <v>1069</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>597.75</v>
+        <v>50.75</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>468</v>
+        <v>1163</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>534.25</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>523</v>
+        <v>1163</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>189.5</v>
+        <v>1760</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>566</v>
+        <v>1490</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>197.5</v>
+        <v>575.25</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>823</v>
+        <v>1560</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>739.5</v>
+        <v>458.25</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>950</v>
+        <v>1886</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>504.25</v>
+        <v>196.5</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1007</v>
+        <v>2188</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>1050</v>
+        <v>2188</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>262.75</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>1084</v>
+        <v>2225</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>688.75</v>
+        <v>48.75</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1124</v>
+        <v>2225</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>160</v>
+        <v>585</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>1139</v>
+        <v>2267</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>134.5</v>
+        <v>680</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1139</v>
+        <v>2267</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>807</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1163</v>
+        <v>2269</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>85</v>
+        <v>42.75</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1163</v>
+        <v>2269</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>1700</v>
+        <v>855</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1243</v>
+        <v>2327</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>299.25</v>
+        <v>203.5</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1309</v>
+        <v>2331</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>531</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1309</v>
+        <v>2336</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>44.25</v>
+        <v>1176</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1406</v>
+        <v>2336</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>355</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1406</v>
+        <v>2423</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>1065</v>
+        <v>780</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1432</v>
+        <v>2423</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D45">
-        <v>307.75</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1432</v>
+        <v>2436</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>923.25</v>
+        <v>245.5</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1446</v>
+        <v>2436</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>221</v>
+        <v>2946</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1490</v>
+        <v>2734</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>579</v>
+        <v>316.75</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1504</v>
+        <v>2734</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>175</v>
+        <v>3801</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1667</v>
+        <v>2736</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1620</v>
+        <v>6171</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1667</v>
+        <v>2736</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>135</v>
+        <v>514.25</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1668</v>
+        <v>2778</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>303.5</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1691</v>
+        <v>2879</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>325</v>
+        <v>769</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1701</v>
+        <v>3379</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>174</v>
+        <v>372.5</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1886</v>
+        <v>3379</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>194.25</v>
+        <v>4470</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1895</v>
+        <v>3421</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>93.25</v>
+        <v>2100</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1895</v>
+        <v>3421</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>746</v>
+        <v>52.5</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2049</v>
+        <v>3456</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>53</v>
+        <v>136.75</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2049</v>
+        <v>3456</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1272</v>
+        <v>1641</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2104</v>
+        <v>3549</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>1020</v>
+        <v>143.25</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2104</v>
+        <v>3549</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>85</v>
+        <v>573</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2105</v>
+        <v>3671</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>99</v>
+        <v>347.5</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2105</v>
+        <v>3674</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>1188</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2188</v>
+        <v>3840</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>36.25</v>
+        <v>168.5</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2188</v>
+        <v>3976</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>435</v>
+        <v>17.25</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>2287</v>
+        <v>3976</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C66">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>286.5</v>
+        <v>1242</v>
       </c>
       <c r="E66" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>2287</v>
+        <v>4232</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67">
         <v>29</v>
       </c>
       <c r="D67">
-        <v>859.5</v>
+        <v>991.25</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>2322</v>
+        <v>4232</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D68">
-        <v>273</v>
+        <v>198.25</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>2327</v>
+        <v>4866</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>202</v>
+        <v>362.75</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2328</v>
+        <v>4926</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>205</v>
+        <v>387.5</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>2331</v>
+        <v>5209</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>251</v>
+        <v>51.75</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>2438</v>
+        <v>5209</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>44.25</v>
+        <v>1552.5</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>2438</v>
+        <v>5340</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>531</v>
+        <v>26.5</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>2655</v>
+        <v>5340</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>2775</v>
+        <v>5452</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>195.75</v>
+        <v>201</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>2778</v>
+        <v>5849</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>210</v>
+        <v>186.75</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>2821</v>
+        <v>5851</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>534</v>
+        <v>186.75</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>2821</v>
+        <v>5854</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>22.25</v>
+        <v>176.75</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2878</v>
+        <v>6098</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D79">
-        <v>370</v>
+        <v>387.75</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2879</v>
+        <v>6098</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D80">
-        <v>777</v>
+        <v>775.5</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2916</v>
+        <v>6158</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>938.5</v>
+        <v>112.5</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2934</v>
+        <v>6935</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>1008.25</v>
+        <v>107.25</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2989</v>
+        <v>6936</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>503</v>
+        <v>105.25</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2989</v>
+        <v>7573</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>125.75</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2992</v>
+        <v>7707</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>825</v>
+        <v>163.5</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2992</v>
+        <v>7708</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>206.25</v>
+        <v>165.25</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>3024</v>
+        <v>8274</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>109.5</v>
+        <v>1650</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>3024</v>
+        <v>8274</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>328.5</v>
+        <v>82.5</v>
       </c>
       <c r="E88" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>3143</v>
+        <v>8360</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>589.5</v>
+        <v>269</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>3143</v>
+        <v>8361</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>98.25</v>
+        <v>269.5</v>
       </c>
       <c r="E90" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>3393</v>
+        <v>8635</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>202</v>
+        <v>82.5</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>3394</v>
+        <v>8635</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>202</v>
+        <v>1650</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>3456</v>
+        <v>8672</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>130.25</v>
+        <v>100.75</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>3456</v>
+        <v>8675</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>1563</v>
+        <v>100.75</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>3495</v>
+        <v>8945</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>1110</v>
+        <v>295.5</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>3495</v>
+        <v>8945</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>27.75</v>
+        <v>49.25</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>3671</v>
+        <v>9068</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>345</v>
+        <v>232.75</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>3674</v>
+        <v>9082</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>124.25</v>
+        <v>1800</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>4222</v>
+        <v>9082</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>549.75</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>4222</v>
+        <v>9150</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>6597</v>
+        <v>2445</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>4253</v>
+        <v>9150</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D101">
-        <v>169</v>
+        <v>40.75</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>4926</v>
+        <v>9150</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C102">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>385</v>
+        <v>244.5</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>4940</v>
+        <v>9358</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>242.5</v>
+        <v>503.25</v>
       </c>
       <c r="E103" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>5165</v>
+        <v>9372</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>74.5</v>
+        <v>117.75</v>
       </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>5165</v>
+        <v>9373</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>596</v>
+        <v>314.5</v>
       </c>
       <c r="E105" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>5208</v>
+        <v>9491</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1552.5</v>
+        <v>650</v>
       </c>
       <c r="E106" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>5208</v>
+        <v>9491</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D107">
-        <v>51.75</v>
+        <v>12.5</v>
       </c>
       <c r="E107" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>5243</v>
+        <v>9768</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>968</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>5243</v>
+        <v>9768</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>121</v>
+        <v>480</v>
       </c>
       <c r="E109" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>5490</v>
+        <v>9820</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>284.25</v>
+        <v>834</v>
       </c>
       <c r="E110" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>5491</v>
+        <v>9820</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>289</v>
+        <v>69.5</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>5493</v>
+        <v>9877</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>285.75</v>
+        <v>61.25</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>5729</v>
+        <v>9877</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>570</v>
+        <v>2940</v>
       </c>
       <c r="E113" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>5854</v>
+        <v>9877</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D114">
-        <v>179.75</v>
+        <v>1470</v>
       </c>
       <c r="E114" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>5866</v>
+        <v>9877</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D115">
-        <v>132.25</v>
+        <v>735</v>
       </c>
       <c r="E115" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>5976</v>
+        <v>9910</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D116">
-        <v>181</v>
+        <v>399.75</v>
       </c>
       <c r="E116" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>6494</v>
+        <v>9910</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D117">
-        <v>577.5</v>
+        <v>799.5</v>
       </c>
       <c r="E117" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>6496</v>
+        <v>10093</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>729.75</v>
+        <v>2115</v>
       </c>
       <c r="E118" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>6540</v>
+        <v>10093</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C119">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>755</v>
+        <v>35.25</v>
       </c>
       <c r="E119" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>6540</v>
+        <v>10450</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C120">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>377.5</v>
+        <v>17.25</v>
       </c>
       <c r="E120" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>6872</v>
+        <v>10450</v>
       </c>
       <c r="B121" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C121">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="E121" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>6872</v>
+        <v>10580</v>
       </c>
       <c r="B122" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C122">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>780</v>
+        <v>146.5</v>
       </c>
       <c r="E122" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>6935</v>
+        <v>10580</v>
       </c>
       <c r="B123" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>108</v>
+        <v>1758</v>
       </c>
       <c r="E123" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>6936</v>
+        <v>10581</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>105.75</v>
+        <v>149.5</v>
       </c>
       <c r="E124" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>6952</v>
+        <v>10581</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>155</v>
+        <v>1794</v>
       </c>
       <c r="E125" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>7004</v>
+        <v>10582</v>
       </c>
       <c r="B126" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>375</v>
+        <v>810</v>
       </c>
       <c r="E126" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>7036</v>
+        <v>10582</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>222.25</v>
+        <v>67.5</v>
       </c>
       <c r="E127" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>7324</v>
+        <v>11213</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>466</v>
+        <v>117</v>
       </c>
       <c r="E128" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>7703</v>
+        <v>11213</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>163</v>
+        <v>1404</v>
       </c>
       <c r="E129" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>7705</v>
+        <v>11234</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>165.25</v>
+        <v>162</v>
       </c>
       <c r="E130" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>7706</v>
+        <v>11427</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>163.25</v>
+        <v>474</v>
       </c>
       <c r="E131" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>7707</v>
+        <v>11427</v>
       </c>
       <c r="B132" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>163</v>
+        <v>59.25</v>
       </c>
       <c r="E132" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>7708</v>
+        <v>11489</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>163.5</v>
+        <v>273.5</v>
       </c>
       <c r="E133" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>7885</v>
+        <v>11587</v>
       </c>
       <c r="B134" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>205.75</v>
+        <v>77.25</v>
       </c>
       <c r="E134" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>7885</v>
+        <v>11610</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>2469</v>
+        <v>2166</v>
       </c>
       <c r="E135" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>7887</v>
+        <v>11610</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>207.75</v>
+        <v>180.5</v>
       </c>
       <c r="E136" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>7887</v>
+        <v>11681</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>2493</v>
+        <v>107.5</v>
       </c>
       <c r="E137" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>8600</v>
+        <v>11772</v>
       </c>
       <c r="B138" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>185.75</v>
+        <v>149.25</v>
       </c>
       <c r="E138" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>8659</v>
+        <v>11778</v>
       </c>
       <c r="B139" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>237.25</v>
+        <v>92.75</v>
       </c>
       <c r="E139" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>8677</v>
+        <v>11812</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>94.75</v>
+        <v>117.25</v>
       </c>
       <c r="E140" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>8677</v>
+        <v>11837</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>1137</v>
+        <v>120.25</v>
       </c>
       <c r="E141" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>8690</v>
+        <v>11838</v>
       </c>
       <c r="B142" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>84.75</v>
+        <v>118.25</v>
       </c>
       <c r="E142" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>8690</v>
+        <v>11848</v>
       </c>
       <c r="B143" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>2034</v>
+        <v>199.5</v>
       </c>
       <c r="E143" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>8853</v>
+        <v>11891</v>
       </c>
       <c r="B144" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>102.5</v>
+        <v>67.5</v>
       </c>
       <c r="E144" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>8915</v>
+        <v>11891</v>
       </c>
       <c r="B145" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>180.5</v>
+        <v>810</v>
       </c>
       <c r="E145" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>8938</v>
+        <v>11965</v>
       </c>
       <c r="B146" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>181.75</v>
+        <v>661.25</v>
       </c>
       <c r="E146" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>8943</v>
+        <v>12030</v>
       </c>
       <c r="B147" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="E147" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>8943</v>
+        <v>12032</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>73.5</v>
+        <v>100</v>
       </c>
       <c r="E148" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>9069</v>
+        <v>12033</v>
       </c>
       <c r="B149" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>227.75</v>
+        <v>100</v>
       </c>
       <c r="E149" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>9081</v>
+        <v>12059</v>
       </c>
       <c r="B150" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C150">
         <v>3</v>
       </c>
       <c r="D150">
-        <v>60.75</v>
+        <v>96.25</v>
       </c>
       <c r="E150" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>9081</v>
+        <v>12059</v>
       </c>
       <c r="B151" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1458</v>
+        <v>1540</v>
       </c>
       <c r="E151" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>9085</v>
+        <v>12304</v>
       </c>
       <c r="B152" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C152">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>930.75</v>
+        <v>258.25</v>
       </c>
       <c r="E152" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>9085</v>
+        <v>12344</v>
       </c>
       <c r="B153" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C153">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>310.25</v>
+        <v>47</v>
       </c>
       <c r="E153" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>9113</v>
+        <v>12345</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>198</v>
+        <v>49.25</v>
       </c>
       <c r="E154" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>9113</v>
+        <v>12347</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>792</v>
+        <v>47.75</v>
       </c>
       <c r="E155" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>9113</v>
+        <v>12348</v>
       </c>
       <c r="B156" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C156">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>66</v>
+        <v>47.5</v>
       </c>
       <c r="E156" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>9124</v>
+        <v>12349</v>
       </c>
       <c r="B157" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>412.5</v>
+        <v>48.75</v>
       </c>
       <c r="E157" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>9358</v>
+        <v>12352</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>489.5</v>
+        <v>49.25</v>
       </c>
       <c r="E158" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>9785</v>
+        <v>12353</v>
       </c>
       <c r="B159" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>372.5</v>
+        <v>48.75</v>
       </c>
       <c r="E159" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>9796</v>
+        <v>12506</v>
       </c>
       <c r="B160" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1428</v>
+        <v>683.75</v>
       </c>
       <c r="E160" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>9796</v>
+        <v>12563</v>
       </c>
       <c r="B161" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>29.75</v>
+        <v>206</v>
       </c>
       <c r="E161" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>9877</v>
+        <v>12595</v>
       </c>
       <c r="B162" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C162">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>738</v>
+        <v>475.25</v>
       </c>
       <c r="E162" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>9877</v>
+        <v>12992</v>
       </c>
       <c r="B163" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C163">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>1476</v>
+        <v>15.75</v>
       </c>
       <c r="E163" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>9877</v>
+        <v>12992</v>
       </c>
       <c r="B164" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>61.5</v>
+        <v>315</v>
       </c>
       <c r="E164" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>9877</v>
+        <v>13008</v>
       </c>
       <c r="B165" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2952</v>
+        <v>1068</v>
       </c>
       <c r="E165" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>9910</v>
+        <v>13008</v>
       </c>
       <c r="B166" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C166">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>807</v>
+        <v>178</v>
       </c>
       <c r="E166" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>9910</v>
+        <v>13028</v>
       </c>
       <c r="B167" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C167">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>403.5</v>
+        <v>205.25</v>
       </c>
       <c r="E167" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>9920</v>
+        <v>13244</v>
       </c>
       <c r="B168" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="E168" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>9920</v>
+        <v>13244</v>
       </c>
       <c r="B169" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>21.5</v>
+        <v>73</v>
       </c>
       <c r="E169" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>10174</v>
+        <v>13489</v>
       </c>
       <c r="B170" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>725.75</v>
+        <v>234.75</v>
       </c>
       <c r="E170" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>10588</v>
+        <v>13854</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>280</v>
+        <v>40.5</v>
       </c>
       <c r="E171" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>10588</v>
+        <v>13854</v>
       </c>
       <c r="B172" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>70</v>
+        <v>486</v>
       </c>
       <c r="E172" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>11158</v>
+        <v>14037</v>
       </c>
       <c r="B173" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>59</v>
+        <v>84.75</v>
       </c>
       <c r="E173" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>11160</v>
+        <v>14037</v>
       </c>
       <c r="B174" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>55</v>
+        <v>2034</v>
       </c>
       <c r="E174" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>11164</v>
+        <v>14039</v>
       </c>
       <c r="B175" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>70</v>
+        <v>810</v>
       </c>
       <c r="E175" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>11180</v>
+        <v>14039</v>
       </c>
       <c r="B176" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>326</v>
+        <v>101.25</v>
       </c>
       <c r="E176" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>11181</v>
+        <v>19972</v>
       </c>
       <c r="B177" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>83.75</v>
+        <v>72.5</v>
       </c>
       <c r="E177" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>11491</v>
+        <v>19972</v>
       </c>
       <c r="B178" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>209.25</v>
+        <v>580</v>
       </c>
       <c r="E178" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>11492</v>
+        <v>19989</v>
       </c>
       <c r="B179" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>312.25</v>
+        <v>452.5</v>
       </c>
       <c r="E179" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>11678</v>
+        <v>21060</v>
       </c>
       <c r="B180" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>65</v>
+        <v>87.25</v>
       </c>
       <c r="E180" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>11813</v>
+        <v>21474</v>
       </c>
       <c r="B181" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D181">
-        <v>90</v>
+        <v>79.75</v>
       </c>
       <c r="E181" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>11837</v>
+        <v>21474</v>
       </c>
       <c r="B182" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>122</v>
+        <v>957</v>
       </c>
       <c r="E182" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>11838</v>
+        <v>21783</v>
       </c>
       <c r="B183" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>116.75</v>
+        <v>352.5</v>
       </c>
       <c r="E183" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>11960</v>
+        <v>22037</v>
       </c>
       <c r="B184" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="E184" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>11960</v>
+        <v>22037</v>
       </c>
       <c r="B185" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D185">
-        <v>224</v>
+        <v>11.5</v>
       </c>
       <c r="E185" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>11962</v>
+        <v>22038</v>
       </c>
       <c r="B186" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D186">
-        <v>659</v>
+        <v>11.5</v>
       </c>
       <c r="E186" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>11965</v>
+        <v>22038</v>
       </c>
       <c r="B187" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>665.5</v>
+        <v>345</v>
       </c>
       <c r="E187" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>12010</v>
+        <v>22087</v>
       </c>
       <c r="B188" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>192.75</v>
+        <v>489</v>
       </c>
       <c r="E188" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>12010</v>
+        <v>22087</v>
       </c>
       <c r="B189" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D189">
-        <v>1156.5</v>
+        <v>40.75</v>
       </c>
       <c r="E189" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>12147</v>
+        <v>22088</v>
       </c>
       <c r="B190" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>744.5</v>
+        <v>489</v>
       </c>
       <c r="E190" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>12240</v>
+        <v>22088</v>
       </c>
       <c r="B191" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C191">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D191">
-        <v>109.5</v>
+        <v>40.75</v>
       </c>
       <c r="E191" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>12240</v>
+        <v>22125</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>1314</v>
+        <v>476.25</v>
       </c>
       <c r="E192" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>12304</v>
+        <v>22278</v>
       </c>
       <c r="B193" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>260.5</v>
+        <v>232.75</v>
       </c>
       <c r="E193" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>12343</v>
+        <v>22286</v>
       </c>
       <c r="B194" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>48.75</v>
+        <v>228</v>
       </c>
       <c r="E194" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>12345</v>
+        <v>22289</v>
       </c>
       <c r="B195" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>50.25</v>
+        <v>227.5</v>
       </c>
       <c r="E195" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>12346</v>
+        <v>22910</v>
       </c>
       <c r="B196" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>45.25</v>
+        <v>96.75</v>
       </c>
       <c r="E196" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>12347</v>
+        <v>22910</v>
       </c>
       <c r="B197" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>48.75</v>
+        <v>580.5</v>
       </c>
       <c r="E197" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>12350</v>
+        <v>23030</v>
       </c>
       <c r="B198" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>48.75</v>
+        <v>65.75</v>
       </c>
       <c r="E198" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>12353</v>
+        <v>23030</v>
       </c>
       <c r="B199" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>49.75</v>
+        <v>789</v>
       </c>
       <c r="E199" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>12373</v>
+        <v>23031</v>
       </c>
       <c r="B200" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>54.25</v>
+        <v>801</v>
       </c>
       <c r="E200" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>12503</v>
+        <v>23031</v>
       </c>
       <c r="B201" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>141</v>
+        <v>66.75</v>
       </c>
       <c r="E201" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>12563</v>
+        <v>23039</v>
       </c>
       <c r="B202" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="E202" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>12614</v>
+        <v>23039</v>
       </c>
       <c r="B203" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D203">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="E203" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>12721</v>
+        <v>23232</v>
       </c>
       <c r="B204" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>104</v>
+        <v>579</v>
       </c>
       <c r="E204" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>12764</v>
+        <v>23232</v>
       </c>
       <c r="B205" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>456</v>
+        <v>48.25</v>
       </c>
       <c r="E205" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>12764</v>
+        <v>23532</v>
       </c>
       <c r="B206" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E206" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>12924</v>
+        <v>23532</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>532.75</v>
+        <v>576</v>
       </c>
       <c r="E207" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>12925</v>
+        <v>23602</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>456</v>
+        <v>321</v>
       </c>
       <c r="E208" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>12964</v>
+        <v>23602</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D209">
-        <v>948</v>
+        <v>26.75</v>
       </c>
       <c r="E209" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>12964</v>
+        <v>24127</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C210">
         <v>3</v>
       </c>
       <c r="D210">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E210" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>13293</v>
+        <v>24127</v>
       </c>
       <c r="B211" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>794</v>
+        <v>1250</v>
       </c>
       <c r="E211" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>13293</v>
+        <v>24242</v>
       </c>
       <c r="B212" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>99.25</v>
+        <v>297</v>
       </c>
       <c r="E212" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>13485</v>
+        <v>24242</v>
       </c>
       <c r="B213" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>233.75</v>
+        <v>24.75</v>
       </c>
       <c r="E213" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>13486</v>
+        <v>24243</v>
       </c>
       <c r="B214" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D214">
-        <v>233.25</v>
+        <v>25.5</v>
       </c>
       <c r="E214" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>13487</v>
+        <v>24243</v>
       </c>
       <c r="B215" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>229.5</v>
+        <v>306</v>
       </c>
       <c r="E215" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>13489</v>
+        <v>24257</v>
       </c>
       <c r="B216" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>237</v>
+        <v>209.5</v>
       </c>
       <c r="E216" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>13598</v>
+        <v>24566</v>
       </c>
       <c r="B217" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4669,602 +4549,109 @@
         <v>90.25</v>
       </c>
       <c r="E217" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>13600</v>
+        <v>24567</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>82.75</v>
+        <v>89</v>
       </c>
       <c r="E218" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>13608</v>
+        <v>24722</v>
       </c>
       <c r="B219" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>581.25</v>
+        <v>505</v>
       </c>
       <c r="E219" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>19878</v>
+        <v>24724</v>
       </c>
       <c r="B220" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>145.25</v>
+        <v>509.25</v>
       </c>
       <c r="E220" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>19879</v>
+        <v>25278</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>144.5</v>
+        <v>105</v>
       </c>
       <c r="E221" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>19883</v>
+        <v>25341</v>
       </c>
       <c r="B222" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>147</v>
+        <v>365.5</v>
       </c>
       <c r="E222" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>19965</v>
+        <v>25341</v>
       </c>
       <c r="B223" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C223">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>253.25</v>
+        <v>4386</v>
       </c>
       <c r="E223" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224">
-        <v>19965</v>
-      </c>
-      <c r="B224" t="s">
-        <v>175</v>
-      </c>
-      <c r="C224">
-        <v>29</v>
-      </c>
-      <c r="D224">
-        <v>759.75</v>
-      </c>
-      <c r="E224" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225">
-        <v>19989</v>
-      </c>
-      <c r="B225" t="s">
-        <v>176</v>
-      </c>
-      <c r="C225">
-        <v>2</v>
-      </c>
-      <c r="D225">
-        <v>435.75</v>
-      </c>
-      <c r="E225" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226">
-        <v>19992</v>
-      </c>
-      <c r="B226" t="s">
-        <v>177</v>
-      </c>
-      <c r="C226">
-        <v>2</v>
-      </c>
-      <c r="D226">
-        <v>520.5</v>
-      </c>
-      <c r="E226" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227">
-        <v>20252</v>
-      </c>
-      <c r="B227" t="s">
-        <v>178</v>
-      </c>
-      <c r="C227">
-        <v>2</v>
-      </c>
-      <c r="D227">
-        <v>320</v>
-      </c>
-      <c r="E227" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228">
-        <v>20680</v>
-      </c>
-      <c r="B228" t="s">
-        <v>179</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>47.75</v>
-      </c>
-      <c r="E228" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229">
-        <v>20682</v>
-      </c>
-      <c r="B229" t="s">
-        <v>180</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>48.75</v>
-      </c>
-      <c r="E229" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230">
-        <v>20978</v>
-      </c>
-      <c r="B230" t="s">
-        <v>181</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>734.75</v>
-      </c>
-      <c r="E230" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231">
-        <v>21010</v>
-      </c>
-      <c r="B231" t="s">
-        <v>182</v>
-      </c>
-      <c r="C231">
-        <v>2</v>
-      </c>
-      <c r="D231">
-        <v>97</v>
-      </c>
-      <c r="E231" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232">
-        <v>21320</v>
-      </c>
-      <c r="B232" t="s">
-        <v>183</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>352.5</v>
-      </c>
-      <c r="E232" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233">
-        <v>21320</v>
-      </c>
-      <c r="B233" t="s">
-        <v>183</v>
-      </c>
-      <c r="C233">
-        <v>7</v>
-      </c>
-      <c r="D233">
-        <v>11.75</v>
-      </c>
-      <c r="E233" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234">
-        <v>21793</v>
-      </c>
-      <c r="B234" t="s">
-        <v>184</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <v>114.75</v>
-      </c>
-      <c r="E234" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235">
-        <v>21798</v>
-      </c>
-      <c r="B235" t="s">
-        <v>185</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <v>201.5</v>
-      </c>
-      <c r="E235" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236">
-        <v>22278</v>
-      </c>
-      <c r="B236" t="s">
-        <v>186</v>
-      </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>236.75</v>
-      </c>
-      <c r="E236" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237">
-        <v>22316</v>
-      </c>
-      <c r="B237" t="s">
-        <v>187</v>
-      </c>
-      <c r="C237">
-        <v>3</v>
-      </c>
-      <c r="D237">
-        <v>93</v>
-      </c>
-      <c r="E237" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238">
-        <v>22316</v>
-      </c>
-      <c r="B238" t="s">
-        <v>187</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238">
-        <v>1116</v>
-      </c>
-      <c r="E238" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239">
-        <v>22327</v>
-      </c>
-      <c r="B239" t="s">
-        <v>188</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <v>685.25</v>
-      </c>
-      <c r="E239" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240">
-        <v>23234</v>
-      </c>
-      <c r="B240" t="s">
-        <v>189</v>
-      </c>
-      <c r="C240">
-        <v>25</v>
-      </c>
-      <c r="D240">
-        <v>308</v>
-      </c>
-      <c r="E240" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241">
-        <v>23234</v>
-      </c>
-      <c r="B241" t="s">
-        <v>189</v>
-      </c>
-      <c r="C241">
-        <v>29</v>
-      </c>
-      <c r="D241">
-        <v>924</v>
-      </c>
-      <c r="E241" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242">
-        <v>23235</v>
-      </c>
-      <c r="B242" t="s">
-        <v>190</v>
-      </c>
-      <c r="C242">
-        <v>29</v>
-      </c>
-      <c r="D242">
-        <v>1054.5</v>
-      </c>
-      <c r="E242" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243">
-        <v>23235</v>
-      </c>
-      <c r="B243" t="s">
-        <v>190</v>
-      </c>
-      <c r="C243">
-        <v>25</v>
-      </c>
-      <c r="D243">
-        <v>351.5</v>
-      </c>
-      <c r="E243" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244">
-        <v>23380</v>
-      </c>
-      <c r="B244" t="s">
-        <v>191</v>
-      </c>
-      <c r="C244">
-        <v>29</v>
-      </c>
-      <c r="D244">
-        <v>940.5</v>
-      </c>
-      <c r="E244" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245">
-        <v>23380</v>
-      </c>
-      <c r="B245" t="s">
-        <v>191</v>
-      </c>
-      <c r="C245">
-        <v>25</v>
-      </c>
-      <c r="D245">
-        <v>313.5</v>
-      </c>
-      <c r="E245" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246">
-        <v>23661</v>
-      </c>
-      <c r="B246" t="s">
-        <v>192</v>
-      </c>
-      <c r="C246">
-        <v>2</v>
-      </c>
-      <c r="D246">
-        <v>253</v>
-      </c>
-      <c r="E246" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247">
-        <v>23662</v>
-      </c>
-      <c r="B247" t="s">
-        <v>193</v>
-      </c>
-      <c r="C247">
-        <v>2</v>
-      </c>
-      <c r="D247">
-        <v>253</v>
-      </c>
-      <c r="E247" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248">
-        <v>24243</v>
-      </c>
-      <c r="B248" t="s">
-        <v>194</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>300</v>
-      </c>
-      <c r="E248" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249">
-        <v>24243</v>
-      </c>
-      <c r="B249" t="s">
-        <v>194</v>
-      </c>
-      <c r="C249">
-        <v>3</v>
-      </c>
-      <c r="D249">
-        <v>25</v>
-      </c>
-      <c r="E249" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250">
-        <v>24722</v>
-      </c>
-      <c r="B250" t="s">
-        <v>195</v>
-      </c>
-      <c r="C250">
-        <v>2</v>
-      </c>
-      <c r="D250">
-        <v>509.25</v>
-      </c>
-      <c r="E250" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251">
-        <v>24723</v>
-      </c>
-      <c r="B251" t="s">
-        <v>196</v>
-      </c>
-      <c r="C251">
-        <v>2</v>
-      </c>
-      <c r="D251">
-        <v>505</v>
-      </c>
-      <c r="E251" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252">
-        <v>25278</v>
-      </c>
-      <c r="B252" t="s">
-        <v>197</v>
-      </c>
-      <c r="C252">
-        <v>2</v>
-      </c>
-      <c r="D252">
-        <v>104.5</v>
-      </c>
-      <c r="E252" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="172">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,499 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 3 - 58 حفاضة</t>
+    <t>زيت كريستال الممتاز خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+  </si>
+  <si>
+    <t>كوفى ميكس بونجورنو فى الخمسينة - 6 جم</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 - 18 جم</t>
+  </si>
+  <si>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>فجيتار كنور عادى - 35 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس شوكولاتة - 200 مل</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس فراولة - 200 مل</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 4 كجم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو لاتيه كلاسيك - 18 جم</t>
+  </si>
+  <si>
+    <t>عصير بيتى اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس موز - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بخيره تفاح - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير بخيره كوكتيل - 200 مل</t>
+  </si>
+  <si>
+    <t>بيبسى كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة عنب احمر - 235 مل</t>
+  </si>
+  <si>
+    <t>سلايت زيت عباد الشمس- 2.1 لتر</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطة بشاميل عرض خاص - 70 جم</t>
+  </si>
+  <si>
+    <t>لبان كلورتس نعناع - 1.5 ج</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 5  - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>تونة دولفين مفتتة بارد - 140 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق تفاح- 3 كجم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر بالنعناع- 600 جم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 520 جم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو اوريجينال فانيليا  5 قطع حجم جديد - 43.75 جم</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 480 جم</t>
+  </si>
+  <si>
+    <t>البوادى حلاوة سادة عائلى- 760 جم</t>
+  </si>
+  <si>
+    <t>صابون جوى عرض خاص  - 165 جم</t>
+  </si>
+  <si>
+    <t>كنور خلطة كفتة  عرض خاص- 35 جم</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون أخضر- 2.5 كجم</t>
+  </si>
+  <si>
+    <t>سبرايت - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 ريتش - 21 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>هيركود جيل ( الكرتونة 38 شريط )- 20 مل</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة - 5 جنية</t>
+  </si>
+  <si>
+    <t>نسكافيه 2*1 بدون سكر 24 ظرف - 10 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة كبير جدا مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>رويال أعشاب قرفة - 20 فتلة</t>
+  </si>
+  <si>
+    <t>رويال أعشاب كركديه - 50 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات موليفكس جامبو مقاس 2 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>جبنة ابو الـولد - 16 مثلث</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>شويبس رمان جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>مناديل بابيا جيب كلاسيك 3 طبقة - 10 باكت</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس حديث الولادة مقاس 1 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>جودكير مناديل جيب - 10 باكت</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو فانيليا - 14 جم</t>
+  </si>
+  <si>
+    <t>حلاوة البوادي - 970 جرام</t>
+  </si>
+  <si>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بانتس مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>ماكسى تفاح - 400 مل</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>كوكيز العبد بقطع الشوكولاتة فانليا - 10 جنية</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز بيبى دراى عبوة التوفير مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس - 5 لتر</t>
+  </si>
+  <si>
+    <t>فرسكا شوكو بار مغطى بالشوكولاتة- 3 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو اوريجينال بالكاكاو و الفانيليا 2 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>كلوركس الوان باوش 5 جنيه - 100 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال ابيض - 700 جم</t>
+  </si>
+  <si>
+    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>حبوبة خل - 500 مل</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس زيت و ليمون و كمون - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مصفى بالليمون المعصفر خصم 15% - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مقشور بالصلصه خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>15% هارفست فول بزيت الزيتون خصم  - 400 جم</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر فينجر كاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم ميجا مقاس 4 - 80 حفاضة</t>
+  </si>
+  <si>
+    <t>اندومى لحم بقرى - 44 كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اندومى خضار بالزيت عرض 44 كيس - 75 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل بلاك - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى نسيم الربيع - 36 كيس 50 جم</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء برطمان - 1300 جم</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 4 قطع - 5 جنية</t>
+  </si>
+  <si>
+    <t>شاور جيل سوبر كرنفال ورد الروز - 2 لتر</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 250 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير جوافة  - 200 مل</t>
+  </si>
+  <si>
+    <t>كل يوم عصير كوكتيل - 200 مل</t>
+  </si>
+  <si>
+    <t>كل يوم عصير تفاح - 200 مل</t>
+  </si>
+  <si>
+    <t>كل يوم عصير مانجو - 200 مل</t>
+  </si>
+  <si>
+    <t>XXL مولتو شيكولاته بالبندق  - 10 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 6 قطع - 7 جنية</t>
+  </si>
+  <si>
+    <t>سندة أرز رفيع- 1 كجم</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 6 زجاجة - 1 لتر</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم البرتقال - 250 مل</t>
+  </si>
+  <si>
+    <t>سمنة الاصيل اصفر - 750 جم</t>
+  </si>
+  <si>
+    <t>صابون دوش  - 60 جم</t>
+  </si>
+  <si>
+    <t>زيووو كرانشى الشطة الحار - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو كرانشى الجبنة - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرلي خضروات - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى طماطم وريحان - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى بيتزا - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى ليمون حلو - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو اراميش بافس جبنة - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو اراميش بافس سجق - 5 جنية</t>
+  </si>
+  <si>
+    <t>جل باهى لافندر - 40 جم</t>
+  </si>
+  <si>
+    <t>أريال يدوى داونى - 340 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 شوت - 9 جم</t>
+  </si>
+  <si>
+    <t>هوهوز كيك الشوكولاتة الملفوف المحشو بكريمة الفانيلا والمغطي بالكاكاو 10 جنية</t>
+  </si>
+  <si>
+    <t>اونيرو تي بكس بسكويت شاى سادة اوريجينال - 5 جنية</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة فرن بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت تاوتاو فانتوم كاكاو بكريمة الفانيليا 4 اكس - 5 جنية</t>
+  </si>
+  <si>
+    <t>فاتيكا زيت شعر جرجير خصم %10 - 45 مل</t>
+  </si>
+  <si>
+    <t>برسيل جل لافندر - 70 جم</t>
+  </si>
+  <si>
+    <t>زيووو شرائح بالت خضروات - 65 جم</t>
+  </si>
+  <si>
+    <t>ﺑﺎﻯ ﻻﻙ ﻭﻳﻔﺮ ﺑﺴﻜﻮﻳﺖ ﻛﺎﻛﺎﻭ ﺑﻜﺮﻳﻤﺔ ﺟﻮﺯ ﺍﻟﻬﻨﺪ - 5 جنية</t>
+  </si>
+  <si>
+    <t>سولا نعناع - 100 قطعه</t>
+  </si>
+  <si>
+    <t>باندا جورمية مثلثات - 8 قطعه</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي 32 كيس - 50 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
+  </si>
+  <si>
+    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية كايرو - 1 كجم</t>
+  </si>
+  <si>
+    <t>اوريو بسكوت بكريمة بطعم الشوكولاتة والبندق  - 43.75 جم</t>
+  </si>
+  <si>
+    <t>بونكس اوتوماتيك بلمسة الداوني - 9 كجم</t>
+  </si>
+  <si>
+    <t>بونجورنو  كوفي مزاجو ميكس 4*1 - 15 جرام</t>
+  </si>
+  <si>
+    <t>كيك لارش ميلت كاكاو بصوص الشيكولاتة 6 قطعه</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس  مقاس 6 كبير جدا 46 حفاضة</t>
+  </si>
+  <si>
+    <t>الرشيدي الميزان حلاوة - 960 جم</t>
+  </si>
+  <si>
+    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>بوريو بسكويت بالكاكاو والفانيليا 8+2 قطع 50 جرام</t>
+  </si>
+  <si>
+    <t>كيك تاوتاو تربو كاكاو بكريمة الفانيليا - 6 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>اندومى فراخ - 5 جنية 56 جم</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار - 5 جنيه - 56 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,70 +918,3861 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6540</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>375.5</v>
+        <v>851.25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>6540</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>751</v>
+        <v>578.25</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9996</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>635.25</v>
+        <v>600</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9996</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1692</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>70.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>864</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>133.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1599</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>206.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>50.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2412</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>720</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>189.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>192</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>186.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>189.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>274.25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>281.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>335</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>551.25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>270</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1664</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>198.25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>361</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>192</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>411</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>278</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>417</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>190.75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>419</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>131.25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>421</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>131.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>434</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>295</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>435</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>436</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>289</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>523</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>192.25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1084</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>710</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>156.75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>137.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>825</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1670</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>83.5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1406</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>351.75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1406</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1055.25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1413</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>564</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1413</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>282</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1413</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>23.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1413</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1128</v>
+      </c>
+      <c r="E48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1504</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>180</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1619</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>404</v>
+      </c>
+      <c r="E50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1728</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>290.25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1744</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>174.75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1895</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>1895</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>808</v>
+      </c>
+      <c r="E54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>2105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1188</v>
+      </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>697.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>116.25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>36.75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>441</v>
+      </c>
+      <c r="E60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2244</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>204.5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1227</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>2327</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2336</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>49.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2336</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2422</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>29</v>
+      </c>
+      <c r="D66">
+        <v>768.75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2422</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
         <v>80</v>
       </c>
-      <c r="D5">
-        <v>211.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="D67">
+        <v>153.75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2423</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68">
+        <v>768.75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2423</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69">
+        <v>80</v>
+      </c>
+      <c r="D69">
+        <v>153.75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2492</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>335.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2497</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>181</v>
+      </c>
+      <c r="E71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2703</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2796</v>
+      </c>
+      <c r="E72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>2703</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>116.5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>2774</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>183.75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>2778</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>210</v>
+      </c>
+      <c r="E75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>2854</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>959.5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>2854</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>25.25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>2879</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>799.75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>2916</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>927.25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>3104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>98.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>3456</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1647</v>
+      </c>
+      <c r="E81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>3456</v>
+      </c>
+      <c r="B82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>137.25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>3577</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83">
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <v>339.75</v>
+      </c>
+      <c r="E83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>3577</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84">
+        <v>29</v>
+      </c>
+      <c r="D84">
+        <v>1019.25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>3664</v>
+      </c>
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>54.25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>3934</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>51.75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>3987</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>3987</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1296</v>
+      </c>
+      <c r="E88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>4001</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1296</v>
+      </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>4001</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>4030</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>25</v>
+      </c>
+      <c r="D91">
+        <v>256.25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>4030</v>
+      </c>
+      <c r="B92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92">
+        <v>29</v>
+      </c>
+      <c r="D92">
+        <v>768.75</v>
+      </c>
+      <c r="E92" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>4063</v>
+      </c>
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>57.5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>4063</v>
+      </c>
+      <c r="B94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1840</v>
+      </c>
+      <c r="E94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>5209</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1605</v>
+      </c>
+      <c r="E95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>5209</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>53.5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>5452</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>202.5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>5490</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>282.25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>5491</v>
+      </c>
+      <c r="B99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>295.5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>5493</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>286.5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>5976</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>196</v>
+      </c>
+      <c r="E101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>6098</v>
+      </c>
+      <c r="B102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102">
+        <v>29</v>
+      </c>
+      <c r="D102">
+        <v>769</v>
+      </c>
+      <c r="E102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>6098</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103">
+        <v>80</v>
+      </c>
+      <c r="D103">
+        <v>384.5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>6872</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104">
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <v>264</v>
+      </c>
+      <c r="E104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>6872</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105">
+        <v>29</v>
+      </c>
+      <c r="D105">
+        <v>792</v>
+      </c>
+      <c r="E105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>6935</v>
+      </c>
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>105.75</v>
+      </c>
+      <c r="E106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>6952</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>158</v>
+      </c>
+      <c r="E107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>7004</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>375</v>
+      </c>
+      <c r="E108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>7119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1672</v>
+      </c>
+      <c r="E109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>7119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>104.5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>7457</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>814.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>7457</v>
+      </c>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>135.75</v>
+      </c>
+      <c r="E112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>7573</v>
+      </c>
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>78.5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>8155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>353.25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>8155</v>
+      </c>
+      <c r="B115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>1059.75</v>
+      </c>
+      <c r="E115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>8673</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>102</v>
+      </c>
+      <c r="E116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>8688</v>
+      </c>
+      <c r="B117" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1177.5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>8688</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>78.5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>8897</v>
+      </c>
+      <c r="B119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1194</v>
+      </c>
+      <c r="E119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>8897</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>99.5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>8907</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121">
+        <v>29</v>
+      </c>
+      <c r="D121">
+        <v>951.75</v>
+      </c>
+      <c r="E121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>8907</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122">
+        <v>25</v>
+      </c>
+      <c r="D122">
+        <v>317.25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>8915</v>
+      </c>
+      <c r="B123" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>185</v>
+      </c>
+      <c r="E123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>9070</v>
+      </c>
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>891.5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>9083</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>729</v>
+      </c>
+      <c r="E125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>9083</v>
+      </c>
+      <c r="B126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>60.75</v>
+      </c>
+      <c r="E126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>9204</v>
+      </c>
+      <c r="B127" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>380</v>
+      </c>
+      <c r="E127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>9204</v>
+      </c>
+      <c r="B128" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>47.5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>9372</v>
+      </c>
+      <c r="B129" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>117.75</v>
+      </c>
+      <c r="E129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>9608</v>
+      </c>
+      <c r="B130" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>451.75</v>
+      </c>
+      <c r="E130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>9760</v>
+      </c>
+      <c r="B131" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131">
+        <v>29</v>
+      </c>
+      <c r="D131">
+        <v>402.5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>9796</v>
+      </c>
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>30</v>
+      </c>
+      <c r="E132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>9796</v>
+      </c>
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1440</v>
+      </c>
+      <c r="E133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>9854</v>
+      </c>
+      <c r="B134" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>156.5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>9920</v>
+      </c>
+      <c r="B135" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>21.25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>9920</v>
+      </c>
+      <c r="B136" t="s">
+        <v>100</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>510</v>
+      </c>
+      <c r="E136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>10447</v>
+      </c>
+      <c r="B137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>204</v>
+      </c>
+      <c r="E137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>10447</v>
+      </c>
+      <c r="B138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>17</v>
+      </c>
+      <c r="E138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>10448</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>17.75</v>
+      </c>
+      <c r="E139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>10448</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>213</v>
+      </c>
+      <c r="E140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>10450</v>
+      </c>
+      <c r="B141" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>204</v>
+      </c>
+      <c r="E141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>10450</v>
+      </c>
+      <c r="B142" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>17</v>
+      </c>
+      <c r="E142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>10516</v>
+      </c>
+      <c r="B143" t="s">
+        <v>104</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>49.5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>10516</v>
+      </c>
+      <c r="B144" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>594</v>
+      </c>
+      <c r="E144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>10529</v>
+      </c>
+      <c r="B145" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <v>703</v>
+      </c>
+      <c r="E145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>10529</v>
+      </c>
+      <c r="B146" t="s">
+        <v>105</v>
+      </c>
+      <c r="C146">
+        <v>80</v>
+      </c>
+      <c r="D146">
+        <v>351.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>11090</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>361.25</v>
+      </c>
+      <c r="E147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>11091</v>
+      </c>
+      <c r="B148" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>361.5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>11158</v>
+      </c>
+      <c r="B149" t="s">
+        <v>108</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>62.5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>11160</v>
+      </c>
+      <c r="B150" t="s">
+        <v>109</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>60</v>
+      </c>
+      <c r="E150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>11181</v>
+      </c>
+      <c r="B151" t="s">
+        <v>110</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>88.25</v>
+      </c>
+      <c r="E151" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>11493</v>
+      </c>
+      <c r="B152" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>666.5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>11510</v>
+      </c>
+      <c r="B153" t="s">
+        <v>112</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>49</v>
+      </c>
+      <c r="E153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>11510</v>
+      </c>
+      <c r="B154" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>588</v>
+      </c>
+      <c r="E154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>11634</v>
+      </c>
+      <c r="B155" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>315.25</v>
+      </c>
+      <c r="E155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>11772</v>
+      </c>
+      <c r="B156" t="s">
+        <v>114</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>138</v>
+      </c>
+      <c r="E156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>11813</v>
+      </c>
+      <c r="B157" t="s">
+        <v>115</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>94.5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>11835</v>
+      </c>
+      <c r="B158" t="s">
+        <v>116</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>123.75</v>
+      </c>
+      <c r="E158" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>11836</v>
+      </c>
+      <c r="B159" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>117.5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>11837</v>
+      </c>
+      <c r="B160" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>123</v>
+      </c>
+      <c r="E160" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>11838</v>
+      </c>
+      <c r="B161" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>121.75</v>
+      </c>
+      <c r="E161" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>11848</v>
+      </c>
+      <c r="B162" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>197.5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>11891</v>
+      </c>
+      <c r="B163" t="s">
+        <v>121</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>11891</v>
+      </c>
+      <c r="B164" t="s">
+        <v>121</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>792</v>
+      </c>
+      <c r="E164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>11894</v>
+      </c>
+      <c r="B165" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>235</v>
+      </c>
+      <c r="E165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>11961</v>
+      </c>
+      <c r="B166" t="s">
+        <v>123</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>527.75</v>
+      </c>
+      <c r="E166" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>12057</v>
+      </c>
+      <c r="B167" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>53.75</v>
+      </c>
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>12146</v>
+      </c>
+      <c r="B168" t="s">
+        <v>125</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>404</v>
+      </c>
+      <c r="E168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>12304</v>
+      </c>
+      <c r="B169" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>302.75</v>
+      </c>
+      <c r="E169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>12344</v>
+      </c>
+      <c r="B170" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>47.75</v>
+      </c>
+      <c r="E170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>12345</v>
+      </c>
+      <c r="B171" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>49.25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>12346</v>
+      </c>
+      <c r="B172" t="s">
+        <v>129</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>49.25</v>
+      </c>
+      <c r="E172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>12347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>46.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>12348</v>
+      </c>
+      <c r="B174" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>49</v>
+      </c>
+      <c r="E174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>12349</v>
+      </c>
+      <c r="B175" t="s">
+        <v>132</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>48.75</v>
+      </c>
+      <c r="E175" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>12350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>133</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>48.75</v>
+      </c>
+      <c r="E176" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>12353</v>
+      </c>
+      <c r="B177" t="s">
+        <v>134</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>48.75</v>
+      </c>
+      <c r="E177" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>12373</v>
+      </c>
+      <c r="B178" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>54.5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>12653</v>
+      </c>
+      <c r="B179" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>134.75</v>
+      </c>
+      <c r="E179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>12925</v>
+      </c>
+      <c r="B180" t="s">
+        <v>137</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>460.25</v>
+      </c>
+      <c r="E180" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>12964</v>
+      </c>
+      <c r="B181" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>840</v>
+      </c>
+      <c r="E181" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>12964</v>
+      </c>
+      <c r="B182" t="s">
+        <v>138</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>70</v>
+      </c>
+      <c r="E182" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>13293</v>
+      </c>
+      <c r="B183" t="s">
+        <v>139</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>101.25</v>
+      </c>
+      <c r="E183" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>13293</v>
+      </c>
+      <c r="B184" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>810</v>
+      </c>
+      <c r="E184" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>13300</v>
+      </c>
+      <c r="B185" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>48</v>
+      </c>
+      <c r="E185" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>13300</v>
+      </c>
+      <c r="B186" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>576</v>
+      </c>
+      <c r="E186" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>13488</v>
+      </c>
+      <c r="B187" t="s">
+        <v>141</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>232</v>
+      </c>
+      <c r="E187" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>13489</v>
+      </c>
+      <c r="B188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>246</v>
+      </c>
+      <c r="E188" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>13498</v>
+      </c>
+      <c r="B189" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>50.5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>13498</v>
+      </c>
+      <c r="B190" t="s">
+        <v>143</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>606</v>
+      </c>
+      <c r="E190" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>19334</v>
+      </c>
+      <c r="B191" t="s">
+        <v>144</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>700</v>
+      </c>
+      <c r="E191" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>19334</v>
+      </c>
+      <c r="B192" t="s">
+        <v>144</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>43.75</v>
+      </c>
+      <c r="E192" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>19931</v>
+      </c>
+      <c r="B193" t="s">
+        <v>145</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>69</v>
+      </c>
+      <c r="E193" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>20682</v>
+      </c>
+      <c r="B194" t="s">
+        <v>146</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>48.75</v>
+      </c>
+      <c r="E194" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>20966</v>
+      </c>
+      <c r="B195" t="s">
+        <v>147</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>609</v>
+      </c>
+      <c r="E195" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>20966</v>
+      </c>
+      <c r="B196" t="s">
+        <v>147</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>50.75</v>
+      </c>
+      <c r="E196" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>21482</v>
+      </c>
+      <c r="B197" t="s">
+        <v>148</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <v>40</v>
+      </c>
+      <c r="E197" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>21482</v>
+      </c>
+      <c r="B198" t="s">
+        <v>148</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>480</v>
+      </c>
+      <c r="E198" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>21706</v>
+      </c>
+      <c r="B199" t="s">
+        <v>149</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>981</v>
+      </c>
+      <c r="E199" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>21706</v>
+      </c>
+      <c r="B200" t="s">
+        <v>149</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>27.25</v>
+      </c>
+      <c r="E200" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>21793</v>
+      </c>
+      <c r="B201" t="s">
+        <v>150</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>124.75</v>
+      </c>
+      <c r="E201" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>21798</v>
+      </c>
+      <c r="B202" t="s">
+        <v>151</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>225</v>
+      </c>
+      <c r="E202" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>21946</v>
+      </c>
+      <c r="B203" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>360.75</v>
+      </c>
+      <c r="E203" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>22278</v>
+      </c>
+      <c r="B204" t="s">
+        <v>153</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>230.75</v>
+      </c>
+      <c r="E204" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>22318</v>
+      </c>
+      <c r="B205" t="s">
+        <v>154</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>808</v>
+      </c>
+      <c r="E205" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>22318</v>
+      </c>
+      <c r="B206" t="s">
+        <v>154</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>101</v>
+      </c>
+      <c r="E206" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>22361</v>
+      </c>
+      <c r="B207" t="s">
+        <v>155</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>806</v>
+      </c>
+      <c r="E207" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>22558</v>
+      </c>
+      <c r="B208" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>60</v>
+      </c>
+      <c r="E208" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>22558</v>
+      </c>
+      <c r="B209" t="s">
+        <v>156</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1440</v>
+      </c>
+      <c r="E209" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>22565</v>
+      </c>
+      <c r="B210" t="s">
+        <v>157</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>597</v>
+      </c>
+      <c r="E210" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>22565</v>
+      </c>
+      <c r="B211" t="s">
+        <v>157</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>49.75</v>
+      </c>
+      <c r="E211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>23234</v>
+      </c>
+      <c r="B212" t="s">
+        <v>158</v>
+      </c>
+      <c r="C212">
+        <v>29</v>
+      </c>
+      <c r="D212">
+        <v>906</v>
+      </c>
+      <c r="E212" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>23234</v>
+      </c>
+      <c r="B213" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213">
+        <v>25</v>
+      </c>
+      <c r="D213">
+        <v>302</v>
+      </c>
+      <c r="E213" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>23380</v>
+      </c>
+      <c r="B214" t="s">
+        <v>159</v>
+      </c>
+      <c r="C214">
+        <v>29</v>
+      </c>
+      <c r="D214">
+        <v>918</v>
+      </c>
+      <c r="E214" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>23380</v>
+      </c>
+      <c r="B215" t="s">
+        <v>159</v>
+      </c>
+      <c r="C215">
+        <v>25</v>
+      </c>
+      <c r="D215">
+        <v>306</v>
+      </c>
+      <c r="E215" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>23598</v>
+      </c>
+      <c r="B216" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>760.5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>23598</v>
+      </c>
+      <c r="B217" t="s">
+        <v>160</v>
+      </c>
+      <c r="C217">
+        <v>10</v>
+      </c>
+      <c r="D217">
+        <v>126.75</v>
+      </c>
+      <c r="E217" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>23660</v>
+      </c>
+      <c r="B218" t="s">
+        <v>161</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>315</v>
+      </c>
+      <c r="E218" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>23662</v>
+      </c>
+      <c r="B219" t="s">
+        <v>162</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>258.5</v>
+      </c>
+      <c r="E219" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>24120</v>
+      </c>
+      <c r="B220" t="s">
+        <v>163</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>368</v>
+      </c>
+      <c r="E220" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>24120</v>
+      </c>
+      <c r="B221" t="s">
+        <v>163</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>46</v>
+      </c>
+      <c r="E221" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>24242</v>
+      </c>
+      <c r="B222" t="s">
+        <v>164</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>294</v>
+      </c>
+      <c r="E222" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>24242</v>
+      </c>
+      <c r="B223" t="s">
+        <v>164</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>24.5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>24256</v>
+      </c>
+      <c r="B224" t="s">
+        <v>165</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>208.5</v>
+      </c>
+      <c r="E224" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>24257</v>
+      </c>
+      <c r="B225" t="s">
+        <v>166</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>209.5</v>
+      </c>
+      <c r="E225" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>24566</v>
+      </c>
+      <c r="B226" t="s">
+        <v>167</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>89</v>
+      </c>
+      <c r="E226" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>24567</v>
+      </c>
+      <c r="B227" t="s">
+        <v>168</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>92.5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>24724</v>
+      </c>
+      <c r="B228" t="s">
+        <v>169</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>527.25</v>
+      </c>
+      <c r="E228" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="189">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,58 +37,550 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
+    <t>زيت كريستال الممتاز خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>كوفى ميكس بونجورنو فى الخمسينة - 6 جم</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 - 18 جم</t>
+  </si>
+  <si>
+    <t>حبوبة خل- 900 مل</t>
+  </si>
+  <si>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون  ناعم  - 40 جم</t>
+  </si>
+  <si>
+    <t>كنور مرقة دجاج 12 مكعب عبوة اقتصادية- 108 جم</t>
+  </si>
+  <si>
+    <t>كنور فيجيتار حار - 35 جم</t>
+  </si>
+  <si>
+    <t>عصير بيتى جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة فاتح - 100 جم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو لاتيه كلاسيك - 18 جم</t>
+  </si>
+  <si>
+    <t>عصير بيتى اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع - 950 مل</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس موز - 200 مل</t>
+  </si>
+  <si>
+    <t>امريكانا بيفي بلوبيف - 340 جم</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطة بشاميل- 70 جم</t>
+  </si>
+  <si>
+    <t>زيت كريستال الممتاز خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>سبرايت جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>فانتا برتقال جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 900 مل</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان سبريد شوكولاتة - 300 جم</t>
+  </si>
+  <si>
+    <t>المراعي لبن موز (وفر جنية)- 200 مل</t>
   </si>
   <si>
     <t>ستينج فراولة زجاج - 275 مل</t>
   </si>
   <si>
+    <t>لبان كلورتس نعناع - 1.5 ج</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 5  - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس ماكسى جامبو مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اخضر- 600 جم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق تفاح- 3 كجم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ 2 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>صابون جوى عرض خاص  - 165 جم</t>
+  </si>
+  <si>
+    <t>اولويز ماكسى سميكة فردى ملمس قطنى طويل - 8 فوطة</t>
+  </si>
+  <si>
+    <t>اولويز ماكسى سميكة طويل جدا نعومة قطنية - 7 فوطة</t>
+  </si>
+  <si>
+    <t>فول حبوبة تدميس - 500 جم</t>
+  </si>
+  <si>
     <t>شويبس رمان - 1.75 لتر</t>
   </si>
   <si>
-    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل نعناع - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى سميكة طويل جدا بالمسك عرض خاص - 14 فوطة</t>
-  </si>
-  <si>
-    <t>كلوركس جل زهور - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان - 750 مل</t>
+    <t>صانسيلك اكياس شامبو للشعر الاسود- 240 كيس 7 مل</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس بالنعناع صغير - 1.5 ج</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس بالفراولة صغير - 1.5 ج</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 2 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون أخضر- 2.5 كجم</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 ريتش - 21 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال - 1.45 لتر</t>
+  </si>
+  <si>
+    <t>سبرايت - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس 4 زجاجة - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 5 كجم</t>
+  </si>
+  <si>
+    <t>نسكافيه 2*1 بدون سكر 24 ظرف - 10 جم</t>
+  </si>
+  <si>
+    <t>صلصة هاينز - 360 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة كبير جدا مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>سبرايت - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>موني حفاضات مقاس 4- 40 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>رويال أعشاب نعناع - 50 فتلة</t>
+  </si>
+  <si>
+    <t>حفاضات موليفكس جامبو مقاس 2 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس نعناع - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>البوادي حلاوه سبريد ساده - 160 جم</t>
+  </si>
+  <si>
+    <t>البوادي حلاوه سبريد شيكولاته بالبندق- 300 جم</t>
+  </si>
+  <si>
+    <t>مولتو ميني شوكولاتة بالبندق قطع أكبر - 10 جنية</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كنور خلطه 11 بهار - 6 جم</t>
+  </si>
+  <si>
+    <t>مكرونة كايرو خواتم 400 جم</t>
+  </si>
+  <si>
+    <t>شامية صلصة طماطم صفيح - 800 جم</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 4 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>بن عبد المعبود سادة فاتح سوفت - 25 جم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس حديث الولادة مقاس 1 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>جودكير مناديل جيب - 10 باكت</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو فانيليا - 14 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو موكا 12 ظرف - 14 جم</t>
+  </si>
+  <si>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 950 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كولا - 400 مل</t>
+  </si>
+  <si>
+    <t>ماكسى شعير اناناس - 400 مل</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>مشروب بودرة كادبورى شوكولاتة ساخنة ٣ فى ١ - 300 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>زيت كريستال عباد الشمس - 5 لتر</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 1.8 لتر</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز الكبير - 14 جم</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز اسكويزى دوى باك - 125 جم</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس مقشور صلصة الطماطم و زيت - 400 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
+  </si>
+  <si>
+    <t>حبوبة خل - 500 مل</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس زيت و ليمون و كمون - 400 جم</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 3.875 كجم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس - 100 جرام</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 2 كجم</t>
+  </si>
+  <si>
+    <t>اريال يدوى بلمسه داونى - 2 كجم</t>
+  </si>
+  <si>
+    <t>مناديل زينة فاليو مطبخ 5 + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر فينجر كاكاو - 10 جنية</t>
+  </si>
+  <si>
+    <t>البيلا وفيرشيكولاته محشو بكريمة البندق - أولكر 5 جنية</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم ميجا مقاس 5 - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 6 - 46 حفاضة</t>
+  </si>
+  <si>
+    <t>هيركود جيل سبوت 25مل + 8 مل ( 32% )  مجانا - 33 مل</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل بلاك - 30 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل بلاك - 90 جم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى بلاك - 50 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة تربو بلاستيك - 400 مل</t>
+  </si>
+  <si>
+    <t>شاور جيل سوبر كرنفال ورد الروز - 2 لتر</t>
+  </si>
+  <si>
+    <t>شويبس اناناس بلاستيك - 250 مل</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 330 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 250 جم</t>
+  </si>
+  <si>
+    <t>باهي مسحوق يدوي بالافندر - 410 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير كوكتيل - 200 مل</t>
+  </si>
+  <si>
+    <t>كل يوم عصير مانجو - 200 مل</t>
+  </si>
+  <si>
+    <t>XXL مولتو شيكولاته بالبندق  - 10 جنية</t>
+  </si>
+  <si>
+    <t>صابون لوكس سحر الاوركيد - 165 جم</t>
+  </si>
+  <si>
+    <t>سندة أرز رفيع- 1 كجم</t>
+  </si>
+  <si>
+    <t>فرست وان بطعم الشعير و الاناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>قوت سمنة ظرف طعم الزبدة الصفراء - 55 جم</t>
+  </si>
+  <si>
+    <t>شاى ناعم  الورده - 40 جم</t>
+  </si>
+  <si>
+    <t>صابون دوش  - 60 جم</t>
+  </si>
+  <si>
+    <t>زيووو إكسترا كرانشى طماطم - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو كرانشى الجبنة - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى بيتزا - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو اراميش بافس جبنة - 5 جنية</t>
+  </si>
+  <si>
+    <t>زيووو اراميش بافس سجق - 5 جنية</t>
+  </si>
+  <si>
+    <t>جل باهى لافندر - 40 جم</t>
+  </si>
+  <si>
+    <t>سبيد مسلك بالوعات حبيبات - 300 جم</t>
+  </si>
+  <si>
+    <t>أريال يدوى داونى - 340 جم</t>
+  </si>
+  <si>
+    <t>-أريال يدوى داونى 1.5 كجم</t>
+  </si>
+  <si>
+    <t>حبوبة نشا - 240 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>ارز ثمرات عريض - 1 كجم</t>
+  </si>
+  <si>
+    <t>نسكافيه 3*1 شوت - 9 جم</t>
+  </si>
+  <si>
+    <t>ويفر تاوتاو كليك كاكاو - 5 جنية</t>
+  </si>
+  <si>
+    <t>مكرونة شعرية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة خواتم بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>كمارا مصاصة طعم الفواكه محشو لبان - 50 قطعه</t>
+  </si>
+  <si>
+    <t>شوكولاتة مورو نوجا بالكراميل - حجم جديد - 25 جرام</t>
+  </si>
+  <si>
+    <t>فاتيكا زيت شعر جرجير خصم %10 - 45 مل</t>
+  </si>
+  <si>
+    <t>مولفكس بريميوم جامبو اقتصادي مقاس 2 ميني- 58 حفاضة</t>
+  </si>
+  <si>
+    <t>دومتي جبنة فيتا بلس بسطرمة - 500 جم</t>
+  </si>
+  <si>
+    <t>زيووو شرائح بالت خضروات - 65 جم</t>
+  </si>
+  <si>
+    <t>سولا اكليركراميل محشو شكولاته - 12 قطعه</t>
+  </si>
+  <si>
+    <t>سولا نعناع - 100 قطعه</t>
+  </si>
+  <si>
+    <t>سولا نعناع - 240 قطعه</t>
+  </si>
+  <si>
+    <t>باندا جورمية مثلثات - 8 قطعه</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي مسحوق 24 كيس - 110 جم</t>
+  </si>
+  <si>
+    <t>اوريو بسكوت بكريمة بطعم الشوكولاتة والبندق  - 43.75 جم</t>
+  </si>
+  <si>
+    <t>بونكس اوتوماتيك برائحة الفل - 9 كجم</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس جامبو اقتصادي مقاس 5 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس  مقاس 6 كبير جدا 46 حفاضة</t>
+  </si>
+  <si>
+    <t>الرشيدي الميزان حلاوة سبريد شوكولاتة - 150 جم</t>
+  </si>
+  <si>
+    <t>ماكسى كانز كولا اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز برتقال اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>ماكسى كانز ليمون اورجينال - 300 مل</t>
+  </si>
+  <si>
+    <t>مكرونة كايرو اسباجيتى - 1 كجم</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
+  </si>
+  <si>
+    <t>كمارا شوكولاته تابلت حشو مربي توت - 10 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
+  </si>
+  <si>
+    <t>سميليز شوكو ميكس - 24 قطعه</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
+  </si>
+  <si>
+    <t>شوكولاتة ديرى ميلك بابلي اوريو - 27 جم</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -446,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +969,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>382</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -486,316 +978,4532 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>182</v>
+        <v>845.75</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1124</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>592.5</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2328</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>201</v>
+        <v>38.5</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2655</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>203</v>
+        <v>924</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2669</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>509</v>
+        <v>1680</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2670</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>447</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2912</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>600</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2912</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>3386</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>323</v>
+        <v>51.25</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>3387</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>211</v>
+        <v>2460</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>3390</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>267</v>
+        <v>2970</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3393</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>203</v>
+        <v>247.5</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>3394</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>203</v>
+        <v>1120</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>3395</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>3399</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>507</v>
+        <v>678</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>5165</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>600</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>5165</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>6946</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>509</v>
+        <v>6699</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>10254</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>558.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>248</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>553.75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>270</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1648</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>307</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>143.25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>411</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>475</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>275.75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>424</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>424</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1272</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>435</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>289</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>436</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>440</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>915</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>440</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>152.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>606</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>616</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>300.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>624</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>291.75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>823</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>722.25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>962</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>55.75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>962</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>669</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>263.25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1700</v>
+      </c>
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>305</v>
+      </c>
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1406</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1054.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1406</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>351.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1407</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>315</v>
+      </c>
+      <c r="E46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1407</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>945</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1432</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>945</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1432</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>315</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1548</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>305</v>
+      </c>
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1619</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>387.75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1701</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>177.75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1886</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>192</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>2188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>35.75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>2188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>429</v>
+      </c>
+      <c r="E55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>364</v>
+      </c>
+      <c r="E56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2216</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2216</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>22.75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2217</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>186</v>
+      </c>
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2217</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>23.25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2217</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>372</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>2217</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2324</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>184.25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2328</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>211.25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2331</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>244.5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2368</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1690</v>
+      </c>
+      <c r="E67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2368</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>84.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2369</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>83.5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2369</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1670</v>
+      </c>
+      <c r="E70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2421</v>
+      </c>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71">
+        <v>80</v>
+      </c>
+      <c r="D71">
+        <v>134.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2421</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72">
+        <v>29</v>
+      </c>
+      <c r="D72">
+        <v>672.5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>2422</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>153.75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>2422</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>768.75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>2423</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75">
+        <v>29</v>
+      </c>
+      <c r="D75">
+        <v>768.75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>2423</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76">
+        <v>80</v>
+      </c>
+      <c r="D76">
+        <v>153.75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>2492</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>342.25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>2703</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>2490</v>
+      </c>
+      <c r="E78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>2703</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>103.75</v>
+      </c>
+      <c r="E79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>2774</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>177.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>2775</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>213</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>2778</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>223.5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>2879</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>799.75</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>3258</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>146</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>3258</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>730</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>3456</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>134.75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>3456</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1617</v>
+      </c>
+      <c r="E87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>3478</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>381</v>
+      </c>
+      <c r="E88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>3577</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>336.25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>3577</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>1008.75</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>3664</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>54.25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>3670</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>130</v>
+      </c>
+      <c r="E92" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>3674</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>126</v>
+      </c>
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>3722</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94">
+        <v>29</v>
+      </c>
+      <c r="D94">
+        <v>747.5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>3722</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <v>149.5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>3896</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96">
+        <v>29</v>
+      </c>
+      <c r="D96">
+        <v>957.75</v>
+      </c>
+      <c r="E96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>3896</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>319.25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>3979</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>36.5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>3979</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1314</v>
+      </c>
+      <c r="E99" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>4030</v>
+      </c>
+      <c r="B100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100">
+        <v>29</v>
+      </c>
+      <c r="D100">
+        <v>768.75</v>
+      </c>
+      <c r="E100" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>4030</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>256.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>5208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1552.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>5208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>51.75</v>
+      </c>
+      <c r="E103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>5209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>54</v>
+      </c>
+      <c r="E104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>5209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1620</v>
+      </c>
+      <c r="E105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>5340</v>
+      </c>
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106">
+        <v>23</v>
+      </c>
+      <c r="D106">
+        <v>27.25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>5340</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>327</v>
+      </c>
+      <c r="E107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>5343</v>
+      </c>
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108">
+        <v>23</v>
+      </c>
+      <c r="D108">
+        <v>55.75</v>
+      </c>
+      <c r="E108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>5343</v>
+      </c>
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109">
+        <v>15</v>
+      </c>
+      <c r="D109">
+        <v>167.25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>5343</v>
+      </c>
+      <c r="B110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>669</v>
+      </c>
+      <c r="E110" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>5343</v>
+      </c>
+      <c r="B111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>334.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>5452</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>208.25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>5493</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>296.5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>5585</v>
+      </c>
+      <c r="B114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>114.75</v>
+      </c>
+      <c r="E114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>5585</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1147.5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>5854</v>
+      </c>
+      <c r="B116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>186.5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>6085</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>265.5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>6085</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118">
+        <v>11</v>
+      </c>
+      <c r="D118">
+        <v>44.25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>6098</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119">
+        <v>80</v>
+      </c>
+      <c r="D119">
+        <v>379</v>
+      </c>
+      <c r="E119" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>6098</v>
+      </c>
+      <c r="B120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120">
+        <v>29</v>
+      </c>
+      <c r="D120">
+        <v>758</v>
+      </c>
+      <c r="E120" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>6540</v>
+      </c>
+      <c r="B121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>375.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>6540</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122">
+        <v>29</v>
+      </c>
+      <c r="D122">
+        <v>751</v>
+      </c>
+      <c r="E122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>6628</v>
+      </c>
+      <c r="B123" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1653</v>
+      </c>
+      <c r="E123" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>6628</v>
+      </c>
+      <c r="B124" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>275.5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>6872</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>270</v>
+      </c>
+      <c r="E125" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>6872</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126">
+        <v>29</v>
+      </c>
+      <c r="D126">
+        <v>810</v>
+      </c>
+      <c r="E126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>6935</v>
+      </c>
+      <c r="B127" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>105.75</v>
+      </c>
+      <c r="E127" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>6936</v>
+      </c>
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>106</v>
+      </c>
+      <c r="E128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>6952</v>
+      </c>
+      <c r="B129" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>153.25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>7119</v>
+      </c>
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1676</v>
+      </c>
+      <c r="E130" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>7119</v>
+      </c>
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>104.75</v>
+      </c>
+      <c r="E131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>7122</v>
+      </c>
+      <c r="B132" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>106.5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>7122</v>
+      </c>
+      <c r="B133" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1704</v>
+      </c>
+      <c r="E133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>7573</v>
+      </c>
+      <c r="B134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>81</v>
+      </c>
+      <c r="E134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>8216</v>
+      </c>
+      <c r="B135" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>348</v>
+      </c>
+      <c r="E135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>8216</v>
+      </c>
+      <c r="B136" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>14.5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>8635</v>
+      </c>
+      <c r="B137" t="s">
+        <v>92</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1700</v>
+      </c>
+      <c r="E137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>8635</v>
+      </c>
+      <c r="B138" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>85</v>
+      </c>
+      <c r="E138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>8648</v>
+      </c>
+      <c r="B139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>150</v>
+      </c>
+      <c r="E139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>8672</v>
+      </c>
+      <c r="B140" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>102</v>
+      </c>
+      <c r="E140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>8675</v>
+      </c>
+      <c r="B141" t="s">
+        <v>95</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>101.75</v>
+      </c>
+      <c r="E141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>8688</v>
+      </c>
+      <c r="B142" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1170</v>
+      </c>
+      <c r="E142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>8688</v>
+      </c>
+      <c r="B143" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143">
+        <v>14</v>
+      </c>
+      <c r="D143">
+        <v>78</v>
+      </c>
+      <c r="E143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>8690</v>
+      </c>
+      <c r="B144" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>79.75</v>
+      </c>
+      <c r="E144" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>8690</v>
+      </c>
+      <c r="B145" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1914</v>
+      </c>
+      <c r="E145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>8853</v>
+      </c>
+      <c r="B146" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>107.25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>8915</v>
+      </c>
+      <c r="B147" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>187.75</v>
+      </c>
+      <c r="E147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>9070</v>
+      </c>
+      <c r="B148" t="s">
+        <v>100</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>868.5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>9088</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149">
+        <v>29</v>
+      </c>
+      <c r="D149">
+        <v>774.75</v>
+      </c>
+      <c r="E149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>9088</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150">
+        <v>25</v>
+      </c>
+      <c r="D150">
+        <v>258.25</v>
+      </c>
+      <c r="E150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>9358</v>
+      </c>
+      <c r="B151" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>504.75</v>
+      </c>
+      <c r="E151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>9507</v>
+      </c>
+      <c r="B152" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>150</v>
+      </c>
+      <c r="E152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>9507</v>
+      </c>
+      <c r="B153" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>900</v>
+      </c>
+      <c r="E153" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>9690</v>
+      </c>
+      <c r="B154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>379</v>
+      </c>
+      <c r="E154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>9768</v>
+      </c>
+      <c r="B155" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>486</v>
+      </c>
+      <c r="E155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>9768</v>
+      </c>
+      <c r="B156" t="s">
+        <v>105</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>20.25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>9797</v>
+      </c>
+      <c r="B157" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1452</v>
+      </c>
+      <c r="E157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>9797</v>
+      </c>
+      <c r="B158" t="s">
+        <v>106</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>30.25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>9854</v>
+      </c>
+      <c r="B159" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>161.25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>9910</v>
+      </c>
+      <c r="B160" t="s">
+        <v>108</v>
+      </c>
+      <c r="C160">
+        <v>29</v>
+      </c>
+      <c r="D160">
+        <v>792</v>
+      </c>
+      <c r="E160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>9910</v>
+      </c>
+      <c r="B161" t="s">
+        <v>108</v>
+      </c>
+      <c r="C161">
+        <v>25</v>
+      </c>
+      <c r="D161">
+        <v>396</v>
+      </c>
+      <c r="E161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>9920</v>
+      </c>
+      <c r="B162" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <v>21.5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>9920</v>
+      </c>
+      <c r="B163" t="s">
+        <v>109</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>516</v>
+      </c>
+      <c r="E163" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>9960</v>
+      </c>
+      <c r="B164" t="s">
+        <v>110</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>412.5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>9960</v>
+      </c>
+      <c r="B165" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>825</v>
+      </c>
+      <c r="E165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>10093</v>
+      </c>
+      <c r="B166" t="s">
+        <v>111</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>2115</v>
+      </c>
+      <c r="E166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>10093</v>
+      </c>
+      <c r="B167" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>35.25</v>
+      </c>
+      <c r="E167" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>10124</v>
+      </c>
+      <c r="B168" t="s">
+        <v>112</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>274</v>
+      </c>
+      <c r="E168" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>10147</v>
+      </c>
+      <c r="B169" t="s">
+        <v>113</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>440.5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>10176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>114</v>
+      </c>
+      <c r="C170">
+        <v>29</v>
+      </c>
+      <c r="D170">
+        <v>211.5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>10516</v>
+      </c>
+      <c r="B171" t="s">
+        <v>115</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>48</v>
+      </c>
+      <c r="E171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>10516</v>
+      </c>
+      <c r="B172" t="s">
+        <v>115</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>576</v>
+      </c>
+      <c r="E172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>10521</v>
+      </c>
+      <c r="B173" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>47.25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>10521</v>
+      </c>
+      <c r="B174" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>567</v>
+      </c>
+      <c r="E174" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>10530</v>
+      </c>
+      <c r="B175" t="s">
+        <v>117</v>
+      </c>
+      <c r="C175">
+        <v>29</v>
+      </c>
+      <c r="D175">
+        <v>756.5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>10530</v>
+      </c>
+      <c r="B176" t="s">
+        <v>117</v>
+      </c>
+      <c r="C176">
+        <v>80</v>
+      </c>
+      <c r="D176">
+        <v>378.25</v>
+      </c>
+      <c r="E176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>10721</v>
+      </c>
+      <c r="B177" t="s">
+        <v>118</v>
+      </c>
+      <c r="C177">
+        <v>80</v>
+      </c>
+      <c r="D177">
+        <v>284.75</v>
+      </c>
+      <c r="E177" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>10721</v>
+      </c>
+      <c r="B178" t="s">
+        <v>118</v>
+      </c>
+      <c r="C178">
+        <v>29</v>
+      </c>
+      <c r="D178">
+        <v>854.25</v>
+      </c>
+      <c r="E178" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>10825</v>
+      </c>
+      <c r="B179" t="s">
+        <v>119</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1512</v>
+      </c>
+      <c r="E179" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>10825</v>
+      </c>
+      <c r="B180" t="s">
+        <v>119</v>
+      </c>
+      <c r="C180">
+        <v>21</v>
+      </c>
+      <c r="D180">
+        <v>42</v>
+      </c>
+      <c r="E180" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>11158</v>
+      </c>
+      <c r="B181" t="s">
+        <v>120</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>58.75</v>
+      </c>
+      <c r="E181" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>11160</v>
+      </c>
+      <c r="B182" t="s">
+        <v>121</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>59.75</v>
+      </c>
+      <c r="E182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>11164</v>
+      </c>
+      <c r="B183" t="s">
+        <v>122</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>75</v>
+      </c>
+      <c r="E183" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>11183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>123</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>79.5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>11234</v>
+      </c>
+      <c r="B185" t="s">
+        <v>124</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>161</v>
+      </c>
+      <c r="E185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>11634</v>
+      </c>
+      <c r="B186" t="s">
+        <v>125</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>311.25</v>
+      </c>
+      <c r="E186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>11681</v>
+      </c>
+      <c r="B187" t="s">
+        <v>126</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>108.5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>11767</v>
+      </c>
+      <c r="B188" t="s">
+        <v>127</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>175.5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>11772</v>
+      </c>
+      <c r="B189" t="s">
+        <v>128</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>149.75</v>
+      </c>
+      <c r="E189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>11812</v>
+      </c>
+      <c r="B190" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>120.25</v>
+      </c>
+      <c r="E190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>11813</v>
+      </c>
+      <c r="B191" t="s">
+        <v>130</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>92.25</v>
+      </c>
+      <c r="E191" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>11836</v>
+      </c>
+      <c r="B192" t="s">
+        <v>131</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>120.5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>11838</v>
+      </c>
+      <c r="B193" t="s">
+        <v>132</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>118.25</v>
+      </c>
+      <c r="E193" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>11848</v>
+      </c>
+      <c r="B194" t="s">
+        <v>133</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>197.25</v>
+      </c>
+      <c r="E194" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>11886</v>
+      </c>
+      <c r="B195" t="s">
+        <v>134</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>150</v>
+      </c>
+      <c r="E195" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>11886</v>
+      </c>
+      <c r="B196" t="s">
+        <v>134</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1200</v>
+      </c>
+      <c r="E196" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>11894</v>
+      </c>
+      <c r="B197" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>239.75</v>
+      </c>
+      <c r="E197" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>12054</v>
+      </c>
+      <c r="B198" t="s">
+        <v>136</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>55.25</v>
+      </c>
+      <c r="E198" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>12139</v>
+      </c>
+      <c r="B199" t="s">
+        <v>137</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>217.75</v>
+      </c>
+      <c r="E199" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>12294</v>
+      </c>
+      <c r="B200" t="s">
+        <v>138</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>184</v>
+      </c>
+      <c r="E200" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>12294</v>
+      </c>
+      <c r="B201" t="s">
+        <v>138</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>2208</v>
+      </c>
+      <c r="E201" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>12304</v>
+      </c>
+      <c r="B202" t="s">
+        <v>139</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>300</v>
+      </c>
+      <c r="E202" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>12343</v>
+      </c>
+      <c r="B203" t="s">
+        <v>140</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>47.25</v>
+      </c>
+      <c r="E203" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>12345</v>
+      </c>
+      <c r="B204" t="s">
+        <v>141</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>48.75</v>
+      </c>
+      <c r="E204" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>12348</v>
+      </c>
+      <c r="B205" t="s">
+        <v>142</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>49.25</v>
+      </c>
+      <c r="E205" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>12350</v>
+      </c>
+      <c r="B206" t="s">
+        <v>143</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>48.75</v>
+      </c>
+      <c r="E206" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>12353</v>
+      </c>
+      <c r="B207" t="s">
+        <v>144</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>49.75</v>
+      </c>
+      <c r="E207" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>12373</v>
+      </c>
+      <c r="B208" t="s">
+        <v>145</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>53</v>
+      </c>
+      <c r="E208" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>12612</v>
+      </c>
+      <c r="B209" t="s">
+        <v>146</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>432</v>
+      </c>
+      <c r="E209" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>12653</v>
+      </c>
+      <c r="B210" t="s">
+        <v>147</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>133.75</v>
+      </c>
+      <c r="E210" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>12658</v>
+      </c>
+      <c r="B211" t="s">
+        <v>148</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>339</v>
+      </c>
+      <c r="E211" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>12663</v>
+      </c>
+      <c r="B212" t="s">
+        <v>149</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>150.25</v>
+      </c>
+      <c r="E212" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>12924</v>
+      </c>
+      <c r="B213" t="s">
+        <v>150</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>559.75</v>
+      </c>
+      <c r="E213" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>12925</v>
+      </c>
+      <c r="B214" t="s">
+        <v>151</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>460.75</v>
+      </c>
+      <c r="E214" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>12930</v>
+      </c>
+      <c r="B215" t="s">
+        <v>152</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>280.25</v>
+      </c>
+      <c r="E215" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>12964</v>
+      </c>
+      <c r="B216" t="s">
+        <v>153</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>70.5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>12964</v>
+      </c>
+      <c r="B217" t="s">
+        <v>153</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>846</v>
+      </c>
+      <c r="E217" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>13036</v>
+      </c>
+      <c r="B218" t="s">
+        <v>154</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218">
+        <v>51.5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>13036</v>
+      </c>
+      <c r="B219" t="s">
+        <v>154</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>618</v>
+      </c>
+      <c r="E219" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>13486</v>
+      </c>
+      <c r="B220" t="s">
+        <v>155</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>235</v>
+      </c>
+      <c r="E220" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>13487</v>
+      </c>
+      <c r="B221" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>231.25</v>
+      </c>
+      <c r="E221" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>13488</v>
+      </c>
+      <c r="B222" t="s">
+        <v>157</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>234.75</v>
+      </c>
+      <c r="E222" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>13491</v>
+      </c>
+      <c r="B223" t="s">
+        <v>158</v>
+      </c>
+      <c r="C223">
+        <v>7</v>
+      </c>
+      <c r="D223">
+        <v>74.5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>13491</v>
+      </c>
+      <c r="B224" t="s">
+        <v>158</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>894</v>
+      </c>
+      <c r="E224" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>19047</v>
+      </c>
+      <c r="B225" t="s">
+        <v>159</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <v>100.75</v>
+      </c>
+      <c r="E225" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>19047</v>
+      </c>
+      <c r="B226" t="s">
+        <v>159</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1209</v>
+      </c>
+      <c r="E226" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>19334</v>
+      </c>
+      <c r="B227" t="s">
+        <v>160</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>692</v>
+      </c>
+      <c r="E227" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>19334</v>
+      </c>
+      <c r="B228" t="s">
+        <v>160</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>43.25</v>
+      </c>
+      <c r="E228" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>19965</v>
+      </c>
+      <c r="B229" t="s">
+        <v>161</v>
+      </c>
+      <c r="C229">
+        <v>29</v>
+      </c>
+      <c r="D229">
+        <v>783</v>
+      </c>
+      <c r="E229" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>19965</v>
+      </c>
+      <c r="B230" t="s">
+        <v>161</v>
+      </c>
+      <c r="C230">
+        <v>25</v>
+      </c>
+      <c r="D230">
+        <v>261</v>
+      </c>
+      <c r="E230" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>19989</v>
+      </c>
+      <c r="B231" t="s">
+        <v>162</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>443.75</v>
+      </c>
+      <c r="E231" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>20682</v>
+      </c>
+      <c r="B232" t="s">
+        <v>163</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>46.25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>21319</v>
+      </c>
+      <c r="B233" t="s">
+        <v>164</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>337.5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>21319</v>
+      </c>
+      <c r="B234" t="s">
+        <v>164</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+      <c r="D234">
+        <v>11.25</v>
+      </c>
+      <c r="E234" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>21482</v>
+      </c>
+      <c r="B235" t="s">
+        <v>165</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>465</v>
+      </c>
+      <c r="E235" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>21482</v>
+      </c>
+      <c r="B236" t="s">
+        <v>165</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236">
+        <v>38.75</v>
+      </c>
+      <c r="E236" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>21701</v>
+      </c>
+      <c r="B237" t="s">
+        <v>166</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1149</v>
+      </c>
+      <c r="E237" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>21701</v>
+      </c>
+      <c r="B238" t="s">
+        <v>166</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>95.75</v>
+      </c>
+      <c r="E238" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>21706</v>
+      </c>
+      <c r="B239" t="s">
+        <v>167</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239">
+        <v>26.25</v>
+      </c>
+      <c r="E239" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>21706</v>
+      </c>
+      <c r="B240" t="s">
+        <v>167</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>945</v>
+      </c>
+      <c r="E240" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>21798</v>
+      </c>
+      <c r="B241" t="s">
+        <v>168</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>228.75</v>
+      </c>
+      <c r="E241" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>22318</v>
+      </c>
+      <c r="B242" t="s">
+        <v>169</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242">
+        <v>95.5</v>
+      </c>
+      <c r="E242" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>22318</v>
+      </c>
+      <c r="B243" t="s">
+        <v>169</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>764</v>
+      </c>
+      <c r="E243" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>22327</v>
+      </c>
+      <c r="B244" t="s">
+        <v>170</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>687.25</v>
+      </c>
+      <c r="E244" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>23234</v>
+      </c>
+      <c r="B245" t="s">
+        <v>171</v>
+      </c>
+      <c r="C245">
+        <v>29</v>
+      </c>
+      <c r="D245">
+        <v>934.5</v>
+      </c>
+      <c r="E245" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>23234</v>
+      </c>
+      <c r="B246" t="s">
+        <v>171</v>
+      </c>
+      <c r="C246">
+        <v>25</v>
+      </c>
+      <c r="D246">
+        <v>311.5</v>
+      </c>
+      <c r="E246" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>23235</v>
+      </c>
+      <c r="B247" t="s">
+        <v>172</v>
+      </c>
+      <c r="C247">
+        <v>25</v>
+      </c>
+      <c r="D247">
+        <v>359</v>
+      </c>
+      <c r="E247" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>23235</v>
+      </c>
+      <c r="B248" t="s">
+        <v>172</v>
+      </c>
+      <c r="C248">
+        <v>29</v>
+      </c>
+      <c r="D248">
+        <v>1077</v>
+      </c>
+      <c r="E248" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>23380</v>
+      </c>
+      <c r="B249" t="s">
+        <v>173</v>
+      </c>
+      <c r="C249">
+        <v>29</v>
+      </c>
+      <c r="D249">
+        <v>928.5</v>
+      </c>
+      <c r="E249" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>23380</v>
+      </c>
+      <c r="B250" t="s">
+        <v>173</v>
+      </c>
+      <c r="C250">
+        <v>25</v>
+      </c>
+      <c r="D250">
+        <v>309.5</v>
+      </c>
+      <c r="E250" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>23603</v>
+      </c>
+      <c r="B251" t="s">
+        <v>174</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>351</v>
+      </c>
+      <c r="E251" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>23603</v>
+      </c>
+      <c r="B252" t="s">
+        <v>174</v>
+      </c>
+      <c r="C252">
+        <v>10</v>
+      </c>
+      <c r="D252">
+        <v>29.25</v>
+      </c>
+      <c r="E252" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>23660</v>
+      </c>
+      <c r="B253" t="s">
+        <v>175</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>310.75</v>
+      </c>
+      <c r="E253" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>23661</v>
+      </c>
+      <c r="B254" t="s">
+        <v>176</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>268.75</v>
+      </c>
+      <c r="E254" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>23662</v>
+      </c>
+      <c r="B255" t="s">
+        <v>177</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>254</v>
+      </c>
+      <c r="E255" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>23757</v>
+      </c>
+      <c r="B256" t="s">
+        <v>178</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>239.5</v>
+      </c>
+      <c r="E256" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>24127</v>
+      </c>
+      <c r="B257" t="s">
+        <v>179</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>129.5</v>
+      </c>
+      <c r="E257" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>24127</v>
+      </c>
+      <c r="B258" t="s">
+        <v>179</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1295</v>
+      </c>
+      <c r="E258" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>24248</v>
+      </c>
+      <c r="B259" t="s">
+        <v>180</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>99.25</v>
+      </c>
+      <c r="E259" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>24248</v>
+      </c>
+      <c r="B260" t="s">
+        <v>180</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1191</v>
+      </c>
+      <c r="E260" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>24566</v>
+      </c>
+      <c r="B261" t="s">
+        <v>181</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>90.25</v>
+      </c>
+      <c r="E261" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>24567</v>
+      </c>
+      <c r="B262" t="s">
+        <v>182</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>90</v>
+      </c>
+      <c r="E262" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>24618</v>
+      </c>
+      <c r="B263" t="s">
+        <v>183</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>104.25</v>
+      </c>
+      <c r="E263" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>24618</v>
+      </c>
+      <c r="B264" t="s">
+        <v>183</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>625.5</v>
+      </c>
+      <c r="E264" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>24724</v>
+      </c>
+      <c r="B265" t="s">
+        <v>184</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>533.75</v>
+      </c>
+      <c r="E265" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>25278</v>
+      </c>
+      <c r="B266" t="s">
+        <v>185</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>105.5</v>
+      </c>
+      <c r="E266" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>25344</v>
+      </c>
+      <c r="B267" t="s">
+        <v>186</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267">
+        <v>229</v>
+      </c>
+      <c r="E267" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>25344</v>
+      </c>
+      <c r="B268" t="s">
+        <v>186</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>2748</v>
+      </c>
+      <c r="E268" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
+    <t>فانتا برتقال - 1.45 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24566</v>
+        <v>2774</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>93.75</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24567</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>91.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_1124_chunk_1.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فانتا برتقال - 1.45 لتر</t>
+    <t>جبنة ديرى فيتا بلس  - 125 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2774</v>
+        <v>21781</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>191</v>
+        <v>284.75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
